--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0C52A9-068B-4989-999F-991BB4381B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63073469-9125-4148-84F9-ED296D6A04B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,20 +628,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.3">

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,14 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63073469-9125-4148-84F9-ED296D6A04B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496473D4-096D-452F-B929-BB1CCD7A6F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BV$72</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -318,12 +334,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BH11" sqref="BH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +712,7 @@
     <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="30" bestFit="1" customWidth="1"/>
@@ -885,7 +905,7 @@
       <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
@@ -1091,6 +1111,9 @@
       <c r="BF2">
         <v>0.4</v>
       </c>
+      <c r="BG2" s="4">
+        <v>6</v>
+      </c>
       <c r="BJ2">
         <v>0</v>
       </c>
@@ -1282,6 +1305,9 @@
       <c r="BF3">
         <v>0.5</v>
       </c>
+      <c r="BG3" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ3">
         <v>0</v>
       </c>
@@ -1473,6 +1499,9 @@
       <c r="BF4">
         <v>0.3</v>
       </c>
+      <c r="BG4" s="4">
+        <v>20</v>
+      </c>
       <c r="BJ4">
         <v>0</v>
       </c>
@@ -1619,6 +1648,9 @@
       <c r="AT5" t="s">
         <v>77</v>
       </c>
+      <c r="BG5" s="4">
+        <v>4</v>
+      </c>
       <c r="BJ5">
         <v>0</v>
       </c>
@@ -1780,6 +1812,9 @@
       <c r="AT6" t="s">
         <v>77</v>
       </c>
+      <c r="BG6" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ6">
         <v>0</v>
       </c>
@@ -1941,6 +1976,9 @@
       <c r="AT7" t="s">
         <v>77</v>
       </c>
+      <c r="BG7" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ7">
         <v>0</v>
       </c>
@@ -2102,6 +2140,9 @@
       <c r="AT8" t="s">
         <v>77</v>
       </c>
+      <c r="BG8" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ8">
         <v>0</v>
       </c>
@@ -2293,6 +2334,9 @@
       <c r="BF9">
         <v>0.4</v>
       </c>
+      <c r="BG9" s="4">
+        <v>7</v>
+      </c>
       <c r="BJ9">
         <v>0</v>
       </c>
@@ -2454,6 +2498,9 @@
       <c r="AT10" t="s">
         <v>77</v>
       </c>
+      <c r="BG10" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ10">
         <v>0</v>
       </c>
@@ -2630,6 +2677,9 @@
       <c r="BE11">
         <v>1.17</v>
       </c>
+      <c r="BG11" s="4">
+        <v>4</v>
+      </c>
       <c r="BJ11">
         <v>0</v>
       </c>
@@ -2791,6 +2841,9 @@
       <c r="AT12" t="s">
         <v>77</v>
       </c>
+      <c r="BG12" s="4">
+        <v>4</v>
+      </c>
       <c r="BJ12">
         <v>0</v>
       </c>
@@ -2952,6 +3005,9 @@
       <c r="AT13" t="s">
         <v>77</v>
       </c>
+      <c r="BG13" s="4">
+        <v>9</v>
+      </c>
       <c r="BJ13">
         <v>0</v>
       </c>
@@ -3113,6 +3169,9 @@
       <c r="AT14" t="s">
         <v>77</v>
       </c>
+      <c r="BG14" s="4">
+        <v>11</v>
+      </c>
       <c r="BJ14">
         <v>0</v>
       </c>
@@ -3289,6 +3348,9 @@
       <c r="BE15">
         <v>0.52</v>
       </c>
+      <c r="BG15" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ15">
         <v>0</v>
       </c>
@@ -3450,6 +3512,9 @@
       <c r="AT16" t="s">
         <v>77</v>
       </c>
+      <c r="BG16" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ16">
         <v>0</v>
       </c>
@@ -3611,6 +3676,9 @@
       <c r="AT17" t="s">
         <v>77</v>
       </c>
+      <c r="BG17" s="4">
+        <v>0</v>
+      </c>
       <c r="BJ17">
         <v>0</v>
       </c>
@@ -3772,6 +3840,9 @@
       <c r="AT18" t="s">
         <v>77</v>
       </c>
+      <c r="BG18" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ18">
         <v>0</v>
       </c>
@@ -3930,6 +4001,9 @@
       <c r="AT19" t="s">
         <v>77</v>
       </c>
+      <c r="BG19" s="4">
+        <v>7</v>
+      </c>
       <c r="BJ19">
         <v>0</v>
       </c>
@@ -4091,6 +4165,9 @@
       <c r="AT20" t="s">
         <v>77</v>
       </c>
+      <c r="BG20" s="4">
+        <v>8</v>
+      </c>
       <c r="BJ20">
         <v>0</v>
       </c>
@@ -4252,6 +4329,9 @@
       <c r="AT21" t="s">
         <v>77</v>
       </c>
+      <c r="BG21" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ21">
         <v>0</v>
       </c>
@@ -4413,6 +4493,9 @@
       <c r="AT22" t="s">
         <v>77</v>
       </c>
+      <c r="BG22" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ22">
         <v>0</v>
       </c>
@@ -4604,6 +4687,9 @@
       <c r="BF23">
         <v>0.2</v>
       </c>
+      <c r="BG23" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ23">
         <v>0</v>
       </c>
@@ -4765,6 +4851,9 @@
       <c r="AT24" t="s">
         <v>77</v>
       </c>
+      <c r="BG24" s="4">
+        <v>5</v>
+      </c>
       <c r="BJ24">
         <v>0</v>
       </c>
@@ -4926,6 +5015,9 @@
       <c r="AT25" t="s">
         <v>77</v>
       </c>
+      <c r="BG25" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ25">
         <v>0</v>
       </c>
@@ -5087,6 +5179,9 @@
       <c r="AT26" t="s">
         <v>77</v>
       </c>
+      <c r="BG26" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ26">
         <v>0</v>
       </c>
@@ -5248,6 +5343,9 @@
       <c r="AT27" t="s">
         <v>77</v>
       </c>
+      <c r="BG27" s="4">
+        <v>10</v>
+      </c>
       <c r="BJ27">
         <v>0</v>
       </c>
@@ -5409,6 +5507,9 @@
       <c r="AT28" t="s">
         <v>77</v>
       </c>
+      <c r="BG28" s="4">
+        <v>12</v>
+      </c>
       <c r="BJ28">
         <v>0</v>
       </c>
@@ -5561,6 +5662,9 @@
       <c r="AT29" t="s">
         <v>77</v>
       </c>
+      <c r="BG29" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ29">
         <v>0</v>
       </c>
@@ -5722,6 +5826,9 @@
       <c r="AT30" t="s">
         <v>77</v>
       </c>
+      <c r="BG30" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ30">
         <v>0</v>
       </c>
@@ -5883,6 +5990,9 @@
       <c r="AT31" t="s">
         <v>77</v>
       </c>
+      <c r="BG31" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ31">
         <v>0</v>
       </c>
@@ -6044,6 +6154,9 @@
       <c r="AT32" t="s">
         <v>77</v>
       </c>
+      <c r="BG32" s="4">
+        <v>7</v>
+      </c>
       <c r="BJ32">
         <v>0</v>
       </c>
@@ -6205,6 +6318,9 @@
       <c r="AT33" t="s">
         <v>77</v>
       </c>
+      <c r="BG33" s="4">
+        <v>16</v>
+      </c>
       <c r="BJ33">
         <v>0</v>
       </c>
@@ -6396,6 +6512,9 @@
       <c r="BF34">
         <v>0.1</v>
       </c>
+      <c r="BG34" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ34">
         <v>0</v>
       </c>
@@ -6557,6 +6676,9 @@
       <c r="AT35" t="s">
         <v>77</v>
       </c>
+      <c r="BG35" s="4">
+        <v>11</v>
+      </c>
       <c r="BJ35">
         <v>0</v>
       </c>
@@ -6748,6 +6870,9 @@
       <c r="BF36">
         <v>0.2</v>
       </c>
+      <c r="BG36" s="4">
+        <v>6</v>
+      </c>
       <c r="BJ36">
         <v>0</v>
       </c>
@@ -6909,6 +7034,9 @@
       <c r="AT37" t="s">
         <v>77</v>
       </c>
+      <c r="BG37" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ37">
         <v>0</v>
       </c>
@@ -7070,6 +7198,9 @@
       <c r="AT38" t="s">
         <v>77</v>
       </c>
+      <c r="BG38" s="4">
+        <v>9</v>
+      </c>
       <c r="BJ38">
         <v>0</v>
       </c>
@@ -7231,6 +7362,9 @@
       <c r="AT39" t="s">
         <v>77</v>
       </c>
+      <c r="BG39" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ39">
         <v>0</v>
       </c>
@@ -7422,6 +7556,9 @@
       <c r="BF40">
         <v>0.2</v>
       </c>
+      <c r="BG40" s="4">
+        <v>10</v>
+      </c>
       <c r="BJ40">
         <v>0</v>
       </c>
@@ -7613,6 +7750,9 @@
       <c r="BF41">
         <v>0.9</v>
       </c>
+      <c r="BG41" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ41">
         <v>0</v>
       </c>
@@ -7774,6 +7914,9 @@
       <c r="AT42" t="s">
         <v>77</v>
       </c>
+      <c r="BG42" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ42">
         <v>0</v>
       </c>
@@ -7965,6 +8108,9 @@
       <c r="BF43">
         <v>0.2</v>
       </c>
+      <c r="BG43" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ43">
         <v>0</v>
       </c>
@@ -8156,6 +8302,9 @@
       <c r="BF44">
         <v>0.8</v>
       </c>
+      <c r="BG44" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ44">
         <v>0</v>
       </c>
@@ -8347,6 +8496,9 @@
       <c r="BF45">
         <v>0.2</v>
       </c>
+      <c r="BG45" s="4">
+        <v>5</v>
+      </c>
       <c r="BJ45">
         <v>0</v>
       </c>
@@ -8508,6 +8660,9 @@
       <c r="AT46" t="s">
         <v>77</v>
       </c>
+      <c r="BG46" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ46">
         <v>0</v>
       </c>
@@ -8669,6 +8824,9 @@
       <c r="AT47" t="s">
         <v>77</v>
       </c>
+      <c r="BG47" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ47">
         <v>0</v>
       </c>
@@ -8830,6 +8988,9 @@
       <c r="AT48" t="s">
         <v>77</v>
       </c>
+      <c r="BG48" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ48">
         <v>0</v>
       </c>
@@ -9021,6 +9182,9 @@
       <c r="BF49">
         <v>0.5</v>
       </c>
+      <c r="BG49" s="4">
+        <v>11</v>
+      </c>
       <c r="BJ49">
         <v>0</v>
       </c>
@@ -9212,6 +9376,9 @@
       <c r="BF50">
         <v>0.3</v>
       </c>
+      <c r="BG50" s="4">
+        <v>5</v>
+      </c>
       <c r="BJ50">
         <v>0</v>
       </c>
@@ -9373,6 +9540,9 @@
       <c r="AT51" t="s">
         <v>77</v>
       </c>
+      <c r="BG51" s="4">
+        <v>1</v>
+      </c>
       <c r="BJ51">
         <v>0</v>
       </c>
@@ -9534,6 +9704,9 @@
       <c r="AT52" t="s">
         <v>77</v>
       </c>
+      <c r="BG52" s="4">
+        <v>7</v>
+      </c>
       <c r="BJ52">
         <v>0</v>
       </c>
@@ -9725,6 +9898,9 @@
       <c r="BF53">
         <v>0.4</v>
       </c>
+      <c r="BG53" s="4">
+        <v>32</v>
+      </c>
       <c r="BJ53">
         <v>0</v>
       </c>
@@ -9886,6 +10062,9 @@
       <c r="AT54" t="s">
         <v>77</v>
       </c>
+      <c r="BG54" s="4">
+        <v>16</v>
+      </c>
       <c r="BJ54">
         <v>0</v>
       </c>
@@ -10077,6 +10256,9 @@
       <c r="BF55">
         <v>0.1</v>
       </c>
+      <c r="BG55" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ55">
         <v>0</v>
       </c>
@@ -10238,6 +10420,9 @@
       <c r="AT56" t="s">
         <v>77</v>
       </c>
+      <c r="BG56" s="4">
+        <v>4</v>
+      </c>
       <c r="BJ56">
         <v>0</v>
       </c>
@@ -10399,6 +10584,9 @@
       <c r="AT57" t="s">
         <v>77</v>
       </c>
+      <c r="BG57" s="4">
+        <v>7</v>
+      </c>
       <c r="BJ57">
         <v>0</v>
       </c>
@@ -10554,6 +10742,9 @@
       <c r="AT58" t="s">
         <v>77</v>
       </c>
+      <c r="BG58" s="4">
+        <v>4</v>
+      </c>
       <c r="BJ58">
         <v>0</v>
       </c>
@@ -10745,6 +10936,9 @@
       <c r="BF59">
         <v>0.2</v>
       </c>
+      <c r="BG59" s="4">
+        <v>5</v>
+      </c>
       <c r="BJ59">
         <v>0</v>
       </c>
@@ -10906,6 +11100,9 @@
       <c r="AT60" t="s">
         <v>77</v>
       </c>
+      <c r="BG60" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ60">
         <v>0</v>
       </c>
@@ -11067,6 +11264,9 @@
       <c r="AT61" t="s">
         <v>77</v>
       </c>
+      <c r="BG61" s="4">
+        <v>6</v>
+      </c>
       <c r="BJ61">
         <v>0</v>
       </c>
@@ -11338,6 +11538,9 @@
       <c r="BF63">
         <v>0.4</v>
       </c>
+      <c r="BG63" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ63">
         <v>0</v>
       </c>
@@ -11529,6 +11732,9 @@
       <c r="BF64">
         <v>0.7</v>
       </c>
+      <c r="BG64" s="4">
+        <v>4</v>
+      </c>
       <c r="BJ64">
         <v>0</v>
       </c>
@@ -11690,6 +11896,9 @@
       <c r="AT65" t="s">
         <v>77</v>
       </c>
+      <c r="BG65" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ65">
         <v>0</v>
       </c>
@@ -11851,6 +12060,9 @@
       <c r="AT66" t="s">
         <v>77</v>
       </c>
+      <c r="BG66" s="4">
+        <v>7</v>
+      </c>
       <c r="BJ66">
         <v>0</v>
       </c>
@@ -12042,6 +12254,9 @@
       <c r="BF67">
         <v>0.5</v>
       </c>
+      <c r="BG67" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ67">
         <v>0</v>
       </c>
@@ -12203,6 +12418,9 @@
       <c r="AT68" t="s">
         <v>77</v>
       </c>
+      <c r="BG68" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ68">
         <v>0</v>
       </c>
@@ -12394,6 +12612,9 @@
       <c r="BF69">
         <v>2.2000000000000002</v>
       </c>
+      <c r="BG69" s="4">
+        <v>2</v>
+      </c>
       <c r="BJ69">
         <v>0</v>
       </c>
@@ -12656,6 +12877,9 @@
       <c r="AT71" t="s">
         <v>77</v>
       </c>
+      <c r="BG71" s="4">
+        <v>22</v>
+      </c>
       <c r="BJ71">
         <v>0</v>
       </c>
@@ -12817,6 +13041,9 @@
       <c r="AT72" t="s">
         <v>77</v>
       </c>
+      <c r="BG72" s="4">
+        <v>3</v>
+      </c>
       <c r="BJ72">
         <v>0</v>
       </c>
@@ -12852,6 +13079,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BV72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496473D4-096D-452F-B929-BB1CCD7A6F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE1605E-749C-4210-82FE-E038B6C197DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,16 +334,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BH11" sqref="BH11"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BH13" sqref="BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,7 +708,7 @@
     <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="30" bestFit="1" customWidth="1"/>
@@ -905,7 +901,7 @@
       <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
@@ -1111,7 +1107,7 @@
       <c r="BF2">
         <v>0.4</v>
       </c>
-      <c r="BG2" s="4">
+      <c r="BG2">
         <v>6</v>
       </c>
       <c r="BJ2">
@@ -1305,7 +1301,7 @@
       <c r="BF3">
         <v>0.5</v>
       </c>
-      <c r="BG3" s="4">
+      <c r="BG3">
         <v>2</v>
       </c>
       <c r="BJ3">
@@ -1499,7 +1495,7 @@
       <c r="BF4">
         <v>0.3</v>
       </c>
-      <c r="BG4" s="4">
+      <c r="BG4">
         <v>20</v>
       </c>
       <c r="BJ4">
@@ -1648,7 +1644,7 @@
       <c r="AT5" t="s">
         <v>77</v>
       </c>
-      <c r="BG5" s="4">
+      <c r="BG5">
         <v>4</v>
       </c>
       <c r="BJ5">
@@ -1812,7 +1808,7 @@
       <c r="AT6" t="s">
         <v>77</v>
       </c>
-      <c r="BG6" s="4">
+      <c r="BG6">
         <v>1</v>
       </c>
       <c r="BJ6">
@@ -1976,7 +1972,7 @@
       <c r="AT7" t="s">
         <v>77</v>
       </c>
-      <c r="BG7" s="4">
+      <c r="BG7">
         <v>2</v>
       </c>
       <c r="BJ7">
@@ -2140,7 +2136,7 @@
       <c r="AT8" t="s">
         <v>77</v>
       </c>
-      <c r="BG8" s="4">
+      <c r="BG8">
         <v>1</v>
       </c>
       <c r="BJ8">
@@ -2334,7 +2330,7 @@
       <c r="BF9">
         <v>0.4</v>
       </c>
-      <c r="BG9" s="4">
+      <c r="BG9">
         <v>7</v>
       </c>
       <c r="BJ9">
@@ -2498,7 +2494,7 @@
       <c r="AT10" t="s">
         <v>77</v>
       </c>
-      <c r="BG10" s="4">
+      <c r="BG10">
         <v>1</v>
       </c>
       <c r="BJ10">
@@ -2677,7 +2673,7 @@
       <c r="BE11">
         <v>1.17</v>
       </c>
-      <c r="BG11" s="4">
+      <c r="BG11">
         <v>4</v>
       </c>
       <c r="BJ11">
@@ -2841,7 +2837,7 @@
       <c r="AT12" t="s">
         <v>77</v>
       </c>
-      <c r="BG12" s="4">
+      <c r="BG12">
         <v>4</v>
       </c>
       <c r="BJ12">
@@ -3005,7 +3001,7 @@
       <c r="AT13" t="s">
         <v>77</v>
       </c>
-      <c r="BG13" s="4">
+      <c r="BG13">
         <v>9</v>
       </c>
       <c r="BJ13">
@@ -3169,7 +3165,7 @@
       <c r="AT14" t="s">
         <v>77</v>
       </c>
-      <c r="BG14" s="4">
+      <c r="BG14">
         <v>11</v>
       </c>
       <c r="BJ14">
@@ -3348,7 +3344,7 @@
       <c r="BE15">
         <v>0.52</v>
       </c>
-      <c r="BG15" s="4">
+      <c r="BG15">
         <v>3</v>
       </c>
       <c r="BJ15">
@@ -3512,7 +3508,7 @@
       <c r="AT16" t="s">
         <v>77</v>
       </c>
-      <c r="BG16" s="4">
+      <c r="BG16">
         <v>1</v>
       </c>
       <c r="BJ16">
@@ -3676,7 +3672,7 @@
       <c r="AT17" t="s">
         <v>77</v>
       </c>
-      <c r="BG17" s="4">
+      <c r="BG17">
         <v>0</v>
       </c>
       <c r="BJ17">
@@ -3840,7 +3836,7 @@
       <c r="AT18" t="s">
         <v>77</v>
       </c>
-      <c r="BG18" s="4">
+      <c r="BG18">
         <v>2</v>
       </c>
       <c r="BJ18">
@@ -4001,7 +3997,7 @@
       <c r="AT19" t="s">
         <v>77</v>
       </c>
-      <c r="BG19" s="4">
+      <c r="BG19">
         <v>7</v>
       </c>
       <c r="BJ19">
@@ -4165,7 +4161,7 @@
       <c r="AT20" t="s">
         <v>77</v>
       </c>
-      <c r="BG20" s="4">
+      <c r="BG20">
         <v>8</v>
       </c>
       <c r="BJ20">
@@ -4329,7 +4325,7 @@
       <c r="AT21" t="s">
         <v>77</v>
       </c>
-      <c r="BG21" s="4">
+      <c r="BG21">
         <v>1</v>
       </c>
       <c r="BJ21">
@@ -4493,7 +4489,7 @@
       <c r="AT22" t="s">
         <v>77</v>
       </c>
-      <c r="BG22" s="4">
+      <c r="BG22">
         <v>1</v>
       </c>
       <c r="BJ22">
@@ -4687,7 +4683,7 @@
       <c r="BF23">
         <v>0.2</v>
       </c>
-      <c r="BG23" s="4">
+      <c r="BG23">
         <v>1</v>
       </c>
       <c r="BJ23">
@@ -4851,7 +4847,7 @@
       <c r="AT24" t="s">
         <v>77</v>
       </c>
-      <c r="BG24" s="4">
+      <c r="BG24">
         <v>5</v>
       </c>
       <c r="BJ24">
@@ -5015,7 +5011,7 @@
       <c r="AT25" t="s">
         <v>77</v>
       </c>
-      <c r="BG25" s="4">
+      <c r="BG25">
         <v>2</v>
       </c>
       <c r="BJ25">
@@ -5179,7 +5175,7 @@
       <c r="AT26" t="s">
         <v>77</v>
       </c>
-      <c r="BG26" s="4">
+      <c r="BG26">
         <v>3</v>
       </c>
       <c r="BJ26">
@@ -5343,7 +5339,7 @@
       <c r="AT27" t="s">
         <v>77</v>
       </c>
-      <c r="BG27" s="4">
+      <c r="BG27">
         <v>10</v>
       </c>
       <c r="BJ27">
@@ -5507,7 +5503,7 @@
       <c r="AT28" t="s">
         <v>77</v>
       </c>
-      <c r="BG28" s="4">
+      <c r="BG28">
         <v>12</v>
       </c>
       <c r="BJ28">
@@ -5662,7 +5658,7 @@
       <c r="AT29" t="s">
         <v>77</v>
       </c>
-      <c r="BG29" s="4">
+      <c r="BG29">
         <v>3</v>
       </c>
       <c r="BJ29">
@@ -5826,7 +5822,7 @@
       <c r="AT30" t="s">
         <v>77</v>
       </c>
-      <c r="BG30" s="4">
+      <c r="BG30">
         <v>3</v>
       </c>
       <c r="BJ30">
@@ -5990,7 +5986,7 @@
       <c r="AT31" t="s">
         <v>77</v>
       </c>
-      <c r="BG31" s="4">
+      <c r="BG31">
         <v>2</v>
       </c>
       <c r="BJ31">
@@ -6154,7 +6150,7 @@
       <c r="AT32" t="s">
         <v>77</v>
       </c>
-      <c r="BG32" s="4">
+      <c r="BG32">
         <v>7</v>
       </c>
       <c r="BJ32">
@@ -6318,7 +6314,7 @@
       <c r="AT33" t="s">
         <v>77</v>
       </c>
-      <c r="BG33" s="4">
+      <c r="BG33">
         <v>16</v>
       </c>
       <c r="BJ33">
@@ -6512,7 +6508,7 @@
       <c r="BF34">
         <v>0.1</v>
       </c>
-      <c r="BG34" s="4">
+      <c r="BG34">
         <v>2</v>
       </c>
       <c r="BJ34">
@@ -6676,7 +6672,7 @@
       <c r="AT35" t="s">
         <v>77</v>
       </c>
-      <c r="BG35" s="4">
+      <c r="BG35">
         <v>11</v>
       </c>
       <c r="BJ35">
@@ -6870,7 +6866,7 @@
       <c r="BF36">
         <v>0.2</v>
       </c>
-      <c r="BG36" s="4">
+      <c r="BG36">
         <v>6</v>
       </c>
       <c r="BJ36">
@@ -7034,7 +7030,7 @@
       <c r="AT37" t="s">
         <v>77</v>
       </c>
-      <c r="BG37" s="4">
+      <c r="BG37">
         <v>1</v>
       </c>
       <c r="BJ37">
@@ -7198,7 +7194,7 @@
       <c r="AT38" t="s">
         <v>77</v>
       </c>
-      <c r="BG38" s="4">
+      <c r="BG38">
         <v>9</v>
       </c>
       <c r="BJ38">
@@ -7362,7 +7358,7 @@
       <c r="AT39" t="s">
         <v>77</v>
       </c>
-      <c r="BG39" s="4">
+      <c r="BG39">
         <v>2</v>
       </c>
       <c r="BJ39">
@@ -7556,7 +7552,7 @@
       <c r="BF40">
         <v>0.2</v>
       </c>
-      <c r="BG40" s="4">
+      <c r="BG40">
         <v>10</v>
       </c>
       <c r="BJ40">
@@ -7750,7 +7746,7 @@
       <c r="BF41">
         <v>0.9</v>
       </c>
-      <c r="BG41" s="4">
+      <c r="BG41">
         <v>3</v>
       </c>
       <c r="BJ41">
@@ -7914,7 +7910,7 @@
       <c r="AT42" t="s">
         <v>77</v>
       </c>
-      <c r="BG42" s="4">
+      <c r="BG42">
         <v>2</v>
       </c>
       <c r="BJ42">
@@ -8108,7 +8104,7 @@
       <c r="BF43">
         <v>0.2</v>
       </c>
-      <c r="BG43" s="4">
+      <c r="BG43">
         <v>1</v>
       </c>
       <c r="BJ43">
@@ -8302,7 +8298,7 @@
       <c r="BF44">
         <v>0.8</v>
       </c>
-      <c r="BG44" s="4">
+      <c r="BG44">
         <v>1</v>
       </c>
       <c r="BJ44">
@@ -8496,7 +8492,7 @@
       <c r="BF45">
         <v>0.2</v>
       </c>
-      <c r="BG45" s="4">
+      <c r="BG45">
         <v>5</v>
       </c>
       <c r="BJ45">
@@ -8660,7 +8656,7 @@
       <c r="AT46" t="s">
         <v>77</v>
       </c>
-      <c r="BG46" s="4">
+      <c r="BG46">
         <v>1</v>
       </c>
       <c r="BJ46">
@@ -8824,7 +8820,7 @@
       <c r="AT47" t="s">
         <v>77</v>
       </c>
-      <c r="BG47" s="4">
+      <c r="BG47">
         <v>2</v>
       </c>
       <c r="BJ47">
@@ -8988,7 +8984,7 @@
       <c r="AT48" t="s">
         <v>77</v>
       </c>
-      <c r="BG48" s="4">
+      <c r="BG48">
         <v>2</v>
       </c>
       <c r="BJ48">
@@ -9182,7 +9178,7 @@
       <c r="BF49">
         <v>0.5</v>
       </c>
-      <c r="BG49" s="4">
+      <c r="BG49">
         <v>11</v>
       </c>
       <c r="BJ49">
@@ -9376,7 +9372,7 @@
       <c r="BF50">
         <v>0.3</v>
       </c>
-      <c r="BG50" s="4">
+      <c r="BG50">
         <v>5</v>
       </c>
       <c r="BJ50">
@@ -9540,7 +9536,7 @@
       <c r="AT51" t="s">
         <v>77</v>
       </c>
-      <c r="BG51" s="4">
+      <c r="BG51">
         <v>1</v>
       </c>
       <c r="BJ51">
@@ -9704,7 +9700,7 @@
       <c r="AT52" t="s">
         <v>77</v>
       </c>
-      <c r="BG52" s="4">
+      <c r="BG52">
         <v>7</v>
       </c>
       <c r="BJ52">
@@ -9898,7 +9894,7 @@
       <c r="BF53">
         <v>0.4</v>
       </c>
-      <c r="BG53" s="4">
+      <c r="BG53">
         <v>32</v>
       </c>
       <c r="BJ53">
@@ -10062,7 +10058,7 @@
       <c r="AT54" t="s">
         <v>77</v>
       </c>
-      <c r="BG54" s="4">
+      <c r="BG54">
         <v>16</v>
       </c>
       <c r="BJ54">
@@ -10256,7 +10252,7 @@
       <c r="BF55">
         <v>0.1</v>
       </c>
-      <c r="BG55" s="4">
+      <c r="BG55">
         <v>2</v>
       </c>
       <c r="BJ55">
@@ -10420,7 +10416,7 @@
       <c r="AT56" t="s">
         <v>77</v>
       </c>
-      <c r="BG56" s="4">
+      <c r="BG56">
         <v>4</v>
       </c>
       <c r="BJ56">
@@ -10584,7 +10580,7 @@
       <c r="AT57" t="s">
         <v>77</v>
       </c>
-      <c r="BG57" s="4">
+      <c r="BG57">
         <v>7</v>
       </c>
       <c r="BJ57">
@@ -10742,7 +10738,7 @@
       <c r="AT58" t="s">
         <v>77</v>
       </c>
-      <c r="BG58" s="4">
+      <c r="BG58">
         <v>4</v>
       </c>
       <c r="BJ58">
@@ -10936,7 +10932,7 @@
       <c r="BF59">
         <v>0.2</v>
       </c>
-      <c r="BG59" s="4">
+      <c r="BG59">
         <v>5</v>
       </c>
       <c r="BJ59">
@@ -11100,7 +11096,7 @@
       <c r="AT60" t="s">
         <v>77</v>
       </c>
-      <c r="BG60" s="4">
+      <c r="BG60">
         <v>3</v>
       </c>
       <c r="BJ60">
@@ -11264,7 +11260,7 @@
       <c r="AT61" t="s">
         <v>77</v>
       </c>
-      <c r="BG61" s="4">
+      <c r="BG61">
         <v>6</v>
       </c>
       <c r="BJ61">
@@ -11538,7 +11534,7 @@
       <c r="BF63">
         <v>0.4</v>
       </c>
-      <c r="BG63" s="4">
+      <c r="BG63">
         <v>3</v>
       </c>
       <c r="BJ63">
@@ -11732,7 +11728,7 @@
       <c r="BF64">
         <v>0.7</v>
       </c>
-      <c r="BG64" s="4">
+      <c r="BG64">
         <v>4</v>
       </c>
       <c r="BJ64">
@@ -11896,7 +11892,7 @@
       <c r="AT65" t="s">
         <v>77</v>
       </c>
-      <c r="BG65" s="4">
+      <c r="BG65">
         <v>3</v>
       </c>
       <c r="BJ65">
@@ -12060,7 +12056,7 @@
       <c r="AT66" t="s">
         <v>77</v>
       </c>
-      <c r="BG66" s="4">
+      <c r="BG66">
         <v>7</v>
       </c>
       <c r="BJ66">
@@ -12254,7 +12250,7 @@
       <c r="BF67">
         <v>0.5</v>
       </c>
-      <c r="BG67" s="4">
+      <c r="BG67">
         <v>2</v>
       </c>
       <c r="BJ67">
@@ -12418,7 +12414,7 @@
       <c r="AT68" t="s">
         <v>77</v>
       </c>
-      <c r="BG68" s="4">
+      <c r="BG68">
         <v>2</v>
       </c>
       <c r="BJ68">
@@ -12612,7 +12608,7 @@
       <c r="BF69">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BG69" s="4">
+      <c r="BG69">
         <v>2</v>
       </c>
       <c r="BJ69">
@@ -12877,7 +12873,7 @@
       <c r="AT71" t="s">
         <v>77</v>
       </c>
-      <c r="BG71" s="4">
+      <c r="BG71">
         <v>22</v>
       </c>
       <c r="BJ71">
@@ -13041,7 +13037,7 @@
       <c r="AT72" t="s">
         <v>77</v>
       </c>
-      <c r="BG72" s="4">
+      <c r="BG72">
         <v>3</v>
       </c>
       <c r="BJ72">

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE1605E-749C-4210-82FE-E038B6C197DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D2B148-784A-4D45-9511-EDD44943B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,12 +299,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -334,12 +340,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BH13" sqref="BH13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="BQ9" sqref="BQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +671,7 @@
     <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -715,9 +725,9 @@
     <col min="63" max="63" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="27.77734375" bestFit="1" customWidth="1"/>
@@ -760,7 +770,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -922,13 +932,13 @@
       <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BQ1" s="1" t="s">
@@ -981,7 +991,7 @@
       <c r="K2">
         <v>40.1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
       <c r="M2">
@@ -1119,13 +1129,13 @@
       <c r="BM2">
         <v>24.5</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="4">
         <v>3.69</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="4">
         <v>2.46</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="4">
         <v>0.67</v>
       </c>
       <c r="BQ2">
@@ -1175,7 +1185,7 @@
       <c r="K3">
         <v>30.6</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>0</v>
       </c>
       <c r="M3">
@@ -1313,13 +1323,13 @@
       <c r="BM3">
         <v>19</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="4">
         <v>5.96</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="4">
         <v>4.6500000000000004</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="4">
         <v>0.78</v>
       </c>
       <c r="BQ3">
@@ -1369,7 +1379,7 @@
       <c r="K4">
         <v>42.2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>2</v>
       </c>
       <c r="M4">
@@ -1548,7 +1558,7 @@
       <c r="K5">
         <v>25</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5">
@@ -1656,13 +1666,13 @@
       <c r="BM5">
         <v>34.5</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="4">
         <v>4.96</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="4">
         <v>3.99</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="4">
         <v>0.8</v>
       </c>
       <c r="BQ5">
@@ -1712,7 +1722,7 @@
       <c r="K6">
         <v>25.1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>1</v>
       </c>
       <c r="M6">
@@ -1820,13 +1830,13 @@
       <c r="BM6">
         <v>23.5</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="4">
         <v>5.27</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="4">
         <v>3.85</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="4">
         <v>0.73</v>
       </c>
       <c r="BQ6">
@@ -1876,7 +1886,7 @@
       <c r="K7">
         <v>31.2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>1.5</v>
       </c>
       <c r="M7">
@@ -1984,13 +1994,13 @@
       <c r="BM7">
         <v>36.5</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" s="4">
         <v>4.72</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" s="4">
         <v>4.12</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" s="4">
         <v>0.87</v>
       </c>
       <c r="BQ7">
@@ -2040,7 +2050,7 @@
       <c r="K8">
         <v>17.899999999999999</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8">
@@ -2148,13 +2158,13 @@
       <c r="BM8">
         <v>16</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" s="4">
         <v>2.59</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" s="4">
         <v>2.46</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" s="4">
         <v>0.95</v>
       </c>
       <c r="BQ8">
@@ -2204,7 +2214,7 @@
       <c r="K9">
         <v>26.4</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>0</v>
       </c>
       <c r="M9">
@@ -2342,13 +2352,13 @@
       <c r="BM9">
         <v>42.5</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" s="4">
         <v>3.9</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" s="4">
         <v>3.29</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" s="4">
         <v>0.84</v>
       </c>
       <c r="BQ9">
@@ -2398,7 +2408,7 @@
       <c r="K10">
         <v>22.8</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>0.5</v>
       </c>
       <c r="M10">
@@ -2506,13 +2516,13 @@
       <c r="BM10">
         <v>22.5</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" s="4">
         <v>6.71</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" s="4">
         <v>4.87</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" s="4">
         <v>0.73</v>
       </c>
       <c r="BQ10">
@@ -2562,7 +2572,7 @@
       <c r="K11">
         <v>27.5</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>0</v>
       </c>
       <c r="M11">
@@ -2685,13 +2695,13 @@
       <c r="BM11">
         <v>24.5</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" s="4">
         <v>3.36</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" s="4">
         <v>3.09</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" s="4">
         <v>0.92</v>
       </c>
       <c r="BQ11">
@@ -2741,7 +2751,7 @@
       <c r="K12">
         <v>26.6</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>0</v>
       </c>
       <c r="M12">
@@ -2849,13 +2859,13 @@
       <c r="BM12">
         <v>26.5</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" s="4">
         <v>5.61</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" s="4">
         <v>4.67</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ12">
@@ -2905,7 +2915,7 @@
       <c r="K13">
         <v>27.1</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>2</v>
       </c>
       <c r="M13">
@@ -3013,13 +3023,13 @@
       <c r="BM13">
         <v>29.5</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" s="4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" s="4">
         <v>3.83</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" s="4">
         <v>0.8</v>
       </c>
       <c r="BQ13">
@@ -3069,7 +3079,7 @@
       <c r="K14">
         <v>36.799999999999997</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <v>2.5</v>
       </c>
       <c r="M14">
@@ -3177,13 +3187,13 @@
       <c r="BM14">
         <v>26.5</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" s="4">
         <v>3.4</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" s="4">
         <v>2.31</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" s="4">
         <v>0.68</v>
       </c>
       <c r="BQ14">
@@ -3233,7 +3243,7 @@
       <c r="K15">
         <v>29.4</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>0</v>
       </c>
       <c r="M15">
@@ -3356,13 +3366,13 @@
       <c r="BM15">
         <v>75</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" s="4">
         <v>4.82</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" s="4">
         <v>4.1100000000000003</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" s="4">
         <v>0.85</v>
       </c>
       <c r="BQ15">
@@ -3412,7 +3422,7 @@
       <c r="K16">
         <v>18.8</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <v>0.5</v>
       </c>
       <c r="M16">
@@ -3520,13 +3530,13 @@
       <c r="BM16">
         <v>20.5</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" s="4">
         <v>3.79</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" s="4">
         <v>3.03</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" s="4">
         <v>0.8</v>
       </c>
       <c r="BQ16">
@@ -3576,7 +3586,7 @@
       <c r="K17">
         <v>26.9</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>0</v>
       </c>
       <c r="M17">
@@ -3684,13 +3694,13 @@
       <c r="BM17">
         <v>18.5</v>
       </c>
-      <c r="BN17">
+      <c r="BN17" s="4">
         <v>3.75</v>
       </c>
-      <c r="BO17">
+      <c r="BO17" s="4">
         <v>3.07</v>
       </c>
-      <c r="BP17">
+      <c r="BP17" s="4">
         <v>0.82</v>
       </c>
       <c r="BQ17">
@@ -3740,7 +3750,7 @@
       <c r="K18">
         <v>26.9</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>0</v>
       </c>
       <c r="M18">
@@ -3848,13 +3858,13 @@
       <c r="BM18">
         <v>32</v>
       </c>
-      <c r="BN18">
+      <c r="BN18" s="4">
         <v>5.42</v>
       </c>
-      <c r="BO18">
+      <c r="BO18" s="4">
         <v>4.05</v>
       </c>
-      <c r="BP18">
+      <c r="BP18" s="4">
         <v>0.75</v>
       </c>
       <c r="BQ18">
@@ -3901,7 +3911,7 @@
       <c r="K19">
         <v>33.299999999999997</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>0</v>
       </c>
       <c r="M19">
@@ -4009,13 +4019,13 @@
       <c r="BM19">
         <v>15.5</v>
       </c>
-      <c r="BN19">
+      <c r="BN19" s="4">
         <v>5.36</v>
       </c>
-      <c r="BO19">
+      <c r="BO19" s="4">
         <v>3.81</v>
       </c>
-      <c r="BP19">
+      <c r="BP19" s="4">
         <v>0.71</v>
       </c>
       <c r="BQ19">
@@ -4065,7 +4075,7 @@
       <c r="K20">
         <v>27.4</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>1</v>
       </c>
       <c r="M20">
@@ -4173,13 +4183,13 @@
       <c r="BM20">
         <v>16</v>
       </c>
-      <c r="BN20">
+      <c r="BN20" s="4">
         <v>4.5</v>
       </c>
-      <c r="BO20">
+      <c r="BO20" s="4">
         <v>3.73</v>
       </c>
-      <c r="BP20">
+      <c r="BP20" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ20">
@@ -4229,7 +4239,7 @@
       <c r="K21">
         <v>25.7</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>0</v>
       </c>
       <c r="M21">
@@ -4337,13 +4347,13 @@
       <c r="BM21">
         <v>21</v>
       </c>
-      <c r="BN21">
+      <c r="BN21" s="4">
         <v>4.95</v>
       </c>
-      <c r="BO21">
+      <c r="BO21" s="4">
         <v>3.88</v>
       </c>
-      <c r="BP21">
+      <c r="BP21" s="4">
         <v>0.78</v>
       </c>
       <c r="BQ21">
@@ -4393,7 +4403,7 @@
       <c r="K22">
         <v>26.1</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>0</v>
       </c>
       <c r="M22">
@@ -4501,13 +4511,13 @@
       <c r="BM22">
         <v>16</v>
       </c>
-      <c r="BN22">
+      <c r="BN22" s="4">
         <v>5.0199999999999996</v>
       </c>
-      <c r="BO22">
+      <c r="BO22" s="4">
         <v>4.2699999999999996</v>
       </c>
-      <c r="BP22">
+      <c r="BP22" s="4">
         <v>0.85</v>
       </c>
       <c r="BQ22">
@@ -4557,7 +4567,7 @@
       <c r="K23">
         <v>20.8</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>0</v>
       </c>
       <c r="M23">
@@ -4695,13 +4705,13 @@
       <c r="BM23">
         <v>24.5</v>
       </c>
-      <c r="BN23">
+      <c r="BN23" s="4">
         <v>3.44</v>
       </c>
-      <c r="BO23">
+      <c r="BO23" s="4">
         <v>2.69</v>
       </c>
-      <c r="BP23">
+      <c r="BP23" s="4">
         <v>0.78</v>
       </c>
       <c r="BQ23">
@@ -4751,7 +4761,7 @@
       <c r="K24">
         <v>26.8</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>0</v>
       </c>
       <c r="M24">
@@ -4859,13 +4869,13 @@
       <c r="BM24">
         <v>33.5</v>
       </c>
-      <c r="BN24">
+      <c r="BN24" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="BO24">
+      <c r="BO24" s="4">
         <v>3.65</v>
       </c>
-      <c r="BP24">
+      <c r="BP24" s="4">
         <v>0.79</v>
       </c>
       <c r="BQ24">
@@ -4915,7 +4925,7 @@
       <c r="K25">
         <v>27.7</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>0</v>
       </c>
       <c r="M25">
@@ -5023,13 +5033,13 @@
       <c r="BM25">
         <v>47.5</v>
       </c>
-      <c r="BN25">
+      <c r="BN25" s="4">
         <v>4.29</v>
       </c>
-      <c r="BO25">
+      <c r="BO25" s="4">
         <v>3.5</v>
       </c>
-      <c r="BP25">
+      <c r="BP25" s="4">
         <v>0.82</v>
       </c>
       <c r="BQ25">
@@ -5079,7 +5089,7 @@
       <c r="K26">
         <v>21.8</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="4">
         <v>2.5</v>
       </c>
       <c r="M26">
@@ -5187,13 +5197,13 @@
       <c r="BM26">
         <v>15.5</v>
       </c>
-      <c r="BN26">
+      <c r="BN26" s="4">
         <v>4.54</v>
       </c>
-      <c r="BO26">
+      <c r="BO26" s="4">
         <v>3.1</v>
       </c>
-      <c r="BP26">
+      <c r="BP26" s="4">
         <v>0.68</v>
       </c>
       <c r="BQ26">
@@ -5243,7 +5253,7 @@
       <c r="K27">
         <v>25.9</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27">
@@ -5351,13 +5361,13 @@
       <c r="BM27">
         <v>21.5</v>
       </c>
-      <c r="BN27">
+      <c r="BN27" s="4">
         <v>4.1100000000000003</v>
       </c>
-      <c r="BO27">
+      <c r="BO27" s="4">
         <v>3.59</v>
       </c>
-      <c r="BP27">
+      <c r="BP27" s="4">
         <v>0.87</v>
       </c>
       <c r="BQ27">
@@ -5407,7 +5417,7 @@
       <c r="K28">
         <v>35.799999999999997</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>0</v>
       </c>
       <c r="M28">
@@ -5515,13 +5525,13 @@
       <c r="BM28">
         <v>30.5</v>
       </c>
-      <c r="BN28">
+      <c r="BN28" s="4">
         <v>4.78</v>
       </c>
-      <c r="BO28">
+      <c r="BO28" s="4">
         <v>3.95</v>
       </c>
-      <c r="BP28">
+      <c r="BP28" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ28">
@@ -5571,7 +5581,7 @@
       <c r="K29">
         <v>27.2</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>2</v>
       </c>
       <c r="M29">
@@ -5670,13 +5680,13 @@
       <c r="BM29">
         <v>21.5</v>
       </c>
-      <c r="BN29">
+      <c r="BN29" s="4">
         <v>5.1100000000000003</v>
       </c>
-      <c r="BO29">
+      <c r="BO29" s="4">
         <v>3.78</v>
       </c>
-      <c r="BP29">
+      <c r="BP29" s="4">
         <v>0.74</v>
       </c>
       <c r="BQ29">
@@ -5726,7 +5736,7 @@
       <c r="K30">
         <v>25.5</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="4">
         <v>0</v>
       </c>
       <c r="M30">
@@ -5834,13 +5844,13 @@
       <c r="BM30">
         <v>24.5</v>
       </c>
-      <c r="BN30">
+      <c r="BN30" s="4">
         <v>4.04</v>
       </c>
-      <c r="BO30">
+      <c r="BO30" s="4">
         <v>3.37</v>
       </c>
-      <c r="BP30">
+      <c r="BP30" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ30">
@@ -5890,7 +5900,7 @@
       <c r="K31">
         <v>35.9</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="4">
         <v>0.9</v>
       </c>
       <c r="M31">
@@ -5998,13 +6008,13 @@
       <c r="BM31">
         <v>52.5</v>
       </c>
-      <c r="BN31">
+      <c r="BN31" s="4">
         <v>3.25</v>
       </c>
-      <c r="BO31">
+      <c r="BO31" s="4">
         <v>2.78</v>
       </c>
-      <c r="BP31">
+      <c r="BP31" s="4">
         <v>0.86</v>
       </c>
       <c r="BQ31">
@@ -6054,7 +6064,7 @@
       <c r="K32">
         <v>28.4</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="4">
         <v>0.5</v>
       </c>
       <c r="M32">
@@ -6162,13 +6172,13 @@
       <c r="BM32">
         <v>34.5</v>
       </c>
-      <c r="BN32">
+      <c r="BN32" s="4">
         <v>4.08</v>
       </c>
-      <c r="BO32">
+      <c r="BO32" s="4">
         <v>3.47</v>
       </c>
-      <c r="BP32">
+      <c r="BP32" s="4">
         <v>0.85</v>
       </c>
       <c r="BQ32">
@@ -6218,7 +6228,7 @@
       <c r="K33">
         <v>29.1</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="4">
         <v>0</v>
       </c>
       <c r="M33">
@@ -6326,13 +6336,13 @@
       <c r="BM33">
         <v>43.5</v>
       </c>
-      <c r="BN33">
+      <c r="BN33" s="4">
         <v>5.29</v>
       </c>
-      <c r="BO33">
+      <c r="BO33" s="4">
         <v>4</v>
       </c>
-      <c r="BP33">
+      <c r="BP33" s="4">
         <v>0.76</v>
       </c>
       <c r="BQ33">
@@ -6382,7 +6392,7 @@
       <c r="K34">
         <v>31.4</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="4">
         <v>0</v>
       </c>
       <c r="M34">
@@ -6520,13 +6530,13 @@
       <c r="BM34">
         <v>24.5</v>
       </c>
-      <c r="BN34">
+      <c r="BN34" s="4">
         <v>3.7</v>
       </c>
-      <c r="BO34">
+      <c r="BO34" s="4">
         <v>2.99</v>
       </c>
-      <c r="BP34">
+      <c r="BP34" s="4">
         <v>0.81</v>
       </c>
       <c r="BQ34">
@@ -6576,7 +6586,7 @@
       <c r="K35">
         <v>27.8</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="4">
         <v>0.75</v>
       </c>
       <c r="M35">
@@ -6684,13 +6694,13 @@
       <c r="BM35">
         <v>20</v>
       </c>
-      <c r="BN35">
+      <c r="BN35" s="4">
         <v>3.58</v>
       </c>
-      <c r="BO35">
+      <c r="BO35" s="4">
         <v>3.04</v>
       </c>
-      <c r="BP35">
+      <c r="BP35" s="4">
         <v>0.85</v>
       </c>
       <c r="BQ35">
@@ -6740,7 +6750,7 @@
       <c r="K36">
         <v>27.8</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="4">
         <v>1</v>
       </c>
       <c r="M36">
@@ -6878,13 +6888,13 @@
       <c r="BM36">
         <v>28.5</v>
       </c>
-      <c r="BN36">
+      <c r="BN36" s="4">
         <v>4.79</v>
       </c>
-      <c r="BO36">
+      <c r="BO36" s="4">
         <v>3.98</v>
       </c>
-      <c r="BP36">
+      <c r="BP36" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ36">
@@ -6934,7 +6944,7 @@
       <c r="K37">
         <v>31.1</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="4">
         <v>0.25</v>
       </c>
       <c r="M37">
@@ -7042,13 +7052,13 @@
       <c r="BM37">
         <v>20</v>
       </c>
-      <c r="BN37">
+      <c r="BN37" s="4">
         <v>4.25</v>
       </c>
-      <c r="BO37">
+      <c r="BO37" s="4">
         <v>3.59</v>
       </c>
-      <c r="BP37">
+      <c r="BP37" s="4">
         <v>0.84</v>
       </c>
       <c r="BQ37">
@@ -7098,7 +7108,7 @@
       <c r="K38">
         <v>23.1</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="4">
         <v>2</v>
       </c>
       <c r="M38">
@@ -7206,13 +7216,13 @@
       <c r="BM38">
         <v>46.5</v>
       </c>
-      <c r="BN38">
+      <c r="BN38" s="4">
         <v>4.75</v>
       </c>
-      <c r="BO38">
+      <c r="BO38" s="4">
         <v>3.14</v>
       </c>
-      <c r="BP38">
+      <c r="BP38" s="4">
         <v>0.66</v>
       </c>
       <c r="BQ38">
@@ -7262,7 +7272,7 @@
       <c r="K39">
         <v>20.100000000000001</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="4">
         <v>1.5</v>
       </c>
       <c r="M39">
@@ -7370,13 +7380,13 @@
       <c r="BM39">
         <v>26.5</v>
       </c>
-      <c r="BN39">
+      <c r="BN39" s="4">
         <v>5.83</v>
       </c>
-      <c r="BO39">
+      <c r="BO39" s="4">
         <v>4.8499999999999996</v>
       </c>
-      <c r="BP39">
+      <c r="BP39" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ39">
@@ -7426,7 +7436,7 @@
       <c r="K40">
         <v>27.1</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="4">
         <v>0</v>
       </c>
       <c r="M40">
@@ -7564,13 +7574,13 @@
       <c r="BM40">
         <v>42</v>
       </c>
-      <c r="BN40">
+      <c r="BN40" s="4">
         <v>4.3099999999999996</v>
       </c>
-      <c r="BO40">
+      <c r="BO40" s="4">
         <v>3.44</v>
       </c>
-      <c r="BP40">
+      <c r="BP40" s="4">
         <v>0.8</v>
       </c>
       <c r="BQ40">
@@ -7620,7 +7630,7 @@
       <c r="K41">
         <v>33.4</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="4">
         <v>1</v>
       </c>
       <c r="M41">
@@ -7758,13 +7768,13 @@
       <c r="BM41">
         <v>23</v>
       </c>
-      <c r="BN41">
+      <c r="BN41" s="4">
         <v>2.48</v>
       </c>
-      <c r="BO41">
+      <c r="BO41" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="BP41">
+      <c r="BP41" s="4">
         <v>0.82</v>
       </c>
       <c r="BQ41">
@@ -7814,7 +7824,7 @@
       <c r="K42">
         <v>26.6</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="4">
         <v>0.25</v>
       </c>
       <c r="M42">
@@ -7922,13 +7932,13 @@
       <c r="BM42">
         <v>15</v>
       </c>
-      <c r="BN42">
+      <c r="BN42" s="4">
         <v>4.95</v>
       </c>
-      <c r="BO42">
+      <c r="BO42" s="4">
         <v>3.28</v>
       </c>
-      <c r="BP42">
+      <c r="BP42" s="4">
         <v>0.66</v>
       </c>
       <c r="BQ42">
@@ -7978,7 +7988,7 @@
       <c r="K43">
         <v>29.8</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="4">
         <v>0.1</v>
       </c>
       <c r="M43">
@@ -8116,13 +8126,13 @@
       <c r="BM43">
         <v>15.5</v>
       </c>
-      <c r="BN43">
+      <c r="BN43" s="4">
         <v>5.56</v>
       </c>
-      <c r="BO43">
+      <c r="BO43" s="4">
         <v>4.5599999999999996</v>
       </c>
-      <c r="BP43">
+      <c r="BP43" s="4">
         <v>0.82</v>
       </c>
       <c r="BQ43">
@@ -8172,7 +8182,7 @@
       <c r="K44">
         <v>27.5</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="4">
         <v>0</v>
       </c>
       <c r="M44">
@@ -8310,13 +8320,13 @@
       <c r="BM44">
         <v>20</v>
       </c>
-      <c r="BN44">
+      <c r="BN44" s="4">
         <v>6.53</v>
       </c>
-      <c r="BO44">
+      <c r="BO44" s="4">
         <v>5.08</v>
       </c>
-      <c r="BP44">
+      <c r="BP44" s="4">
         <v>0.78</v>
       </c>
       <c r="BQ44">
@@ -8366,7 +8376,7 @@
       <c r="K45">
         <v>28.4</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="4">
         <v>0</v>
       </c>
       <c r="M45">
@@ -8504,13 +8514,13 @@
       <c r="BM45">
         <v>30.5</v>
       </c>
-      <c r="BN45">
+      <c r="BN45" s="4">
         <v>4.97</v>
       </c>
-      <c r="BO45">
+      <c r="BO45" s="4">
         <v>3.96</v>
       </c>
-      <c r="BP45">
+      <c r="BP45" s="4">
         <v>0.8</v>
       </c>
       <c r="BQ45">
@@ -8560,7 +8570,7 @@
       <c r="K46">
         <v>25.3</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="4">
         <v>0</v>
       </c>
       <c r="M46">
@@ -8668,13 +8678,13 @@
       <c r="BM46">
         <v>15.5</v>
       </c>
-      <c r="BN46">
+      <c r="BN46" s="4">
         <v>5.91</v>
       </c>
-      <c r="BO46">
+      <c r="BO46" s="4">
         <v>4.95</v>
       </c>
-      <c r="BP46">
+      <c r="BP46" s="4">
         <v>0.84</v>
       </c>
       <c r="BQ46">
@@ -8724,7 +8734,7 @@
       <c r="K47">
         <v>29.1</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="4">
         <v>0</v>
       </c>
       <c r="M47">
@@ -8832,13 +8842,13 @@
       <c r="BM47">
         <v>30</v>
       </c>
-      <c r="BN47">
+      <c r="BN47" s="4">
         <v>3.64</v>
       </c>
-      <c r="BO47">
+      <c r="BO47" s="4">
         <v>2.98</v>
       </c>
-      <c r="BP47">
+      <c r="BP47" s="4">
         <v>0.82</v>
       </c>
       <c r="BQ47">
@@ -8888,7 +8898,7 @@
       <c r="K48">
         <v>23.1</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="4">
         <v>0.25</v>
       </c>
       <c r="M48">
@@ -8996,13 +9006,13 @@
       <c r="BM48">
         <v>23</v>
       </c>
-      <c r="BN48">
+      <c r="BN48" s="4">
         <v>6.15</v>
       </c>
-      <c r="BO48">
+      <c r="BO48" s="4">
         <v>4.8499999999999996</v>
       </c>
-      <c r="BP48">
+      <c r="BP48" s="4">
         <v>0.79</v>
       </c>
       <c r="BQ48">
@@ -9052,7 +9062,7 @@
       <c r="K49">
         <v>25.1</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="4">
         <v>0.5</v>
       </c>
       <c r="M49">
@@ -9190,13 +9200,13 @@
       <c r="BM49">
         <v>34</v>
       </c>
-      <c r="BN49">
+      <c r="BN49" s="4">
         <v>4.54</v>
       </c>
-      <c r="BO49">
+      <c r="BO49" s="4">
         <v>3.86</v>
       </c>
-      <c r="BP49">
+      <c r="BP49" s="4">
         <v>0.85</v>
       </c>
       <c r="BQ49">
@@ -9246,7 +9256,7 @@
       <c r="K50">
         <v>25.9</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="4">
         <v>1.5</v>
       </c>
       <c r="M50">
@@ -9384,13 +9394,13 @@
       <c r="BM50">
         <v>32.5</v>
       </c>
-      <c r="BN50">
+      <c r="BN50" s="4">
         <v>4.53</v>
       </c>
-      <c r="BO50">
+      <c r="BO50" s="4">
         <v>3.73</v>
       </c>
-      <c r="BP50">
+      <c r="BP50" s="4">
         <v>0.82</v>
       </c>
       <c r="BQ50">
@@ -9440,7 +9450,7 @@
       <c r="K51">
         <v>25</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="4">
         <v>0</v>
       </c>
       <c r="M51">
@@ -9548,13 +9558,13 @@
       <c r="BM51">
         <v>19.5</v>
       </c>
-      <c r="BN51">
+      <c r="BN51" s="4">
         <v>4.6100000000000003</v>
       </c>
-      <c r="BO51">
+      <c r="BO51" s="4">
         <v>3.34</v>
       </c>
-      <c r="BP51">
+      <c r="BP51" s="4">
         <v>0.72</v>
       </c>
       <c r="BQ51">
@@ -9604,7 +9614,7 @@
       <c r="K52">
         <v>39.9</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="4">
         <v>0</v>
       </c>
       <c r="M52">
@@ -9712,13 +9722,13 @@
       <c r="BM52">
         <v>30.5</v>
       </c>
-      <c r="BN52">
+      <c r="BN52" s="4">
         <v>3.59</v>
       </c>
-      <c r="BO52">
+      <c r="BO52" s="4">
         <v>2.7</v>
       </c>
-      <c r="BP52">
+      <c r="BP52" s="4">
         <v>0.75</v>
       </c>
       <c r="BQ52">
@@ -9768,7 +9778,7 @@
       <c r="K53">
         <v>29.2</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="4">
         <v>0</v>
       </c>
       <c r="M53">
@@ -9906,13 +9916,13 @@
       <c r="BM53">
         <v>27</v>
       </c>
-      <c r="BN53">
+      <c r="BN53" s="4">
         <v>4.5599999999999996</v>
       </c>
-      <c r="BO53">
+      <c r="BO53" s="4">
         <v>3.76</v>
       </c>
-      <c r="BP53">
+      <c r="BP53" s="4">
         <v>0.82</v>
       </c>
       <c r="BQ53">
@@ -9962,7 +9972,7 @@
       <c r="K54">
         <v>28.7</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="4">
         <v>0</v>
       </c>
       <c r="M54">
@@ -10070,13 +10080,13 @@
       <c r="BM54">
         <v>36.5</v>
       </c>
-      <c r="BN54">
+      <c r="BN54" s="4">
         <v>4.04</v>
       </c>
-      <c r="BO54">
+      <c r="BO54" s="4">
         <v>3.52</v>
       </c>
-      <c r="BP54">
+      <c r="BP54" s="4">
         <v>0.87</v>
       </c>
       <c r="BQ54">
@@ -10126,7 +10136,7 @@
       <c r="K55">
         <v>38.9</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="4">
         <v>0</v>
       </c>
       <c r="M55">
@@ -10264,13 +10274,13 @@
       <c r="BM55">
         <v>30.5</v>
       </c>
-      <c r="BN55">
+      <c r="BN55" s="4">
         <v>3.6</v>
       </c>
-      <c r="BO55">
+      <c r="BO55" s="4">
         <v>2.9</v>
       </c>
-      <c r="BP55">
+      <c r="BP55" s="4">
         <v>0.81</v>
       </c>
       <c r="BQ55">
@@ -10320,7 +10330,7 @@
       <c r="K56">
         <v>29.1</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="4">
         <v>0.75</v>
       </c>
       <c r="M56">
@@ -10428,13 +10438,13 @@
       <c r="BM56">
         <v>28.5</v>
       </c>
-      <c r="BN56">
+      <c r="BN56" s="4">
         <v>5.96</v>
       </c>
-      <c r="BO56">
+      <c r="BO56" s="4">
         <v>4.2300000000000004</v>
       </c>
-      <c r="BP56">
+      <c r="BP56" s="4">
         <v>0.71</v>
       </c>
       <c r="BQ56">
@@ -10484,7 +10494,7 @@
       <c r="K57">
         <v>29</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="4">
         <v>0</v>
       </c>
       <c r="M57">
@@ -10592,13 +10602,13 @@
       <c r="BM57">
         <v>18.5</v>
       </c>
-      <c r="BN57">
+      <c r="BN57" s="4">
         <v>5.28</v>
       </c>
-      <c r="BO57">
+      <c r="BO57" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="BP57">
+      <c r="BP57" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ57">
@@ -10750,13 +10760,13 @@
       <c r="BM58">
         <v>57.5</v>
       </c>
-      <c r="BN58">
+      <c r="BN58" s="4">
         <v>5.13</v>
       </c>
-      <c r="BO58">
+      <c r="BO58" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="BP58">
+      <c r="BP58" s="4">
         <v>0.9</v>
       </c>
       <c r="BQ58">
@@ -10806,7 +10816,7 @@
       <c r="K59">
         <v>28.1</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="4">
         <v>0</v>
       </c>
       <c r="M59">
@@ -10944,13 +10954,13 @@
       <c r="BM59">
         <v>23.5</v>
       </c>
-      <c r="BN59">
+      <c r="BN59" s="4">
         <v>5.97</v>
       </c>
-      <c r="BO59">
+      <c r="BO59" s="4">
         <v>4.59</v>
       </c>
-      <c r="BP59">
+      <c r="BP59" s="4">
         <v>0.77</v>
       </c>
       <c r="BQ59">
@@ -11000,7 +11010,7 @@
       <c r="K60">
         <v>32.5</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="4">
         <v>0.05</v>
       </c>
       <c r="M60">
@@ -11108,13 +11118,13 @@
       <c r="BM60">
         <v>41</v>
       </c>
-      <c r="BN60">
+      <c r="BN60" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="BO60">
+      <c r="BO60" s="4">
         <v>3.38</v>
       </c>
-      <c r="BP60">
+      <c r="BP60" s="4">
         <v>0.81</v>
       </c>
       <c r="BQ60">
@@ -11164,7 +11174,7 @@
       <c r="K61">
         <v>45.3</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="4">
         <v>0</v>
       </c>
       <c r="M61">
@@ -11272,13 +11282,13 @@
       <c r="BM61">
         <v>26</v>
       </c>
-      <c r="BN61">
+      <c r="BN61" s="4">
         <v>4.83</v>
       </c>
-      <c r="BO61">
+      <c r="BO61" s="4">
         <v>3.53</v>
       </c>
-      <c r="BP61">
+      <c r="BP61" s="4">
         <v>0.73</v>
       </c>
       <c r="BQ61">
@@ -11325,7 +11335,7 @@
       <c r="K62">
         <v>20.8</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="4">
         <v>0</v>
       </c>
       <c r="M62">
@@ -11352,13 +11362,13 @@
       <c r="BM62">
         <v>20.5</v>
       </c>
-      <c r="BN62">
+      <c r="BN62" s="4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="BO62">
+      <c r="BO62" s="4">
         <v>3.72</v>
       </c>
-      <c r="BP62">
+      <c r="BP62" s="4">
         <v>0.78</v>
       </c>
       <c r="BQ62">
@@ -11408,7 +11418,7 @@
       <c r="K63">
         <v>30.5</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="4">
         <v>0</v>
       </c>
       <c r="M63">
@@ -11546,13 +11556,13 @@
       <c r="BM63">
         <v>15.5</v>
       </c>
-      <c r="BN63">
+      <c r="BN63" s="4">
         <v>5.56</v>
       </c>
-      <c r="BO63">
+      <c r="BO63" s="4">
         <v>4.67</v>
       </c>
-      <c r="BP63">
+      <c r="BP63" s="4">
         <v>0.84</v>
       </c>
       <c r="BQ63">
@@ -11602,7 +11612,7 @@
       <c r="K64">
         <v>32.4</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="4">
         <v>0</v>
       </c>
       <c r="M64">
@@ -11740,13 +11750,13 @@
       <c r="BM64">
         <v>56.5</v>
       </c>
-      <c r="BN64">
+      <c r="BN64" s="4">
         <v>4.03</v>
       </c>
-      <c r="BO64">
+      <c r="BO64" s="4">
         <v>3.31</v>
       </c>
-      <c r="BP64">
+      <c r="BP64" s="4">
         <v>0.82</v>
       </c>
       <c r="BQ64">
@@ -11796,7 +11806,7 @@
       <c r="K65">
         <v>25.9</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="4">
         <v>0</v>
       </c>
       <c r="M65">
@@ -11904,13 +11914,13 @@
       <c r="BM65">
         <v>27.5</v>
       </c>
-      <c r="BN65">
+      <c r="BN65" s="4">
         <v>4.18</v>
       </c>
-      <c r="BO65">
+      <c r="BO65" s="4">
         <v>3.52</v>
       </c>
-      <c r="BP65">
+      <c r="BP65" s="4">
         <v>0.84</v>
       </c>
       <c r="BQ65">
@@ -11960,7 +11970,7 @@
       <c r="K66">
         <v>26.8</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="4">
         <v>0</v>
       </c>
       <c r="M66">
@@ -12068,13 +12078,13 @@
       <c r="BM66">
         <v>48.5</v>
       </c>
-      <c r="BN66">
+      <c r="BN66" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="BO66">
+      <c r="BO66" s="4">
         <v>3.25</v>
       </c>
-      <c r="BP66">
+      <c r="BP66" s="4">
         <v>0.78</v>
       </c>
       <c r="BQ66">
@@ -12124,7 +12134,7 @@
       <c r="K67">
         <v>38.1</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="4">
         <v>0</v>
       </c>
       <c r="M67">
@@ -12262,13 +12272,13 @@
       <c r="BM67">
         <v>40.5</v>
       </c>
-      <c r="BN67">
+      <c r="BN67" s="4">
         <v>2.54</v>
       </c>
-      <c r="BO67">
+      <c r="BO67" s="4">
         <v>2.1</v>
       </c>
-      <c r="BP67">
+      <c r="BP67" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ67">
@@ -12318,7 +12328,7 @@
       <c r="K68">
         <v>25.5</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="4">
         <v>0</v>
       </c>
       <c r="M68">
@@ -12426,13 +12436,13 @@
       <c r="BM68">
         <v>43.5</v>
       </c>
-      <c r="BN68">
+      <c r="BN68" s="4">
         <v>5.47</v>
       </c>
-      <c r="BO68">
+      <c r="BO68" s="4">
         <v>4.5199999999999996</v>
       </c>
-      <c r="BP68">
+      <c r="BP68" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ68">
@@ -12482,7 +12492,7 @@
       <c r="K69">
         <v>32.299999999999997</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="4">
         <v>0</v>
       </c>
       <c r="M69">
@@ -12620,13 +12630,13 @@
       <c r="BM69">
         <v>25</v>
       </c>
-      <c r="BN69">
+      <c r="BN69" s="4">
         <v>3.41</v>
       </c>
-      <c r="BO69">
+      <c r="BO69" s="4">
         <v>2.84</v>
       </c>
-      <c r="BP69">
+      <c r="BP69" s="4">
         <v>0.83</v>
       </c>
       <c r="BQ69">
@@ -12664,7 +12674,7 @@
       <c r="H70" t="s">
         <v>75</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="4">
         <v>0</v>
       </c>
       <c r="O70">
@@ -12777,7 +12787,7 @@
       <c r="K71">
         <v>28.6</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="4">
         <v>1.25</v>
       </c>
       <c r="M71">
@@ -12885,13 +12895,13 @@
       <c r="BM71">
         <v>25.5</v>
       </c>
-      <c r="BN71">
+      <c r="BN71" s="4">
         <v>4.8600000000000003</v>
       </c>
-      <c r="BO71">
+      <c r="BO71" s="4">
         <v>3.87</v>
       </c>
-      <c r="BP71">
+      <c r="BP71" s="4">
         <v>0.8</v>
       </c>
       <c r="BQ71">
@@ -12941,7 +12951,7 @@
       <c r="K72">
         <v>31.7</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="4">
         <v>0</v>
       </c>
       <c r="M72">
@@ -13049,13 +13059,13 @@
       <c r="BM72">
         <v>22</v>
       </c>
-      <c r="BN72">
+      <c r="BN72" s="4">
         <v>4.26</v>
       </c>
-      <c r="BO72">
+      <c r="BO72" s="4">
         <v>3.78</v>
       </c>
-      <c r="BP72">
+      <c r="BP72" s="4">
         <v>0.89</v>
       </c>
       <c r="BQ72">

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D2B148-784A-4D45-9511-EDD44943B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FEB60-1ACF-489E-87BA-DB49B270148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BV$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BY$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="83">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -277,6 +277,15 @@
   <si>
     <t>woman</t>
   </si>
+  <si>
+    <t>spirometrisi_fvc%</t>
+  </si>
+  <si>
+    <t>spirometrisi_fev1%</t>
+  </si>
+  <si>
+    <t>spirometrisi_fev1_fvc%</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -350,6 +359,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV72"/>
+  <dimension ref="A1:BY72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="BQ9" sqref="BQ9"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BP4" sqref="BP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,15 +738,17 @@
     <col min="66" max="66" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="24.33203125" style="4" customWidth="1"/>
+    <col min="72" max="72" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,26 +953,35 @@
       <c r="BP1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>45770</v>
       </c>
@@ -1138,23 +1159,32 @@
       <c r="BP2" s="4">
         <v>0.67</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="4">
+        <v>91.78</v>
+      </c>
+      <c r="BR2" s="4">
+        <v>79.31</v>
+      </c>
+      <c r="BS2" s="4">
+        <v>72.58</v>
+      </c>
+      <c r="BT2">
         <v>138</v>
       </c>
-      <c r="BR2">
+      <c r="BU2">
         <v>24</v>
       </c>
-      <c r="BS2">
+      <c r="BV2">
         <v>53.5</v>
       </c>
-      <c r="BT2">
+      <c r="BW2">
         <v>77.5</v>
       </c>
-      <c r="BU2">
+      <c r="BX2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>45771</v>
       </c>
@@ -1332,23 +1362,32 @@
       <c r="BP3" s="4">
         <v>0.78</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="4">
+        <v>100.72</v>
+      </c>
+      <c r="BR3" s="4">
+        <v>105.32</v>
+      </c>
+      <c r="BS3" s="4">
+        <v>106.48</v>
+      </c>
+      <c r="BT3">
         <v>144</v>
       </c>
-      <c r="BR3">
+      <c r="BU3">
         <v>24</v>
       </c>
-      <c r="BS3">
+      <c r="BV3">
         <v>57.5</v>
       </c>
-      <c r="BT3">
+      <c r="BW3">
         <v>81.5</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45772</v>
       </c>
@@ -1514,20 +1553,38 @@
       <c r="BL4">
         <v>0</v>
       </c>
-      <c r="BQ4">
+      <c r="BN4" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="BP4" s="5">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="BQ4" s="4">
+        <v>102.7</v>
+      </c>
+      <c r="BR4" s="4">
+        <v>53.9</v>
+      </c>
+      <c r="BS4" s="4">
+        <v>55.53</v>
+      </c>
+      <c r="BT4">
         <v>118</v>
       </c>
-      <c r="BR4">
+      <c r="BU4">
         <v>24</v>
       </c>
-      <c r="BS4">
+      <c r="BV4">
         <v>70</v>
       </c>
-      <c r="BT4">
+      <c r="BW4">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45773</v>
       </c>
@@ -1675,23 +1732,32 @@
       <c r="BP5" s="4">
         <v>0.8</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="4">
+        <v>104.86</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>102.2</v>
+      </c>
+      <c r="BS5" s="4">
+        <v>107.27</v>
+      </c>
+      <c r="BT5">
         <v>156</v>
       </c>
-      <c r="BR5">
+      <c r="BU5">
         <v>24</v>
       </c>
-      <c r="BS5">
+      <c r="BV5">
         <v>64.5</v>
       </c>
-      <c r="BT5">
+      <c r="BW5">
         <v>88.5</v>
       </c>
-      <c r="BU5">
+      <c r="BX5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45774</v>
       </c>
@@ -1839,23 +1905,32 @@
       <c r="BP6" s="4">
         <v>0.73</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" s="4">
+        <v>91.25</v>
+      </c>
+      <c r="BR6" s="4">
+        <v>104.93</v>
+      </c>
+      <c r="BS6" s="4">
+        <v>95.77</v>
+      </c>
+      <c r="BT6">
         <v>159</v>
       </c>
-      <c r="BR6">
+      <c r="BU6">
         <v>24</v>
       </c>
-      <c r="BS6">
+      <c r="BV6">
         <v>45.5</v>
       </c>
-      <c r="BT6">
+      <c r="BW6">
         <v>69.5</v>
       </c>
-      <c r="BU6">
+      <c r="BX6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45775</v>
       </c>
@@ -2003,23 +2078,32 @@
       <c r="BP7" s="4">
         <v>0.87</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" s="4">
+        <v>111.75</v>
+      </c>
+      <c r="BR7" s="4">
+        <v>89.77</v>
+      </c>
+      <c r="BS7" s="4">
+        <v>100.56</v>
+      </c>
+      <c r="BT7">
         <v>142</v>
       </c>
-      <c r="BR7">
+      <c r="BU7">
         <v>24</v>
       </c>
-      <c r="BS7">
+      <c r="BV7">
         <v>55.5</v>
       </c>
-      <c r="BT7">
+      <c r="BW7">
         <v>79.5</v>
       </c>
-      <c r="BU7">
+      <c r="BX7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45776</v>
       </c>
@@ -2167,23 +2251,32 @@
       <c r="BP8" s="4">
         <v>0.95</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" s="4">
+        <v>92.98</v>
+      </c>
+      <c r="BR8" s="4">
+        <v>92.98</v>
+      </c>
+      <c r="BS8" s="4">
+        <v>87.12</v>
+      </c>
+      <c r="BT8">
         <v>174</v>
       </c>
-      <c r="BR8">
+      <c r="BU8">
         <v>24</v>
       </c>
-      <c r="BS8">
+      <c r="BV8">
         <v>32</v>
       </c>
-      <c r="BT8">
+      <c r="BW8">
         <v>56</v>
       </c>
-      <c r="BU8">
+      <c r="BX8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>45777</v>
       </c>
@@ -2361,23 +2454,32 @@
       <c r="BP9" s="4">
         <v>0.84</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" s="4">
+        <v>113.64</v>
+      </c>
+      <c r="BR9" s="4">
+        <v>91.61</v>
+      </c>
+      <c r="BS9" s="4">
+        <v>104.39</v>
+      </c>
+      <c r="BT9">
         <v>174</v>
       </c>
-      <c r="BR9">
+      <c r="BU9">
         <v>24</v>
       </c>
-      <c r="BS9">
+      <c r="BV9">
         <v>34.5</v>
       </c>
-      <c r="BT9">
+      <c r="BW9">
         <v>58.5</v>
       </c>
-      <c r="BU9">
+      <c r="BX9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45778</v>
       </c>
@@ -2525,23 +2627,32 @@
       <c r="BP10" s="4">
         <v>0.73</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" s="4">
+        <v>90.66</v>
+      </c>
+      <c r="BR10" s="4">
+        <v>123.89</v>
+      </c>
+      <c r="BS10" s="4">
+        <v>112.76</v>
+      </c>
+      <c r="BT10">
         <v>115</v>
       </c>
-      <c r="BR10">
+      <c r="BU10">
         <v>24</v>
       </c>
-      <c r="BS10">
+      <c r="BV10">
         <v>81</v>
       </c>
-      <c r="BT10">
+      <c r="BW10">
         <v>105</v>
       </c>
-      <c r="BU10">
+      <c r="BX10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45779</v>
       </c>
@@ -2704,23 +2815,32 @@
       <c r="BP11" s="4">
         <v>0.92</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" s="4">
+        <v>114.9</v>
+      </c>
+      <c r="BR11" s="4">
+        <v>99.33</v>
+      </c>
+      <c r="BS11" s="4">
+        <v>115.49</v>
+      </c>
+      <c r="BT11">
         <v>152</v>
       </c>
-      <c r="BR11">
+      <c r="BU11">
         <v>24</v>
       </c>
-      <c r="BS11">
+      <c r="BV11">
         <v>58</v>
       </c>
-      <c r="BT11">
+      <c r="BW11">
         <v>82</v>
       </c>
-      <c r="BU11">
+      <c r="BX11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>45780</v>
       </c>
@@ -2868,23 +2988,32 @@
       <c r="BP12" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" s="4">
+        <v>108.71</v>
+      </c>
+      <c r="BR12" s="4">
+        <v>99.87</v>
+      </c>
+      <c r="BS12" s="4">
+        <v>108.83</v>
+      </c>
+      <c r="BT12">
         <v>161</v>
       </c>
-      <c r="BR12">
+      <c r="BU12">
         <v>24</v>
       </c>
-      <c r="BS12">
+      <c r="BV12">
         <v>40.5</v>
       </c>
-      <c r="BT12">
+      <c r="BW12">
         <v>64.5</v>
       </c>
-      <c r="BU12">
+      <c r="BX12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45781</v>
       </c>
@@ -3032,23 +3161,32 @@
       <c r="BP13" s="4">
         <v>0.8</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" s="4">
+        <v>100.92</v>
+      </c>
+      <c r="BR13" s="4">
+        <v>102.05</v>
+      </c>
+      <c r="BS13" s="4">
+        <v>103.11</v>
+      </c>
+      <c r="BT13">
         <v>175</v>
       </c>
-      <c r="BR13">
+      <c r="BU13">
         <v>24</v>
       </c>
-      <c r="BS13">
+      <c r="BV13">
         <v>42.5</v>
       </c>
-      <c r="BT13">
+      <c r="BW13">
         <v>66.5</v>
       </c>
-      <c r="BU13">
+      <c r="BX13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>45782</v>
       </c>
@@ -3196,23 +3334,32 @@
       <c r="BP14" s="4">
         <v>0.68</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" s="4">
+        <v>88.23</v>
+      </c>
+      <c r="BR14" s="4">
+        <v>68.38</v>
+      </c>
+      <c r="BS14" s="4">
+        <v>60.41</v>
+      </c>
+      <c r="BT14">
         <v>134</v>
       </c>
-      <c r="BR14">
+      <c r="BU14">
         <v>24</v>
       </c>
-      <c r="BS14">
+      <c r="BV14">
         <v>68</v>
       </c>
-      <c r="BT14">
+      <c r="BW14">
         <v>92</v>
       </c>
-      <c r="BU14">
+      <c r="BX14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>45783</v>
       </c>
@@ -3375,23 +3522,32 @@
       <c r="BP15" s="4">
         <v>0.85</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" s="4">
+        <v>104.72</v>
+      </c>
+      <c r="BR15" s="4">
+        <v>110.08</v>
+      </c>
+      <c r="BS15" s="4">
+        <v>115.3</v>
+      </c>
+      <c r="BT15">
         <v>116</v>
       </c>
-      <c r="BR15">
+      <c r="BU15">
         <v>24</v>
       </c>
-      <c r="BS15">
+      <c r="BV15">
         <v>83.5</v>
       </c>
-      <c r="BT15">
+      <c r="BW15">
         <v>107.5</v>
       </c>
-      <c r="BU15">
+      <c r="BX15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>45784</v>
       </c>
@@ -3539,23 +3695,32 @@
       <c r="BP16" s="4">
         <v>0.8</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" s="4">
+        <v>98.08</v>
+      </c>
+      <c r="BR16" s="4">
+        <v>102.66</v>
+      </c>
+      <c r="BS16" s="4">
+        <v>101.98</v>
+      </c>
+      <c r="BT16">
         <v>154</v>
       </c>
-      <c r="BR16">
+      <c r="BU16">
         <v>24</v>
       </c>
-      <c r="BS16">
+      <c r="BV16">
         <v>40</v>
       </c>
-      <c r="BT16">
+      <c r="BW16">
         <v>64</v>
       </c>
-      <c r="BU16">
+      <c r="BX16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45786</v>
       </c>
@@ -3703,23 +3868,32 @@
       <c r="BP17" s="4">
         <v>0.82</v>
       </c>
-      <c r="BQ17">
+      <c r="BQ17" s="4">
+        <v>101.67</v>
+      </c>
+      <c r="BR17" s="4">
+        <v>98.67</v>
+      </c>
+      <c r="BS17" s="4">
+        <v>101.73</v>
+      </c>
+      <c r="BT17">
         <v>134</v>
       </c>
-      <c r="BR17">
+      <c r="BU17">
         <v>24</v>
       </c>
-      <c r="BS17">
+      <c r="BV17">
         <v>50</v>
       </c>
-      <c r="BT17">
+      <c r="BW17">
         <v>74</v>
       </c>
-      <c r="BU17">
+      <c r="BX17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>45787</v>
       </c>
@@ -3867,20 +4041,29 @@
       <c r="BP18" s="4">
         <v>0.75</v>
       </c>
-      <c r="BQ18">
+      <c r="BQ18" s="4">
+        <v>96.49</v>
+      </c>
+      <c r="BR18" s="4">
+        <v>106.16</v>
+      </c>
+      <c r="BS18" s="4">
+        <v>102.57</v>
+      </c>
+      <c r="BT18">
         <v>126</v>
       </c>
-      <c r="BR18">
+      <c r="BU18">
         <v>24</v>
       </c>
-      <c r="BT18">
+      <c r="BW18">
         <v>24</v>
       </c>
-      <c r="BU18">
+      <c r="BX18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>45788</v>
       </c>
@@ -4028,23 +4211,32 @@
       <c r="BP19" s="4">
         <v>0.71</v>
       </c>
-      <c r="BQ19">
+      <c r="BQ19" s="4">
+        <v>90</v>
+      </c>
+      <c r="BR19" s="4">
+        <v>118.06</v>
+      </c>
+      <c r="BS19" s="4">
+        <v>105.83</v>
+      </c>
+      <c r="BT19">
         <v>155</v>
       </c>
-      <c r="BR19">
+      <c r="BU19">
         <v>24</v>
       </c>
-      <c r="BS19">
+      <c r="BV19">
         <v>58</v>
       </c>
-      <c r="BT19">
+      <c r="BW19">
         <v>82</v>
       </c>
-      <c r="BU19">
+      <c r="BX19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>45790</v>
       </c>
@@ -4192,23 +4384,32 @@
       <c r="BP20" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ20">
+      <c r="BQ20" s="4">
+        <v>105.84</v>
+      </c>
+      <c r="BR20" s="4">
+        <v>88.53</v>
+      </c>
+      <c r="BS20" s="4">
+        <v>93.81</v>
+      </c>
+      <c r="BT20">
         <v>126</v>
       </c>
-      <c r="BR20">
+      <c r="BU20">
         <v>24</v>
       </c>
-      <c r="BS20">
+      <c r="BV20">
         <v>58</v>
       </c>
-      <c r="BT20">
+      <c r="BW20">
         <v>82</v>
       </c>
-      <c r="BU20">
+      <c r="BX20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45791</v>
       </c>
@@ -4356,23 +4557,32 @@
       <c r="BP21" s="4">
         <v>0.78</v>
       </c>
-      <c r="BQ21">
+      <c r="BQ21" s="4">
+        <v>92.52</v>
+      </c>
+      <c r="BR21" s="4">
+        <v>91.24</v>
+      </c>
+      <c r="BS21" s="4">
+        <v>84.81</v>
+      </c>
+      <c r="BT21">
         <v>136</v>
       </c>
-      <c r="BR21">
+      <c r="BU21">
         <v>24</v>
       </c>
-      <c r="BS21">
+      <c r="BV21">
         <v>57.5</v>
       </c>
-      <c r="BT21">
+      <c r="BW21">
         <v>81.5</v>
       </c>
-      <c r="BU21">
+      <c r="BX21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>45792</v>
       </c>
@@ -4520,23 +4730,32 @@
       <c r="BP22" s="4">
         <v>0.85</v>
       </c>
-      <c r="BQ22">
+      <c r="BQ22" s="4">
+        <v>99.49</v>
+      </c>
+      <c r="BR22" s="4">
+        <v>102.13</v>
+      </c>
+      <c r="BS22" s="4">
+        <v>101.81</v>
+      </c>
+      <c r="BT22">
         <v>166</v>
       </c>
-      <c r="BR22">
+      <c r="BU22">
         <v>24</v>
       </c>
-      <c r="BS22">
+      <c r="BV22">
         <v>48.5</v>
       </c>
-      <c r="BT22">
+      <c r="BW22">
         <v>72.5</v>
       </c>
-      <c r="BU22">
+      <c r="BX22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>45793</v>
       </c>
@@ -4714,23 +4933,32 @@
       <c r="BP23" s="4">
         <v>0.78</v>
       </c>
-      <c r="BQ23">
+      <c r="BQ23" s="4">
+        <v>94.49</v>
+      </c>
+      <c r="BR23" s="4">
+        <v>98.81</v>
+      </c>
+      <c r="BS23" s="4">
+        <v>94.84</v>
+      </c>
+      <c r="BT23">
         <v>142</v>
       </c>
-      <c r="BR23">
+      <c r="BU23">
         <v>24</v>
       </c>
-      <c r="BS23">
+      <c r="BV23">
         <v>43.5</v>
       </c>
-      <c r="BT23">
+      <c r="BW23">
         <v>67.5</v>
       </c>
-      <c r="BU23">
+      <c r="BX23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45794</v>
       </c>
@@ -4878,23 +5106,32 @@
       <c r="BP24" s="4">
         <v>0.79</v>
       </c>
-      <c r="BQ24">
+      <c r="BQ24" s="4">
+        <v>102.48</v>
+      </c>
+      <c r="BR24" s="4">
+        <v>93.48</v>
+      </c>
+      <c r="BS24" s="4">
+        <v>95.91</v>
+      </c>
+      <c r="BT24">
         <v>138</v>
       </c>
-      <c r="BR24">
+      <c r="BU24">
         <v>24</v>
       </c>
-      <c r="BS24">
+      <c r="BV24">
         <v>69.5</v>
       </c>
-      <c r="BT24">
+      <c r="BW24">
         <v>93.5</v>
       </c>
-      <c r="BU24">
+      <c r="BX24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>45795</v>
       </c>
@@ -5042,23 +5279,32 @@
       <c r="BP25" s="4">
         <v>0.82</v>
       </c>
-      <c r="BQ25">
+      <c r="BQ25" s="4">
+        <v>105.72</v>
+      </c>
+      <c r="BR25" s="4">
+        <v>95.32</v>
+      </c>
+      <c r="BS25" s="4">
+        <v>100.69</v>
+      </c>
+      <c r="BT25">
         <v>142</v>
       </c>
-      <c r="BR25">
+      <c r="BU25">
         <v>24</v>
       </c>
-      <c r="BS25">
+      <c r="BV25">
         <v>69.5</v>
       </c>
-      <c r="BT25">
+      <c r="BW25">
         <v>93.5</v>
       </c>
-      <c r="BU25">
+      <c r="BX25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>45796</v>
       </c>
@@ -5206,23 +5452,32 @@
       <c r="BP26" s="4">
         <v>0.68</v>
       </c>
-      <c r="BQ26">
+      <c r="BQ26" s="4">
+        <v>86.16</v>
+      </c>
+      <c r="BR26" s="4">
+        <v>94.37</v>
+      </c>
+      <c r="BS26" s="4">
+        <v>81.22</v>
+      </c>
+      <c r="BT26">
         <v>128</v>
       </c>
-      <c r="BR26">
+      <c r="BU26">
         <v>24</v>
       </c>
-      <c r="BS26">
+      <c r="BV26">
         <v>79</v>
       </c>
-      <c r="BT26">
+      <c r="BW26">
         <v>103</v>
       </c>
-      <c r="BU26">
+      <c r="BX26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>45797</v>
       </c>
@@ -5370,23 +5625,32 @@
       <c r="BP27" s="4">
         <v>0.87</v>
       </c>
-      <c r="BQ27">
+      <c r="BQ27" s="4">
+        <v>78.11</v>
+      </c>
+      <c r="BR27" s="4">
+        <v>100.41</v>
+      </c>
+      <c r="BS27" s="4">
+        <v>78.510000000000005</v>
+      </c>
+      <c r="BT27">
         <v>108</v>
       </c>
-      <c r="BR27">
+      <c r="BU27">
         <v>24</v>
       </c>
-      <c r="BS27">
+      <c r="BV27">
         <v>75.5</v>
       </c>
-      <c r="BT27">
+      <c r="BW27">
         <v>99.5</v>
       </c>
-      <c r="BU27">
+      <c r="BX27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>45798</v>
       </c>
@@ -5534,23 +5798,32 @@
       <c r="BP28" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ28">
+      <c r="BQ28" s="4">
+        <v>107.21</v>
+      </c>
+      <c r="BR28" s="4">
+        <v>89.71</v>
+      </c>
+      <c r="BS28" s="4">
+        <v>96.36</v>
+      </c>
+      <c r="BT28">
         <v>139</v>
       </c>
-      <c r="BR28">
+      <c r="BU28">
         <v>24</v>
       </c>
-      <c r="BS28">
+      <c r="BV28">
         <v>108.5</v>
       </c>
-      <c r="BT28">
+      <c r="BW28">
         <v>132.5</v>
       </c>
-      <c r="BU28">
+      <c r="BX28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>45799</v>
       </c>
@@ -5689,23 +5962,32 @@
       <c r="BP29" s="4">
         <v>0.74</v>
       </c>
-      <c r="BQ29">
+      <c r="BQ29" s="4">
+        <v>94.13</v>
+      </c>
+      <c r="BR29" s="4">
+        <v>95.85</v>
+      </c>
+      <c r="BS29" s="4">
+        <v>90.54</v>
+      </c>
+      <c r="BT29">
         <v>124</v>
       </c>
-      <c r="BR29">
+      <c r="BU29">
         <v>24</v>
       </c>
-      <c r="BS29">
+      <c r="BV29">
         <v>73</v>
       </c>
-      <c r="BT29">
+      <c r="BW29">
         <v>97</v>
       </c>
-      <c r="BU29">
+      <c r="BX29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>45800</v>
       </c>
@@ -5853,23 +6135,32 @@
       <c r="BP30" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ30">
+      <c r="BQ30" s="4">
+        <v>106.48</v>
+      </c>
+      <c r="BR30" s="4">
+        <v>81.59</v>
+      </c>
+      <c r="BS30" s="4">
+        <v>86.93</v>
+      </c>
+      <c r="BT30">
         <v>125</v>
       </c>
-      <c r="BR30">
+      <c r="BU30">
         <v>24</v>
       </c>
-      <c r="BS30">
+      <c r="BV30">
         <v>73.5</v>
       </c>
-      <c r="BT30">
+      <c r="BW30">
         <v>97.5</v>
       </c>
-      <c r="BU30">
+      <c r="BX30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>45811</v>
       </c>
@@ -6017,23 +6308,32 @@
       <c r="BP31" s="4">
         <v>0.86</v>
       </c>
-      <c r="BQ31">
+      <c r="BQ31" s="4">
+        <v>113.88</v>
+      </c>
+      <c r="BR31" s="4">
+        <v>70.430000000000007</v>
+      </c>
+      <c r="BS31" s="4">
+        <v>80.25</v>
+      </c>
+      <c r="BT31">
         <v>151</v>
       </c>
-      <c r="BR31">
+      <c r="BU31">
         <v>24</v>
       </c>
-      <c r="BS31">
+      <c r="BV31">
         <v>40.5</v>
       </c>
-      <c r="BT31">
+      <c r="BW31">
         <v>64.5</v>
       </c>
-      <c r="BU31">
+      <c r="BX31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45812</v>
       </c>
@@ -6181,23 +6481,32 @@
       <c r="BP32" s="4">
         <v>0.85</v>
       </c>
-      <c r="BQ32">
+      <c r="BQ32" s="4">
+        <v>110.64</v>
+      </c>
+      <c r="BR32" s="4">
+        <v>86.97</v>
+      </c>
+      <c r="BS32" s="4">
+        <v>96.01</v>
+      </c>
+      <c r="BT32">
         <v>159</v>
       </c>
-      <c r="BR32">
+      <c r="BU32">
         <v>24</v>
       </c>
-      <c r="BS32">
+      <c r="BV32">
         <v>58</v>
       </c>
-      <c r="BT32">
+      <c r="BW32">
         <v>82</v>
       </c>
-      <c r="BU32">
+      <c r="BX32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>45813</v>
       </c>
@@ -6345,23 +6654,32 @@
       <c r="BP33" s="4">
         <v>0.76</v>
       </c>
-      <c r="BQ33">
+      <c r="BQ33" s="4">
+        <v>99.99</v>
+      </c>
+      <c r="BR33" s="4">
+        <v>117.01</v>
+      </c>
+      <c r="BS33" s="4">
+        <v>117.03</v>
+      </c>
+      <c r="BT33">
         <v>152</v>
       </c>
-      <c r="BR33">
+      <c r="BU33">
         <v>24</v>
       </c>
-      <c r="BS33">
+      <c r="BV33">
         <v>54.5</v>
       </c>
-      <c r="BT33">
+      <c r="BW33">
         <v>78.5</v>
       </c>
-      <c r="BU33">
+      <c r="BX33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>45814</v>
       </c>
@@ -6539,23 +6857,32 @@
       <c r="BP34" s="4">
         <v>0.81</v>
       </c>
-      <c r="BQ34">
+      <c r="BQ34" s="4">
+        <v>104.93</v>
+      </c>
+      <c r="BR34" s="4">
+        <v>72.19</v>
+      </c>
+      <c r="BS34" s="4">
+        <v>75.86</v>
+      </c>
+      <c r="BT34">
         <v>168</v>
       </c>
-      <c r="BR34">
+      <c r="BU34">
         <v>24</v>
       </c>
-      <c r="BS34">
+      <c r="BV34">
         <v>68.5</v>
       </c>
-      <c r="BT34">
+      <c r="BW34">
         <v>92.5</v>
       </c>
-      <c r="BU34">
+      <c r="BX34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>45815</v>
       </c>
@@ -6703,23 +7030,32 @@
       <c r="BP35" s="4">
         <v>0.85</v>
       </c>
-      <c r="BQ35">
+      <c r="BQ35" s="4">
+        <v>114.72</v>
+      </c>
+      <c r="BR35" s="4">
+        <v>85.7</v>
+      </c>
+      <c r="BS35" s="4">
+        <v>98.32</v>
+      </c>
+      <c r="BT35">
         <v>149</v>
       </c>
-      <c r="BR35">
+      <c r="BU35">
         <v>24</v>
       </c>
-      <c r="BS35">
+      <c r="BV35">
         <v>37.5</v>
       </c>
-      <c r="BT35">
+      <c r="BW35">
         <v>61.5</v>
       </c>
-      <c r="BU35">
+      <c r="BX35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>45816</v>
       </c>
@@ -6897,23 +7233,32 @@
       <c r="BP36" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ36">
+      <c r="BQ36" s="4">
+        <v>108.81</v>
+      </c>
+      <c r="BR36" s="4">
+        <v>95.05</v>
+      </c>
+      <c r="BS36" s="4">
+        <v>103.54</v>
+      </c>
+      <c r="BT36">
         <v>121</v>
       </c>
-      <c r="BR36">
+      <c r="BU36">
         <v>24</v>
       </c>
-      <c r="BS36">
+      <c r="BV36">
         <v>65</v>
       </c>
-      <c r="BT36">
+      <c r="BW36">
         <v>89</v>
       </c>
-      <c r="BU36">
+      <c r="BX36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>45817</v>
       </c>
@@ -7061,23 +7406,32 @@
       <c r="BP37" s="4">
         <v>0.84</v>
       </c>
-      <c r="BQ37">
+      <c r="BQ37" s="4">
+        <v>103.55</v>
+      </c>
+      <c r="BR37" s="4">
+        <v>85.76</v>
+      </c>
+      <c r="BS37" s="4">
+        <v>88.58</v>
+      </c>
+      <c r="BT37">
         <v>160</v>
       </c>
-      <c r="BR37">
+      <c r="BU37">
         <v>24</v>
       </c>
-      <c r="BS37">
+      <c r="BV37">
         <v>65.5</v>
       </c>
-      <c r="BT37">
+      <c r="BW37">
         <v>89.5</v>
       </c>
-      <c r="BU37">
+      <c r="BX37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>45818</v>
       </c>
@@ -7225,23 +7579,32 @@
       <c r="BP38" s="4">
         <v>0.66</v>
       </c>
-      <c r="BQ38">
+      <c r="BQ38" s="4">
+        <v>85.83</v>
+      </c>
+      <c r="BR38" s="4">
+        <v>103.96</v>
+      </c>
+      <c r="BS38" s="4">
+        <v>89.18</v>
+      </c>
+      <c r="BT38">
         <v>117</v>
       </c>
-      <c r="BR38">
+      <c r="BU38">
         <v>24</v>
       </c>
-      <c r="BS38">
+      <c r="BV38">
         <v>95</v>
       </c>
-      <c r="BT38">
+      <c r="BW38">
         <v>119</v>
       </c>
-      <c r="BU38">
+      <c r="BX38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>45819</v>
       </c>
@@ -7389,23 +7752,32 @@
       <c r="BP39" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ39">
+      <c r="BQ39" s="4">
+        <v>103.34</v>
+      </c>
+      <c r="BR39" s="4">
+        <v>91.48</v>
+      </c>
+      <c r="BS39" s="4">
+        <v>95.46</v>
+      </c>
+      <c r="BT39">
         <v>133</v>
       </c>
-      <c r="BR39">
+      <c r="BU39">
         <v>24</v>
       </c>
-      <c r="BS39">
+      <c r="BV39">
         <v>81</v>
       </c>
-      <c r="BT39">
+      <c r="BW39">
         <v>105</v>
       </c>
-      <c r="BU39">
+      <c r="BX39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>45820</v>
       </c>
@@ -7583,23 +7955,32 @@
       <c r="BP40" s="4">
         <v>0.8</v>
       </c>
-      <c r="BQ40">
+      <c r="BQ40" s="4">
+        <v>105.85</v>
+      </c>
+      <c r="BR40" s="4">
+        <v>96.22</v>
+      </c>
+      <c r="BS40" s="4">
+        <v>101.97</v>
+      </c>
+      <c r="BT40">
         <v>138</v>
       </c>
-      <c r="BR40">
+      <c r="BU40">
         <v>24</v>
       </c>
-      <c r="BS40">
+      <c r="BV40">
         <v>66</v>
       </c>
-      <c r="BT40">
+      <c r="BW40">
         <v>90</v>
       </c>
-      <c r="BU40">
+      <c r="BX40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>45821</v>
       </c>
@@ -7777,23 +8158,32 @@
       <c r="BP41" s="4">
         <v>0.82</v>
       </c>
-      <c r="BQ41">
+      <c r="BQ41" s="4">
+        <v>104.79</v>
+      </c>
+      <c r="BR41" s="4">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="BS41" s="4">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="BT41">
         <v>137</v>
       </c>
-      <c r="BR41">
+      <c r="BU41">
         <v>24</v>
       </c>
-      <c r="BS41">
+      <c r="BV41">
         <v>49.5</v>
       </c>
-      <c r="BT41">
+      <c r="BW41">
         <v>73.5</v>
       </c>
-      <c r="BU41">
+      <c r="BX41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45822</v>
       </c>
@@ -7941,23 +8331,32 @@
       <c r="BP42" s="4">
         <v>0.66</v>
       </c>
-      <c r="BQ42">
+      <c r="BQ42" s="4">
+        <v>83.36</v>
+      </c>
+      <c r="BR42" s="4">
+        <v>113.84</v>
+      </c>
+      <c r="BS42" s="4">
+        <v>95.13</v>
+      </c>
+      <c r="BT42">
         <v>121</v>
       </c>
-      <c r="BR42">
+      <c r="BU42">
         <v>24</v>
       </c>
-      <c r="BS42">
+      <c r="BV42">
         <v>59</v>
       </c>
-      <c r="BT42">
+      <c r="BW42">
         <v>83</v>
       </c>
-      <c r="BU42">
+      <c r="BX42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>45823</v>
       </c>
@@ -8135,23 +8534,32 @@
       <c r="BP43" s="4">
         <v>0.82</v>
       </c>
-      <c r="BQ43">
+      <c r="BQ43" s="4">
+        <v>100.24</v>
+      </c>
+      <c r="BR43" s="4">
+        <v>124.09</v>
+      </c>
+      <c r="BS43" s="4">
+        <v>123.89</v>
+      </c>
+      <c r="BT43">
         <v>103</v>
       </c>
-      <c r="BR43">
+      <c r="BU43">
         <v>24</v>
       </c>
-      <c r="BS43">
+      <c r="BV43">
         <v>90.5</v>
       </c>
-      <c r="BT43">
+      <c r="BW43">
         <v>114.5</v>
       </c>
-      <c r="BU43">
+      <c r="BX43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45824</v>
       </c>
@@ -8329,23 +8737,32 @@
       <c r="BP44" s="4">
         <v>0.78</v>
       </c>
-      <c r="BQ44">
+      <c r="BQ44" s="4">
+        <v>98.84</v>
+      </c>
+      <c r="BR44" s="4">
+        <v>98.95</v>
+      </c>
+      <c r="BS44" s="4">
+        <v>98.79</v>
+      </c>
+      <c r="BT44">
         <v>108</v>
       </c>
-      <c r="BR44">
+      <c r="BU44">
         <v>24</v>
       </c>
-      <c r="BS44">
+      <c r="BV44">
         <v>72.5</v>
       </c>
-      <c r="BT44">
+      <c r="BW44">
         <v>96.5</v>
       </c>
-      <c r="BU44">
+      <c r="BX44">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45825</v>
       </c>
@@ -8523,23 +8940,32 @@
       <c r="BP45" s="4">
         <v>0.8</v>
       </c>
-      <c r="BQ45">
+      <c r="BQ45" s="4">
+        <v>102.94</v>
+      </c>
+      <c r="BR45" s="4">
+        <v>95.94</v>
+      </c>
+      <c r="BS45" s="4">
+        <v>98.96</v>
+      </c>
+      <c r="BT45">
         <v>125</v>
       </c>
-      <c r="BR45">
+      <c r="BU45">
         <v>24</v>
       </c>
-      <c r="BS45">
+      <c r="BV45">
         <v>76</v>
       </c>
-      <c r="BT45">
+      <c r="BW45">
         <v>100</v>
       </c>
-      <c r="BU45">
+      <c r="BX45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45826</v>
       </c>
@@ -8687,23 +9113,32 @@
       <c r="BP46" s="4">
         <v>0.84</v>
       </c>
-      <c r="BQ46">
+      <c r="BQ46" s="4">
+        <v>101.97</v>
+      </c>
+      <c r="BR46" s="4">
+        <v>103.3</v>
+      </c>
+      <c r="BS46" s="4">
+        <v>106.14</v>
+      </c>
+      <c r="BT46">
         <v>161</v>
       </c>
-      <c r="BR46">
+      <c r="BU46">
         <v>24</v>
       </c>
-      <c r="BS46">
+      <c r="BV46">
         <v>73</v>
       </c>
-      <c r="BT46">
+      <c r="BW46">
         <v>97</v>
       </c>
-      <c r="BU46">
+      <c r="BX46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45827</v>
       </c>
@@ -8851,23 +9286,32 @@
       <c r="BP47" s="4">
         <v>0.82</v>
       </c>
-      <c r="BQ47">
+      <c r="BQ47" s="4">
+        <v>100.94</v>
+      </c>
+      <c r="BR47" s="4">
+        <v>75.72</v>
+      </c>
+      <c r="BS47" s="4">
+        <v>76.48</v>
+      </c>
+      <c r="BT47">
         <v>194</v>
       </c>
-      <c r="BR47">
+      <c r="BU47">
         <v>24</v>
       </c>
-      <c r="BS47">
+      <c r="BV47">
         <v>69.5</v>
       </c>
-      <c r="BT47">
+      <c r="BW47">
         <v>93.5</v>
       </c>
-      <c r="BU47">
+      <c r="BX47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45829</v>
       </c>
@@ -9015,23 +9459,32 @@
       <c r="BP48" s="4">
         <v>0.79</v>
       </c>
-      <c r="BQ48">
+      <c r="BQ48" s="4">
+        <v>100.82</v>
+      </c>
+      <c r="BR48" s="4">
+        <v>129.26</v>
+      </c>
+      <c r="BS48" s="4">
+        <v>130.16999999999999</v>
+      </c>
+      <c r="BT48">
         <v>100</v>
       </c>
-      <c r="BR48">
+      <c r="BU48">
         <v>24</v>
       </c>
-      <c r="BS48">
+      <c r="BV48">
         <v>65</v>
       </c>
-      <c r="BT48">
+      <c r="BW48">
         <v>89</v>
       </c>
-      <c r="BU48">
+      <c r="BX48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45830</v>
       </c>
@@ -9209,23 +9662,32 @@
       <c r="BP49" s="4">
         <v>0.85</v>
       </c>
-      <c r="BQ49">
+      <c r="BQ49" s="4">
+        <v>96.97</v>
+      </c>
+      <c r="BR49" s="4">
+        <v>96.37</v>
+      </c>
+      <c r="BS49" s="4">
+        <v>93.52</v>
+      </c>
+      <c r="BT49">
         <v>129</v>
       </c>
-      <c r="BR49">
+      <c r="BU49">
         <v>24</v>
       </c>
-      <c r="BS49">
+      <c r="BV49">
         <v>90.5</v>
       </c>
-      <c r="BT49">
+      <c r="BW49">
         <v>114.5</v>
       </c>
-      <c r="BU49">
+      <c r="BX49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>45831</v>
       </c>
@@ -9403,23 +9865,32 @@
       <c r="BP50" s="4">
         <v>0.82</v>
       </c>
-      <c r="BQ50">
+      <c r="BQ50" s="4">
+        <v>107.55</v>
+      </c>
+      <c r="BR50" s="4">
+        <v>91.79</v>
+      </c>
+      <c r="BS50" s="4">
+        <v>98.82</v>
+      </c>
+      <c r="BT50">
         <v>127</v>
       </c>
-      <c r="BR50">
+      <c r="BU50">
         <v>24</v>
       </c>
-      <c r="BS50">
+      <c r="BV50">
         <v>59.5</v>
       </c>
-      <c r="BT50">
+      <c r="BW50">
         <v>83.5</v>
       </c>
-      <c r="BU50">
+      <c r="BX50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45833</v>
       </c>
@@ -9567,23 +10038,32 @@
       <c r="BP51" s="4">
         <v>0.72</v>
       </c>
-      <c r="BQ51">
+      <c r="BQ51" s="4">
+        <v>88.46</v>
+      </c>
+      <c r="BR51" s="4">
+        <v>101.82</v>
+      </c>
+      <c r="BS51" s="4">
+        <v>91.75</v>
+      </c>
+      <c r="BT51">
         <v>181</v>
       </c>
-      <c r="BR51">
+      <c r="BU51">
         <v>24</v>
       </c>
-      <c r="BS51">
+      <c r="BV51">
         <v>51.5</v>
       </c>
-      <c r="BT51">
+      <c r="BW51">
         <v>75.5</v>
       </c>
-      <c r="BU51">
+      <c r="BX51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>45834</v>
       </c>
@@ -9731,23 +10211,32 @@
       <c r="BP52" s="4">
         <v>0.75</v>
       </c>
-      <c r="BQ52">
+      <c r="BQ52" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="BR52" s="4">
+        <v>82.96</v>
+      </c>
+      <c r="BS52" s="4">
+        <v>83.06</v>
+      </c>
+      <c r="BT52">
         <v>60</v>
       </c>
-      <c r="BR52">
+      <c r="BU52">
         <v>24</v>
       </c>
-      <c r="BS52">
+      <c r="BV52">
         <v>128.5</v>
       </c>
-      <c r="BT52">
+      <c r="BW52">
         <v>152.5</v>
       </c>
-      <c r="BU52">
+      <c r="BX52">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>45836</v>
       </c>
@@ -9925,23 +10414,32 @@
       <c r="BP53" s="4">
         <v>0.82</v>
       </c>
-      <c r="BQ53">
+      <c r="BQ53" s="4">
+        <v>110.94</v>
+      </c>
+      <c r="BR53" s="4">
+        <v>90.16</v>
+      </c>
+      <c r="BS53" s="4">
+        <v>99.92</v>
+      </c>
+      <c r="BT53">
         <v>105</v>
       </c>
-      <c r="BR53">
+      <c r="BU53">
         <v>24</v>
       </c>
-      <c r="BS53">
+      <c r="BV53">
         <v>65.5</v>
       </c>
-      <c r="BT53">
+      <c r="BW53">
         <v>89.5</v>
       </c>
-      <c r="BU53">
+      <c r="BX53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>45858</v>
       </c>
@@ -10089,23 +10587,32 @@
       <c r="BP54" s="4">
         <v>0.87</v>
       </c>
-      <c r="BQ54">
+      <c r="BQ54" s="4">
+        <v>114.67</v>
+      </c>
+      <c r="BR54" s="4">
+        <v>97.62</v>
+      </c>
+      <c r="BS54" s="4">
+        <v>111.94</v>
+      </c>
+      <c r="BT54">
         <v>144</v>
       </c>
-      <c r="BR54">
+      <c r="BU54">
         <v>24</v>
       </c>
-      <c r="BS54">
+      <c r="BV54">
         <v>103.5</v>
       </c>
-      <c r="BT54">
+      <c r="BW54">
         <v>127.5</v>
       </c>
-      <c r="BU54">
+      <c r="BX54">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>45859</v>
       </c>
@@ -10283,23 +10790,32 @@
       <c r="BP55" s="4">
         <v>0.81</v>
       </c>
-      <c r="BQ55">
+      <c r="BQ55" s="4">
+        <v>106.41</v>
+      </c>
+      <c r="BR55" s="4">
+        <v>81.38</v>
+      </c>
+      <c r="BS55" s="4">
+        <v>86.67</v>
+      </c>
+      <c r="BT55">
         <v>166</v>
       </c>
-      <c r="BR55">
+      <c r="BU55">
         <v>24</v>
       </c>
-      <c r="BS55">
+      <c r="BV55">
         <v>65</v>
       </c>
-      <c r="BT55">
+      <c r="BW55">
         <v>89</v>
       </c>
-      <c r="BU55">
+      <c r="BX55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>45860</v>
       </c>
@@ -10447,23 +10963,32 @@
       <c r="BP56" s="4">
         <v>0.71</v>
       </c>
-      <c r="BQ56">
+      <c r="BQ56" s="4">
+        <v>89.16</v>
+      </c>
+      <c r="BR56" s="4">
+        <v>103.5</v>
+      </c>
+      <c r="BS56" s="4">
+        <v>92.52</v>
+      </c>
+      <c r="BT56">
         <v>145</v>
       </c>
-      <c r="BR56">
+      <c r="BU56">
         <v>24</v>
       </c>
-      <c r="BS56">
+      <c r="BV56">
         <v>65</v>
       </c>
-      <c r="BT56">
+      <c r="BW56">
         <v>89</v>
       </c>
-      <c r="BU56">
+      <c r="BX56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>45861</v>
       </c>
@@ -10611,23 +11136,32 @@
       <c r="BP57" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ57">
+      <c r="BQ57" s="4">
+        <v>107.05</v>
+      </c>
+      <c r="BR57" s="4">
+        <v>98.37</v>
+      </c>
+      <c r="BS57" s="4">
+        <v>105.63</v>
+      </c>
+      <c r="BT57">
         <v>128</v>
       </c>
-      <c r="BR57">
+      <c r="BU57">
         <v>24</v>
       </c>
-      <c r="BS57">
+      <c r="BV57">
         <v>97.5</v>
       </c>
-      <c r="BT57">
+      <c r="BW57">
         <v>121.5</v>
       </c>
-      <c r="BU57">
+      <c r="BX57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>45862</v>
       </c>
@@ -10769,23 +11303,32 @@
       <c r="BP58" s="4">
         <v>0.9</v>
       </c>
-      <c r="BQ58">
+      <c r="BQ58" s="4">
+        <v>104.73</v>
+      </c>
+      <c r="BR58" s="4">
+        <v>127.38</v>
+      </c>
+      <c r="BS58" s="4">
+        <v>133.32</v>
+      </c>
+      <c r="BT58">
         <v>91</v>
       </c>
-      <c r="BR58">
+      <c r="BU58">
         <v>24</v>
       </c>
-      <c r="BS58">
+      <c r="BV58">
         <v>88</v>
       </c>
-      <c r="BT58">
+      <c r="BW58">
         <v>112</v>
       </c>
-      <c r="BU58">
+      <c r="BX58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>45863</v>
       </c>
@@ -10963,23 +11506,32 @@
       <c r="BP59" s="4">
         <v>0.77</v>
       </c>
-      <c r="BQ59">
+      <c r="BQ59" s="4">
+        <v>90.04</v>
+      </c>
+      <c r="BR59" s="4">
+        <v>118.1</v>
+      </c>
+      <c r="BS59" s="4">
+        <v>106.75</v>
+      </c>
+      <c r="BT59">
         <v>121</v>
       </c>
-      <c r="BR59">
+      <c r="BU59">
         <v>24</v>
       </c>
-      <c r="BS59">
+      <c r="BV59">
         <v>67.5</v>
       </c>
-      <c r="BT59">
+      <c r="BW59">
         <v>91.5</v>
       </c>
-      <c r="BU59">
+      <c r="BX59">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>45864</v>
       </c>
@@ -11127,23 +11679,32 @@
       <c r="BP60" s="4">
         <v>0.81</v>
       </c>
-      <c r="BQ60">
+      <c r="BQ60" s="4">
+        <v>104.6</v>
+      </c>
+      <c r="BR60" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="BS60" s="4">
+        <v>96</v>
+      </c>
+      <c r="BT60">
         <v>148</v>
       </c>
-      <c r="BR60">
+      <c r="BU60">
         <v>24</v>
       </c>
-      <c r="BS60">
+      <c r="BV60">
         <v>62.5</v>
       </c>
-      <c r="BT60">
+      <c r="BW60">
         <v>86.5</v>
       </c>
-      <c r="BU60">
+      <c r="BX60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>45865</v>
       </c>
@@ -11291,23 +11852,32 @@
       <c r="BP61" s="4">
         <v>0.73</v>
       </c>
-      <c r="BQ61">
+      <c r="BQ61" s="4">
+        <v>95.09</v>
+      </c>
+      <c r="BR61" s="4">
+        <v>85.99</v>
+      </c>
+      <c r="BS61" s="4">
+        <v>81.94</v>
+      </c>
+      <c r="BT61">
         <v>103</v>
       </c>
-      <c r="BR61">
+      <c r="BU61">
         <v>24</v>
       </c>
-      <c r="BS61">
+      <c r="BV61">
         <v>103</v>
       </c>
-      <c r="BT61">
+      <c r="BW61">
         <v>127</v>
       </c>
-      <c r="BU61">
+      <c r="BX61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>45866</v>
       </c>
@@ -11371,23 +11941,32 @@
       <c r="BP62" s="4">
         <v>0.78</v>
       </c>
-      <c r="BQ62">
+      <c r="BQ62" s="4">
+        <v>102.12</v>
+      </c>
+      <c r="BR62" s="4">
+        <v>108.73</v>
+      </c>
+      <c r="BS62" s="4">
+        <v>111.01</v>
+      </c>
+      <c r="BT62">
         <v>128</v>
       </c>
-      <c r="BR62">
+      <c r="BU62">
         <v>24</v>
       </c>
-      <c r="BS62">
+      <c r="BV62">
         <v>76.5</v>
       </c>
-      <c r="BT62">
+      <c r="BW62">
         <v>100.5</v>
       </c>
-      <c r="BU62">
+      <c r="BX62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>45875</v>
       </c>
@@ -11565,23 +12144,32 @@
       <c r="BP63" s="4">
         <v>0.84</v>
       </c>
-      <c r="BQ63">
+      <c r="BQ63" s="4">
+        <v>105.56</v>
+      </c>
+      <c r="BR63" s="4">
+        <v>98.86</v>
+      </c>
+      <c r="BS63" s="4">
+        <v>104.95</v>
+      </c>
+      <c r="BT63">
         <v>114</v>
       </c>
-      <c r="BR63">
+      <c r="BU63">
         <v>24</v>
       </c>
-      <c r="BS63">
+      <c r="BV63">
         <v>71.5</v>
       </c>
-      <c r="BT63">
+      <c r="BW63">
         <v>95.5</v>
       </c>
-      <c r="BU63">
+      <c r="BX63">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>45876</v>
       </c>
@@ -11759,23 +12347,32 @@
       <c r="BP64" s="4">
         <v>0.82</v>
       </c>
-      <c r="BQ64">
+      <c r="BQ64" s="4">
+        <v>106.2</v>
+      </c>
+      <c r="BR64" s="4">
+        <v>87.87</v>
+      </c>
+      <c r="BS64" s="4">
+        <v>93.33</v>
+      </c>
+      <c r="BT64">
         <v>156</v>
       </c>
-      <c r="BR64">
+      <c r="BU64">
         <v>24</v>
       </c>
-      <c r="BS64">
+      <c r="BV64">
         <v>60.5</v>
       </c>
-      <c r="BT64">
+      <c r="BW64">
         <v>84.5</v>
       </c>
-      <c r="BU64">
+      <c r="BX64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>45877</v>
       </c>
@@ -11923,23 +12520,32 @@
       <c r="BP65" s="4">
         <v>0.84</v>
       </c>
-      <c r="BQ65">
+      <c r="BQ65" s="4">
+        <v>102.49</v>
+      </c>
+      <c r="BR65" s="4">
+        <v>92.49</v>
+      </c>
+      <c r="BS65" s="4">
+        <v>94.87</v>
+      </c>
+      <c r="BT65">
         <v>134</v>
       </c>
-      <c r="BR65">
+      <c r="BU65">
         <v>24</v>
       </c>
-      <c r="BS65">
+      <c r="BV65">
         <v>52</v>
       </c>
-      <c r="BT65">
+      <c r="BW65">
         <v>76</v>
       </c>
-      <c r="BU65">
+      <c r="BX65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>45878</v>
       </c>
@@ -12087,23 +12693,32 @@
       <c r="BP66" s="4">
         <v>0.78</v>
       </c>
-      <c r="BQ66">
+      <c r="BQ66" s="4">
+        <v>103.5</v>
+      </c>
+      <c r="BR66" s="4">
+        <v>93.34</v>
+      </c>
+      <c r="BS66" s="4">
+        <v>96.69</v>
+      </c>
+      <c r="BT66">
         <v>114</v>
       </c>
-      <c r="BR66">
+      <c r="BU66">
         <v>24</v>
       </c>
-      <c r="BS66">
+      <c r="BV66">
         <v>83.5</v>
       </c>
-      <c r="BT66">
+      <c r="BW66">
         <v>107.5</v>
       </c>
-      <c r="BU66">
+      <c r="BX66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>45880</v>
       </c>
@@ -12281,23 +12896,32 @@
       <c r="BP67" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ67">
+      <c r="BQ67" s="4">
+        <v>82.33</v>
+      </c>
+      <c r="BR67" s="4">
+        <v>63.85</v>
+      </c>
+      <c r="BS67" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="BT67">
         <v>162</v>
       </c>
-      <c r="BR67">
+      <c r="BU67">
         <v>24</v>
       </c>
-      <c r="BS67">
+      <c r="BV67">
         <v>59.5</v>
       </c>
-      <c r="BT67">
+      <c r="BW67">
         <v>83.5</v>
       </c>
-      <c r="BU67">
+      <c r="BX67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>45883</v>
       </c>
@@ -12445,23 +13069,32 @@
       <c r="BP68" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ68">
+      <c r="BQ68" s="4">
+        <v>102.97</v>
+      </c>
+      <c r="BR68" s="4">
+        <v>133.04</v>
+      </c>
+      <c r="BS68" s="4">
+        <v>136.75</v>
+      </c>
+      <c r="BT68">
         <v>155</v>
       </c>
-      <c r="BR68">
+      <c r="BU68">
         <v>24</v>
       </c>
-      <c r="BS68">
+      <c r="BV68">
         <v>52.5</v>
       </c>
-      <c r="BT68">
+      <c r="BW68">
         <v>76.5</v>
       </c>
-      <c r="BU68">
+      <c r="BX68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>45884</v>
       </c>
@@ -12639,23 +13272,32 @@
       <c r="BP69" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ69">
+      <c r="BQ69" s="4">
+        <v>102.2</v>
+      </c>
+      <c r="BR69" s="4">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="BS69" s="4">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="BT69">
         <v>112</v>
       </c>
-      <c r="BR69">
+      <c r="BU69">
         <v>24</v>
       </c>
-      <c r="BS69">
+      <c r="BV69">
         <v>68.5</v>
       </c>
-      <c r="BT69">
+      <c r="BW69">
         <v>92.5</v>
       </c>
-      <c r="BU69">
+      <c r="BX69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>45885</v>
       </c>
@@ -12755,8 +13397,17 @@
       <c r="AQ70">
         <v>3.69</v>
       </c>
+      <c r="BQ70" s="4">
+        <v>101.53</v>
+      </c>
+      <c r="BR70" s="4">
+        <v>112.4</v>
+      </c>
+      <c r="BS70" s="4">
+        <v>114.18</v>
+      </c>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45886</v>
       </c>
@@ -12904,23 +13555,32 @@
       <c r="BP71" s="4">
         <v>0.8</v>
       </c>
-      <c r="BQ71">
+      <c r="BQ71" s="4">
+        <v>104.34</v>
+      </c>
+      <c r="BR71" s="4">
+        <v>88.07</v>
+      </c>
+      <c r="BS71" s="4">
+        <v>92.07</v>
+      </c>
+      <c r="BT71">
         <v>151</v>
       </c>
-      <c r="BR71">
+      <c r="BU71">
         <v>24</v>
       </c>
-      <c r="BS71">
+      <c r="BV71">
         <v>89</v>
       </c>
-      <c r="BT71">
+      <c r="BW71">
         <v>113</v>
       </c>
-      <c r="BU71">
+      <c r="BX71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>45887</v>
       </c>
@@ -13068,24 +13728,33 @@
       <c r="BP72" s="4">
         <v>0.89</v>
       </c>
-      <c r="BQ72">
+      <c r="BQ72" s="4">
+        <v>92.32</v>
+      </c>
+      <c r="BR72" s="4">
+        <v>96.81</v>
+      </c>
+      <c r="BS72" s="4">
+        <v>89.81</v>
+      </c>
+      <c r="BT72">
         <v>124</v>
       </c>
-      <c r="BR72">
+      <c r="BU72">
         <v>24</v>
       </c>
-      <c r="BS72">
+      <c r="BV72">
         <v>89</v>
       </c>
-      <c r="BT72">
+      <c r="BW72">
         <v>113</v>
       </c>
-      <c r="BU72">
+      <c r="BX72">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BV72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BY72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83EC92A-1CEF-4081-8E65-9395857FB07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B64B32B-CC77-488B-847B-713AA410FB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B64B32B-CC77-488B-847B-713AA410FB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BD927-FA2E-4702-929C-864E957D0C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:BZ72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L72"/>
+      <selection activeCell="M2" sqref="M2:M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1422,6 +1422,9 @@
       <c r="L4" s="4">
         <v>2</v>
       </c>
+      <c r="M4" s="4">
+        <v>90</v>
+      </c>
       <c r="N4">
         <v>148</v>
       </c>
@@ -1789,6 +1792,9 @@
       <c r="L6" s="4">
         <v>1</v>
       </c>
+      <c r="M6" s="4">
+        <v>23</v>
+      </c>
       <c r="N6">
         <v>136</v>
       </c>
@@ -1962,6 +1968,9 @@
       <c r="L7" s="4">
         <v>1.5</v>
       </c>
+      <c r="M7" s="4">
+        <v>27</v>
+      </c>
       <c r="N7">
         <v>98</v>
       </c>
@@ -2505,6 +2514,9 @@
       <c r="L10" s="4">
         <v>0.5</v>
       </c>
+      <c r="M10" s="4">
+        <v>12</v>
+      </c>
       <c r="N10">
         <v>110</v>
       </c>
@@ -3033,6 +3045,9 @@
       <c r="L13" s="4">
         <v>2</v>
       </c>
+      <c r="M13" s="4">
+        <v>70</v>
+      </c>
       <c r="N13">
         <v>142</v>
       </c>
@@ -3206,6 +3221,9 @@
       <c r="L14" s="4">
         <v>2.5</v>
       </c>
+      <c r="M14" s="4">
+        <v>95</v>
+      </c>
       <c r="N14">
         <v>146</v>
       </c>
@@ -3564,6 +3582,9 @@
       <c r="L16" s="4">
         <v>0.5</v>
       </c>
+      <c r="M16" s="4">
+        <v>8.5</v>
+      </c>
       <c r="N16">
         <v>93</v>
       </c>
@@ -4244,6 +4265,9 @@
       <c r="L20" s="4">
         <v>1</v>
       </c>
+      <c r="M20" s="4">
+        <v>29</v>
+      </c>
       <c r="N20">
         <v>140</v>
       </c>
@@ -5297,6 +5321,9 @@
       <c r="L26" s="4">
         <v>2.5</v>
       </c>
+      <c r="M26" s="4">
+        <v>70</v>
+      </c>
       <c r="N26">
         <v>112</v>
       </c>
@@ -5810,6 +5837,9 @@
       <c r="L29" s="4">
         <v>2</v>
       </c>
+      <c r="M29" s="4">
+        <v>56</v>
+      </c>
       <c r="N29">
         <v>136</v>
       </c>
@@ -6144,6 +6174,9 @@
       <c r="L31" s="4">
         <v>0.9</v>
       </c>
+      <c r="M31" s="4">
+        <v>36</v>
+      </c>
       <c r="N31">
         <v>112</v>
       </c>
@@ -6317,6 +6350,9 @@
       <c r="L32" s="4">
         <v>0.5</v>
       </c>
+      <c r="M32" s="4">
+        <v>13.5</v>
+      </c>
       <c r="N32">
         <v>147</v>
       </c>
@@ -6860,6 +6896,9 @@
       <c r="L35" s="4">
         <v>0.75</v>
       </c>
+      <c r="M35" s="4">
+        <v>33</v>
+      </c>
       <c r="N35">
         <v>141</v>
       </c>
@@ -7033,6 +7072,9 @@
       <c r="L36" s="4">
         <v>1</v>
       </c>
+      <c r="M36" s="4">
+        <v>40</v>
+      </c>
       <c r="N36">
         <v>147</v>
       </c>
@@ -7236,6 +7278,9 @@
       <c r="L37" s="4">
         <v>0.25</v>
       </c>
+      <c r="M37" s="4">
+        <v>3.5</v>
+      </c>
       <c r="N37">
         <v>129</v>
       </c>
@@ -7409,6 +7454,9 @@
       <c r="L38" s="4">
         <v>2</v>
       </c>
+      <c r="M38" s="4">
+        <v>88</v>
+      </c>
       <c r="N38">
         <v>151</v>
       </c>
@@ -7582,6 +7630,9 @@
       <c r="L39" s="4">
         <v>1.5</v>
       </c>
+      <c r="M39" s="4">
+        <v>45</v>
+      </c>
       <c r="N39">
         <v>140</v>
       </c>
@@ -7955,6 +8006,9 @@
       <c r="L41" s="4">
         <v>1</v>
       </c>
+      <c r="M41" s="4">
+        <v>30</v>
+      </c>
       <c r="N41">
         <v>139</v>
       </c>
@@ -8158,6 +8212,9 @@
       <c r="L42" s="4">
         <v>0.25</v>
       </c>
+      <c r="M42" s="4">
+        <v>11</v>
+      </c>
       <c r="N42">
         <v>149</v>
       </c>
@@ -8331,6 +8388,9 @@
       <c r="L43" s="4">
         <v>0.1</v>
       </c>
+      <c r="M43" s="4">
+        <v>2.4000000000000004</v>
+      </c>
       <c r="N43">
         <v>123</v>
       </c>
@@ -9274,6 +9334,9 @@
       <c r="L48" s="4">
         <v>0.25</v>
       </c>
+      <c r="M48" s="4">
+        <v>7.5</v>
+      </c>
       <c r="N48">
         <v>117</v>
       </c>
@@ -9447,6 +9510,9 @@
       <c r="L49" s="4">
         <v>0.5</v>
       </c>
+      <c r="M49" s="4">
+        <v>17</v>
+      </c>
       <c r="N49">
         <v>146</v>
       </c>
@@ -9650,6 +9716,9 @@
       <c r="L50" s="4">
         <v>1.5</v>
       </c>
+      <c r="M50" s="4">
+        <v>60</v>
+      </c>
       <c r="N50">
         <v>145</v>
       </c>
@@ -10763,6 +10832,9 @@
       <c r="L56" s="4">
         <v>0.75</v>
       </c>
+      <c r="M56" s="4">
+        <v>30</v>
+      </c>
       <c r="N56">
         <v>107</v>
       </c>
@@ -11473,6 +11545,9 @@
       <c r="L60" s="4">
         <v>0.05</v>
       </c>
+      <c r="M60" s="4">
+        <v>52.5</v>
+      </c>
       <c r="N60">
         <v>112</v>
       </c>
@@ -13318,6 +13393,9 @@
       </c>
       <c r="L71" s="4">
         <v>1.25</v>
+      </c>
+      <c r="M71" s="4">
+        <v>56.25</v>
       </c>
       <c r="N71">
         <v>163</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BD927-FA2E-4702-929C-864E957D0C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE8F9E-CA67-428A-B772-5AEC82CEB9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:BZ72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M72"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,6 +1019,12 @@
       <c r="K2">
         <v>40.1</v>
       </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
       <c r="N2">
         <v>132</v>
       </c>
@@ -1219,6 +1225,12 @@
       <c r="K3">
         <v>30.6</v>
       </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
       <c r="N3">
         <v>140</v>
       </c>
@@ -1619,6 +1631,12 @@
       <c r="K5">
         <v>25</v>
       </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
       <c r="N5">
         <v>132</v>
       </c>
@@ -2141,6 +2159,12 @@
       <c r="K8">
         <v>17.899999999999999</v>
       </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
       <c r="N8">
         <v>106</v>
       </c>
@@ -2311,6 +2335,12 @@
       <c r="K9">
         <v>26.4</v>
       </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
       <c r="N9">
         <v>129</v>
       </c>
@@ -2687,6 +2717,12 @@
       <c r="K11">
         <v>27.5</v>
       </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
       <c r="N11">
         <v>161</v>
       </c>
@@ -2872,6 +2908,12 @@
       <c r="K12">
         <v>26.6</v>
       </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
       <c r="N12">
         <v>148</v>
       </c>
@@ -3394,6 +3436,12 @@
       <c r="K15">
         <v>29.4</v>
       </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
       <c r="N15">
         <v>137</v>
       </c>
@@ -3755,6 +3803,12 @@
       <c r="K17">
         <v>26.9</v>
       </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
       <c r="N17">
         <v>123</v>
       </c>
@@ -3925,6 +3979,12 @@
       <c r="K18">
         <v>26.9</v>
       </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
       <c r="N18">
         <v>130</v>
       </c>
@@ -4092,6 +4152,12 @@
       <c r="K19">
         <v>33.299999999999997</v>
       </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
       <c r="N19">
         <v>181</v>
       </c>
@@ -4438,6 +4504,12 @@
       <c r="K21">
         <v>25.7</v>
       </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
       <c r="N21">
         <v>113</v>
       </c>
@@ -4608,6 +4680,12 @@
       <c r="K22">
         <v>26.1</v>
       </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
       <c r="N22">
         <v>132</v>
       </c>
@@ -4778,6 +4856,12 @@
       <c r="K23">
         <v>20.8</v>
       </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
       <c r="N23">
         <v>116</v>
       </c>
@@ -4978,6 +5062,12 @@
       <c r="K24">
         <v>26.8</v>
       </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
       <c r="N24">
         <v>141</v>
       </c>
@@ -5148,6 +5238,12 @@
       <c r="K25">
         <v>27.7</v>
       </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
       <c r="N25">
         <v>127</v>
       </c>
@@ -5494,6 +5590,12 @@
       <c r="K27">
         <v>25.9</v>
       </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
       <c r="N27">
         <v>181</v>
       </c>
@@ -5664,6 +5766,12 @@
       <c r="K28">
         <v>35.799999999999997</v>
       </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
       <c r="N28">
         <v>200</v>
       </c>
@@ -6001,6 +6109,12 @@
       <c r="K30">
         <v>25.5</v>
       </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
       <c r="N30">
         <v>159</v>
       </c>
@@ -6523,6 +6637,12 @@
       <c r="K33">
         <v>29.1</v>
       </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
       <c r="N33">
         <v>151</v>
       </c>
@@ -6693,6 +6813,12 @@
       <c r="K34">
         <v>31.4</v>
       </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
       <c r="N34">
         <v>135</v>
       </c>
@@ -7803,6 +7929,12 @@
       <c r="K40">
         <v>27.1</v>
       </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
       <c r="N40">
         <v>154</v>
       </c>
@@ -8591,6 +8723,12 @@
       <c r="K44">
         <v>27.5</v>
       </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
       <c r="N44">
         <v>126</v>
       </c>
@@ -8791,6 +8929,12 @@
       <c r="K45">
         <v>28.4</v>
       </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
       <c r="N45">
         <v>121</v>
       </c>
@@ -8991,6 +9135,12 @@
       <c r="K46">
         <v>25.3</v>
       </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
       <c r="N46">
         <v>131</v>
       </c>
@@ -9161,6 +9311,12 @@
       <c r="K47">
         <v>29.1</v>
       </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
       <c r="N47">
         <v>127</v>
       </c>
@@ -9919,6 +10075,12 @@
       <c r="K51">
         <v>25</v>
       </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
       <c r="N51">
         <v>109</v>
       </c>
@@ -10089,6 +10251,12 @@
       <c r="K52">
         <v>39.9</v>
       </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
       <c r="N52">
         <v>127</v>
       </c>
@@ -10259,6 +10427,12 @@
       <c r="K53">
         <v>29.2</v>
       </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
       <c r="N53">
         <v>168</v>
       </c>
@@ -10459,6 +10633,12 @@
       <c r="K54">
         <v>28.7</v>
       </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
       <c r="N54">
         <v>151</v>
       </c>
@@ -10629,6 +10809,12 @@
       <c r="K55">
         <v>38.9</v>
       </c>
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
       <c r="N55">
         <v>102</v>
       </c>
@@ -11005,6 +11191,12 @@
       <c r="K57">
         <v>29</v>
       </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
       <c r="N57">
         <v>168</v>
       </c>
@@ -11172,6 +11364,12 @@
       <c r="K58">
         <v>37.9</v>
       </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
       <c r="N58">
         <v>133</v>
       </c>
@@ -11342,6 +11540,12 @@
       <c r="K59">
         <v>28.1</v>
       </c>
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
       <c r="N59">
         <v>167</v>
       </c>
@@ -11718,6 +11922,12 @@
       <c r="K61">
         <v>45.3</v>
       </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
       <c r="N61">
         <v>167</v>
       </c>
@@ -11885,6 +12095,12 @@
       <c r="K62">
         <v>20.8</v>
       </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
       <c r="N62">
         <v>111</v>
       </c>
@@ -11974,6 +12190,12 @@
       <c r="K63">
         <v>30.5</v>
       </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
       <c r="N63">
         <v>135</v>
       </c>
@@ -12174,6 +12396,12 @@
       <c r="K64">
         <v>32.4</v>
       </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <v>0</v>
+      </c>
       <c r="N64">
         <v>146</v>
       </c>
@@ -12374,6 +12602,12 @@
       <c r="K65">
         <v>25.9</v>
       </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
       <c r="N65">
         <v>115</v>
       </c>
@@ -12544,6 +12778,12 @@
       <c r="K66">
         <v>26.8</v>
       </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
       <c r="N66">
         <v>129</v>
       </c>
@@ -12714,6 +12954,12 @@
       <c r="K67">
         <v>38.1</v>
       </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
       <c r="N67">
         <v>139</v>
       </c>
@@ -12914,6 +13160,12 @@
       <c r="K68">
         <v>25.5</v>
       </c>
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
       <c r="N68">
         <v>115</v>
       </c>
@@ -13084,6 +13336,12 @@
       <c r="K69">
         <v>32.299999999999997</v>
       </c>
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
       <c r="N69">
         <v>104</v>
       </c>
@@ -13272,6 +13530,12 @@
       <c r="H70" t="s">
         <v>75</v>
       </c>
+      <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
       <c r="P70">
         <v>47.1</v>
       </c>
@@ -13566,6 +13830,12 @@
       </c>
       <c r="K72">
         <v>31.7</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
       </c>
       <c r="N72">
         <v>135</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D1F7E-3B59-490A-A5B2-CA2DC7C879AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E442A87D-B7B1-433C-8D3A-C310062BCFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C660B0-87D3-4B2E-A608-2DD5F1F0F73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79952A38-7F43-4C18-A1AB-54CD231BBCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="86">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -319,12 +319,24 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -354,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -366,6 +378,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,8 +694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15207,217 +15230,217 @@
       </c>
       <c r="BZ72" s="2"/>
     </row>
-    <row r="73" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+    <row r="73" spans="1:78" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
         <v>49668</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="6">
         <v>45594.276539351849</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="6">
         <v>45594.261087962957</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="6">
         <v>45594.243877314817</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="6">
         <v>45639.599224537043</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="5">
         <v>42</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2">
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5">
         <v>39.799999999999997</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="5">
         <v>1.5</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="5">
         <v>10.5</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="5">
         <v>152</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="5">
         <v>89</v>
       </c>
-      <c r="P73" s="2">
+      <c r="P73" s="5">
         <v>46.6</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="Q73" s="5">
         <v>13.8</v>
       </c>
-      <c r="R73" s="2">
+      <c r="R73" s="5">
         <v>359</v>
       </c>
-      <c r="S73" s="2">
+      <c r="S73" s="5">
         <v>9.66</v>
       </c>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2">
+      <c r="T73" s="5"/>
+      <c r="U73" s="5">
         <v>1025</v>
       </c>
-      <c r="V73" s="2" t="s">
+      <c r="V73" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="W73" s="2" t="s">
+      <c r="W73" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="X73" s="2">
+      <c r="X73" s="5">
         <v>1</v>
       </c>
-      <c r="Y73" s="2">
+      <c r="Y73" s="5">
         <v>1.5</v>
       </c>
-      <c r="Z73" s="2">
+      <c r="Z73" s="5">
         <v>91</v>
       </c>
-      <c r="AA73" s="2">
+      <c r="AA73" s="5">
         <v>49</v>
       </c>
-      <c r="AB73" s="2">
+      <c r="AB73" s="5">
         <v>135</v>
       </c>
-      <c r="AC73" s="2">
+      <c r="AC73" s="5">
         <v>197</v>
       </c>
-      <c r="AD73" s="2">
+      <c r="AD73" s="5">
         <v>103</v>
       </c>
-      <c r="AE73" s="2">
+      <c r="AE73" s="5">
         <v>1.68</v>
       </c>
-      <c r="AF73" s="2">
+      <c r="AF73" s="5">
         <v>5.6</v>
       </c>
-      <c r="AG73" s="2">
+      <c r="AG73" s="5">
         <v>13.1</v>
       </c>
-      <c r="AH73" s="2">
+      <c r="AH73" s="5">
         <v>39</v>
       </c>
-      <c r="AI73" s="2">
+      <c r="AI73" s="5">
         <v>35</v>
       </c>
-      <c r="AJ73" s="2">
+      <c r="AJ73" s="5">
         <v>0.88</v>
       </c>
-      <c r="AK73" s="2">
+      <c r="AK73" s="5">
         <v>19</v>
       </c>
-      <c r="AL73" s="2">
+      <c r="AL73" s="5">
         <v>27</v>
       </c>
-      <c r="AM73" s="2">
+      <c r="AM73" s="5">
         <v>24</v>
       </c>
-      <c r="AN73" s="2">
+      <c r="AN73" s="5">
         <v>47</v>
       </c>
-      <c r="AO73" s="2">
+      <c r="AO73" s="5">
         <v>0.5</v>
       </c>
-      <c r="AP73" s="2"/>
-      <c r="AQ73" s="2">
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AR73" s="2">
+      <c r="AR73" s="5">
         <v>2.31</v>
       </c>
-      <c r="AS73" s="2" t="s">
+      <c r="AS73" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AT73" s="2" t="s">
+      <c r="AT73" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AU73" s="2" t="s">
+      <c r="AU73" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AV73" s="2">
+      <c r="AV73" s="5">
         <v>21.6</v>
       </c>
-      <c r="AW73" s="2"/>
-      <c r="AX73" s="2"/>
-      <c r="AY73" s="2">
+      <c r="AW73" s="5"/>
+      <c r="AX73" s="5"/>
+      <c r="AY73" s="5">
         <v>0.7</v>
       </c>
-      <c r="AZ73" s="2">
+      <c r="AZ73" s="5">
         <v>0.5</v>
       </c>
-      <c r="BA73" s="2">
+      <c r="BA73" s="5">
         <v>0.11</v>
       </c>
-      <c r="BB73" s="2">
+      <c r="BB73" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BC73" s="2">
+      <c r="BC73" s="5">
         <v>0.3</v>
       </c>
-      <c r="BD73" s="2">
+      <c r="BD73" s="5">
         <v>0.4</v>
       </c>
-      <c r="BE73" s="2">
+      <c r="BE73" s="5">
         <v>6</v>
       </c>
-      <c r="BF73" s="2">
+      <c r="BF73" s="5">
         <v>0.74</v>
       </c>
-      <c r="BG73" s="2">
+      <c r="BG73" s="5">
         <v>0.2</v>
       </c>
-      <c r="BH73" s="2">
+      <c r="BH73" s="5">
         <v>6</v>
       </c>
-      <c r="BI73" s="2"/>
-      <c r="BJ73" s="2"/>
-      <c r="BK73" s="2"/>
-      <c r="BL73" s="2"/>
-      <c r="BM73" s="2"/>
-      <c r="BN73" s="2">
+      <c r="BI73" s="5"/>
+      <c r="BJ73" s="5"/>
+      <c r="BK73" s="5"/>
+      <c r="BL73" s="5"/>
+      <c r="BM73" s="5"/>
+      <c r="BN73" s="5">
         <v>29.17</v>
       </c>
-      <c r="BO73" s="2">
+      <c r="BO73" s="5">
         <v>5.99</v>
       </c>
-      <c r="BP73" s="2">
+      <c r="BP73" s="5">
         <v>4.8099999999999996</v>
       </c>
-      <c r="BQ73" s="2">
+      <c r="BQ73" s="5">
         <v>0.8</v>
       </c>
-      <c r="BR73" s="2">
+      <c r="BR73" s="5">
         <v>101.32</v>
       </c>
-      <c r="BS73" s="2">
+      <c r="BS73" s="5">
         <v>126.18</v>
       </c>
-      <c r="BT73" s="2">
+      <c r="BT73" s="5">
         <v>127.63</v>
       </c>
-      <c r="BU73" s="2">
+      <c r="BU73" s="5">
         <v>98</v>
       </c>
-      <c r="BV73" s="2">
+      <c r="BV73" s="5">
         <v>26.5</v>
       </c>
-      <c r="BW73" s="2">
+      <c r="BW73" s="5">
         <v>79</v>
       </c>
-      <c r="BX73" s="2">
+      <c r="BX73" s="5">
         <v>105.5</v>
       </c>
-      <c r="BY73" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ73" s="2"/>
+      <c r="BY73" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ73" s="5"/>
     </row>
     <row r="74" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
@@ -16247,8 +16270,12 @@
       <c r="E78" s="3">
         <v>45639.599224537043</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="F78" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G78" s="8">
+        <v>10</v>
+      </c>
       <c r="H78" s="2" t="s">
         <v>84</v>
       </c>
@@ -22489,8 +22516,12 @@
       <c r="E108" s="3">
         <v>45639.599224537043</v>
       </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
+      <c r="F108" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108" s="8">
+        <v>10</v>
+      </c>
       <c r="H108" s="2" t="s">
         <v>84</v>
       </c>
@@ -23927,8 +23958,12 @@
       <c r="E115" s="3">
         <v>45639.599224537043</v>
       </c>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
+      <c r="F115" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G115" s="8">
+        <v>10</v>
+      </c>
       <c r="H115" s="2" t="s">
         <v>84</v>
       </c>
@@ -27881,8 +27916,12 @@
       <c r="E134" s="3">
         <v>45639.599224537043</v>
       </c>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
+      <c r="F134" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G134" s="8">
+        <v>10</v>
+      </c>
       <c r="H134" s="2" t="s">
         <v>84</v>
       </c>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF63BE-B90D-4213-815D-CF761543A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -277,11 +283,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,12 +304,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -333,25 +345,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +410,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -423,6 +444,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -457,9 +479,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,14 +655,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:79">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -883,16 +908,16 @@
         <v>45770</v>
       </c>
       <c r="C2" s="2">
-        <v>45469.22888888889</v>
+        <v>45469.228888888887</v>
       </c>
       <c r="D2" s="2">
         <v>45469.25209490741</v>
       </c>
       <c r="E2" s="2">
-        <v>45539.42381944445</v>
+        <v>45539.423819444448</v>
       </c>
       <c r="F2" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
@@ -967,13 +992,13 @@
         <v>0.71</v>
       </c>
       <c r="AG2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH2">
         <v>16.7</v>
       </c>
       <c r="AI2">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="AK2">
         <v>0.86</v>
@@ -997,7 +1022,7 @@
         <v>0.08</v>
       </c>
       <c r="AS2">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AT2" t="s">
         <v>84</v>
@@ -1084,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:79">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1092,16 +1117,16 @@
         <v>45771</v>
       </c>
       <c r="C3" s="2">
-        <v>45469.25572916667</v>
+        <v>45469.255729166667</v>
       </c>
       <c r="D3" s="2">
-        <v>45469.23789351852</v>
+        <v>45469.237893518519</v>
       </c>
       <c r="E3" s="2">
-        <v>45539.43693287037</v>
+        <v>45539.436932870369</v>
       </c>
       <c r="F3" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G3" t="s">
         <v>78</v>
@@ -1218,7 +1243,7 @@
         <v>84</v>
       </c>
       <c r="AW3">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AZ3">
         <v>0.5</v>
@@ -1242,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="BG3">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BH3">
         <v>0.5</v>
@@ -1263,7 +1288,7 @@
         <v>5.96</v>
       </c>
       <c r="BQ3">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="BR3">
         <v>0.78</v>
@@ -1293,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:79">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1304,13 +1329,13 @@
         <v>45469.2815625</v>
       </c>
       <c r="D4" s="2">
-        <v>45469.26804398148</v>
+        <v>45469.268043981479</v>
       </c>
       <c r="E4" s="2">
-        <v>45539.43938657407</v>
+        <v>45539.439386574071</v>
       </c>
       <c r="F4" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -1472,7 +1497,7 @@
         <v>1.68</v>
       </c>
       <c r="BR4">
-        <v>0.804</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="BS4">
         <v>102.7</v>
@@ -1496,7 +1521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:79">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1504,16 +1529,16 @@
         <v>45773</v>
       </c>
       <c r="C5" s="2">
-        <v>45469.24545138889</v>
+        <v>45469.245451388888</v>
       </c>
       <c r="D5" s="2">
         <v>45469.26090277778</v>
       </c>
       <c r="E5" s="2">
-        <v>45539.43892361111</v>
+        <v>45539.438923611109</v>
       </c>
       <c r="F5" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G5" t="s">
         <v>78</v>
@@ -1588,13 +1613,13 @@
         <v>1.43</v>
       </c>
       <c r="AG5">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH5">
         <v>14</v>
       </c>
       <c r="AI5">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AK5">
         <v>0.98</v>
@@ -1615,7 +1640,7 @@
         <v>0.3</v>
       </c>
       <c r="AR5">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS5">
         <v>3.09</v>
@@ -1675,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:79">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1683,16 +1708,16 @@
         <v>45774</v>
       </c>
       <c r="C6" s="2">
-        <v>45469.24989583333</v>
+        <v>45469.249895833331</v>
       </c>
       <c r="D6" s="2">
-        <v>45469.24385416666</v>
+        <v>45469.243854166663</v>
       </c>
       <c r="E6" s="2">
-        <v>45539.43783564815</v>
+        <v>45539.437835648147</v>
       </c>
       <c r="F6" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G6" t="s">
         <v>78</v>
@@ -1767,7 +1792,7 @@
         <v>1.28</v>
       </c>
       <c r="AG6">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH6">
         <v>11.7</v>
@@ -1854,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:79">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1862,16 +1887,16 @@
         <v>45775</v>
       </c>
       <c r="C7" s="2">
-        <v>45469.23762731482</v>
+        <v>45469.237627314818</v>
       </c>
       <c r="D7" s="2">
-        <v>45469.27822916667</v>
+        <v>45469.278229166674</v>
       </c>
       <c r="E7" s="2">
-        <v>45539.4262037037</v>
+        <v>45539.426203703697</v>
       </c>
       <c r="F7" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G7" t="s">
         <v>78</v>
@@ -1946,7 +1971,7 @@
         <v>0.74</v>
       </c>
       <c r="AG7">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH7">
         <v>15.5</v>
@@ -2033,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:79">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2041,16 +2066,16 @@
         <v>45776</v>
       </c>
       <c r="C8" s="2">
-        <v>45469.26128472222</v>
+        <v>45469.261284722219</v>
       </c>
       <c r="D8" s="2">
-        <v>45469.27858796297</v>
+        <v>45469.278587962966</v>
       </c>
       <c r="E8" s="2">
-        <v>45539.42520833333</v>
+        <v>45539.425208333327</v>
       </c>
       <c r="F8" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G8" t="s">
         <v>79</v>
@@ -2065,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2128,10 +2153,10 @@
         <v>5.5</v>
       </c>
       <c r="AH8">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AI8">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AK8">
         <v>0.68</v>
@@ -2212,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:79">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2220,16 +2245,16 @@
         <v>45777</v>
       </c>
       <c r="C9" s="2">
-        <v>45469.27230324074</v>
+        <v>45469.272303240738</v>
       </c>
       <c r="D9" s="2">
-        <v>45469.30666666666</v>
+        <v>45469.306666666656</v>
       </c>
       <c r="E9" s="2">
-        <v>45539.43640046296</v>
+        <v>45539.436400462961</v>
       </c>
       <c r="F9" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
@@ -2364,10 +2389,10 @@
         <v>0.1</v>
       </c>
       <c r="BE9">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BF9">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BG9">
         <v>0.91</v>
@@ -2421,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:79">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2429,16 +2454,16 @@
         <v>45778</v>
       </c>
       <c r="C10" s="2">
-        <v>45469.28744212963</v>
+        <v>45469.287442129629</v>
       </c>
       <c r="D10" s="2">
-        <v>45469.31773148148</v>
+        <v>45469.317731481482</v>
       </c>
       <c r="E10" s="2">
-        <v>45539.43740740741</v>
+        <v>45539.437407407408</v>
       </c>
       <c r="F10" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
@@ -2513,13 +2538,13 @@
         <v>0.83</v>
       </c>
       <c r="AG10">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH10">
         <v>13.8</v>
       </c>
       <c r="AI10">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="AK10">
         <v>0.85</v>
@@ -2600,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:79">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2608,16 +2633,16 @@
         <v>45779</v>
       </c>
       <c r="C11" s="2">
-        <v>45469.26732638889</v>
+        <v>45469.267326388886</v>
       </c>
       <c r="D11" s="2">
-        <v>45469.295</v>
+        <v>45469.294999999998</v>
       </c>
       <c r="E11" s="2">
-        <v>45539.44247685185</v>
+        <v>45539.442476851851</v>
       </c>
       <c r="F11" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G11" t="s">
         <v>79</v>
@@ -2692,13 +2717,13 @@
         <v>3.01</v>
       </c>
       <c r="AG11">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH11">
         <v>15.1</v>
       </c>
       <c r="AI11">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="AK11">
         <v>0.76</v>
@@ -2719,7 +2744,7 @@
         <v>0.3</v>
       </c>
       <c r="AR11">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS11">
         <v>6.33</v>
@@ -2794,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:79">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2802,16 +2827,16 @@
         <v>45780</v>
       </c>
       <c r="C12" s="2">
-        <v>45469.30947916667</v>
+        <v>45469.309479166674</v>
       </c>
       <c r="D12" s="2">
-        <v>45469.32803240741</v>
+        <v>45469.328032407408</v>
       </c>
       <c r="E12" s="2">
-        <v>45539.44002314815</v>
+        <v>45539.440023148149</v>
       </c>
       <c r="F12" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G12" t="s">
         <v>78</v>
@@ -2850,7 +2875,7 @@
         <v>208</v>
       </c>
       <c r="T12">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="V12">
         <v>1020</v>
@@ -2886,7 +2911,7 @@
         <v>0.76</v>
       </c>
       <c r="AG12">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH12">
         <v>13.3</v>
@@ -2973,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:79">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2981,16 +3006,16 @@
         <v>45781</v>
       </c>
       <c r="C13" s="2">
-        <v>45469.30476851852</v>
+        <v>45469.304768518523</v>
       </c>
       <c r="D13" s="2">
-        <v>45469.29135416666</v>
+        <v>45469.291354166657</v>
       </c>
       <c r="E13" s="2">
-        <v>45539.44560185185</v>
+        <v>45539.445601851847</v>
       </c>
       <c r="F13" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -3029,7 +3054,7 @@
         <v>234</v>
       </c>
       <c r="T13">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="V13">
         <v>1030</v>
@@ -3071,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="AI13">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AK13">
         <v>1</v>
@@ -3119,7 +3144,7 @@
         <v>29.5</v>
       </c>
       <c r="BP13">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="BQ13">
         <v>3.83</v>
@@ -3152,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:79">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3160,16 +3185,16 @@
         <v>45782</v>
       </c>
       <c r="C14" s="2">
-        <v>45469.3162962963</v>
+        <v>45469.316296296303</v>
       </c>
       <c r="D14" s="2">
         <v>45469.30572916667</v>
       </c>
       <c r="E14" s="2">
-        <v>45539.44618055555</v>
+        <v>45539.446180555547</v>
       </c>
       <c r="F14" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
@@ -3184,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="M14">
         <v>2.5</v>
@@ -3271,7 +3296,7 @@
         <v>0.3</v>
       </c>
       <c r="AR14">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS14">
         <v>0.19</v>
@@ -3331,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:79">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3339,16 +3364,16 @@
         <v>45783</v>
       </c>
       <c r="C15" s="2">
-        <v>45469.29708333333</v>
+        <v>45469.297083333331</v>
       </c>
       <c r="D15" s="2">
         <v>45469.33121527778</v>
       </c>
       <c r="E15" s="2">
-        <v>45539.43846064815</v>
+        <v>45539.438460648147</v>
       </c>
       <c r="F15" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G15" t="s">
         <v>78</v>
@@ -3420,7 +3445,7 @@
         <v>202</v>
       </c>
       <c r="AF15">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AG15">
         <v>5.4</v>
@@ -3432,7 +3457,7 @@
         <v>188</v>
       </c>
       <c r="AK15">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AL15">
         <v>21</v>
@@ -3450,7 +3475,7 @@
         <v>0.3</v>
       </c>
       <c r="AR15">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS15">
         <v>0.1</v>
@@ -3495,7 +3520,7 @@
         <v>4.82</v>
       </c>
       <c r="BQ15">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="BR15">
         <v>0.85</v>
@@ -3525,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:79">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3533,16 +3558,16 @@
         <v>45784</v>
       </c>
       <c r="C16" s="2">
-        <v>45469.32996527778</v>
+        <v>45469.329965277779</v>
       </c>
       <c r="D16" s="2">
-        <v>45469.31762731481</v>
+        <v>45469.317627314813</v>
       </c>
       <c r="E16" s="2">
         <v>45539.44703703704</v>
       </c>
       <c r="F16" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
@@ -3644,7 +3669,7 @@
         <v>0.2</v>
       </c>
       <c r="AR16">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS16">
         <v>0.23</v>
@@ -3704,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:78">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3712,16 +3737,16 @@
         <v>45786</v>
       </c>
       <c r="C17" s="2">
-        <v>45469.32623842593</v>
+        <v>45469.326238425929</v>
       </c>
       <c r="D17" s="2">
-        <v>45469.35642361111</v>
+        <v>45469.356423611112</v>
       </c>
       <c r="E17" s="2">
         <v>45539.48128472222</v>
       </c>
       <c r="F17" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G17" t="s">
         <v>79</v>
@@ -3883,7 +3908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:78">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3891,16 +3916,16 @@
         <v>45787</v>
       </c>
       <c r="C18" s="2">
-        <v>45469.37930555556</v>
+        <v>45469.379305555558</v>
       </c>
       <c r="D18" s="2">
         <v>45469.36855324074</v>
       </c>
       <c r="E18" s="2">
-        <v>45539.44751157407</v>
+        <v>45539.447511574072</v>
       </c>
       <c r="F18" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
@@ -4038,7 +4063,7 @@
         <v>0.75</v>
       </c>
       <c r="BS18">
-        <v>96.48999999999999</v>
+        <v>96.49</v>
       </c>
       <c r="BT18">
         <v>106.16</v>
@@ -4059,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:78">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4067,16 +4092,16 @@
         <v>45788</v>
       </c>
       <c r="C19" s="2">
-        <v>45469.37405092592</v>
+        <v>45469.374050925922</v>
       </c>
       <c r="D19" s="2">
-        <v>45469.34215277778</v>
+        <v>45469.342152777783</v>
       </c>
       <c r="E19" s="2">
-        <v>45539.47819444445</v>
+        <v>45539.478194444448</v>
       </c>
       <c r="F19" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G19" t="s">
         <v>78</v>
@@ -4091,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -4235,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:78">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4243,16 +4268,16 @@
         <v>45790</v>
       </c>
       <c r="C20" s="2">
-        <v>45469.39155092592</v>
+        <v>45469.391550925917</v>
       </c>
       <c r="D20" s="2">
-        <v>45469.35390046296</v>
+        <v>45469.353900462957</v>
       </c>
       <c r="E20" s="2">
-        <v>45539.47956018519</v>
+        <v>45539.479560185187</v>
       </c>
       <c r="F20" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G20" t="s">
         <v>78</v>
@@ -4324,16 +4349,16 @@
         <v>146</v>
       </c>
       <c r="AF20">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG20">
         <v>5.2</v>
       </c>
       <c r="AH20">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AI20">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="AK20">
         <v>0.8</v>
@@ -4354,7 +4379,7 @@
         <v>0.3</v>
       </c>
       <c r="AR20">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS20">
         <v>0.49</v>
@@ -4414,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:78">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4422,16 +4447,16 @@
         <v>45791</v>
       </c>
       <c r="C21" s="2">
-        <v>45469.34662037037</v>
+        <v>45469.346620370372</v>
       </c>
       <c r="D21" s="2">
-        <v>45469.41329861111</v>
+        <v>45469.413298611107</v>
       </c>
       <c r="E21" s="2">
-        <v>45539.47767361111</v>
+        <v>45539.477673611109</v>
       </c>
       <c r="F21" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G21" t="s">
         <v>78</v>
@@ -4515,7 +4540,7 @@
         <v>29.4</v>
       </c>
       <c r="AK21">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AL21">
         <v>19</v>
@@ -4533,7 +4558,7 @@
         <v>0.4</v>
       </c>
       <c r="AR21">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS21">
         <v>4.8</v>
@@ -4572,7 +4597,7 @@
         <v>92.52</v>
       </c>
       <c r="BT21">
-        <v>91.23999999999999</v>
+        <v>91.24</v>
       </c>
       <c r="BU21">
         <v>84.81</v>
@@ -4593,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:78">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4604,13 +4629,13 @@
         <v>45469.36859953704</v>
       </c>
       <c r="D22" s="2">
-        <v>45469.36234953703</v>
+        <v>45469.362349537027</v>
       </c>
       <c r="E22" s="2">
-        <v>45539.46881944445</v>
+        <v>45539.468819444453</v>
       </c>
       <c r="F22" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G22" t="s">
         <v>78</v>
@@ -4691,7 +4716,7 @@
         <v>15</v>
       </c>
       <c r="AI22">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="AK22">
         <v>0.92</v>
@@ -4715,7 +4740,7 @@
         <v>0.1</v>
       </c>
       <c r="AS22">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AT22" t="s">
         <v>84</v>
@@ -4739,16 +4764,16 @@
         <v>16</v>
       </c>
       <c r="BP22">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="BQ22">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="BR22">
         <v>0.85</v>
       </c>
       <c r="BS22">
-        <v>99.48999999999999</v>
+        <v>99.49</v>
       </c>
       <c r="BT22">
         <v>102.13</v>
@@ -4772,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:78">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4780,16 +4805,16 @@
         <v>45793</v>
       </c>
       <c r="C23" s="2">
-        <v>45469.36380787037</v>
+        <v>45469.363807870373</v>
       </c>
       <c r="D23" s="2">
-        <v>45469.37475694445</v>
+        <v>45469.374756944453</v>
       </c>
       <c r="E23" s="2">
-        <v>45539.48171296297</v>
+        <v>45539.481712962966</v>
       </c>
       <c r="F23" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G23" t="s">
         <v>79</v>
@@ -4825,7 +4850,7 @@
         <v>234</v>
       </c>
       <c r="T23">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="V23">
         <v>1030</v>
@@ -4870,7 +4895,7 @@
         <v>27</v>
       </c>
       <c r="AK23">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="AL23">
         <v>16</v>
@@ -4912,7 +4937,7 @@
         <v>0.4</v>
       </c>
       <c r="BB23">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC23">
         <v>0.7</v>
@@ -4954,7 +4979,7 @@
         <v>0.78</v>
       </c>
       <c r="BS23">
-        <v>94.48999999999999</v>
+        <v>94.49</v>
       </c>
       <c r="BT23">
         <v>98.81</v>
@@ -4978,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:78">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4986,16 +5011,16 @@
         <v>45794</v>
       </c>
       <c r="C24" s="2">
-        <v>45469.35417824074</v>
+        <v>45469.354178240741</v>
       </c>
       <c r="D24" s="2">
-        <v>45469.38239583333</v>
+        <v>45469.382395833331</v>
       </c>
       <c r="E24" s="2">
-        <v>45539.48090277778</v>
+        <v>45539.480902777781</v>
       </c>
       <c r="F24" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G24" t="s">
         <v>78</v>
@@ -5124,7 +5149,7 @@
         <v>33.5</v>
       </c>
       <c r="BP24">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="BQ24">
         <v>3.65</v>
@@ -5157,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:78">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5165,16 +5190,16 @@
         <v>45795</v>
       </c>
       <c r="C25" s="2">
-        <v>45469.39914351852</v>
+        <v>45469.399143518523</v>
       </c>
       <c r="D25" s="2">
-        <v>45469.39549768518</v>
+        <v>45469.395497685182</v>
       </c>
       <c r="E25" s="2">
-        <v>45539.48046296297</v>
+        <v>45539.480462962973</v>
       </c>
       <c r="F25" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -5315,7 +5340,7 @@
         <v>105.72</v>
       </c>
       <c r="BT25">
-        <v>95.31999999999999</v>
+        <v>95.32</v>
       </c>
       <c r="BU25">
         <v>100.69</v>
@@ -5336,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:78">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5344,16 +5369,16 @@
         <v>45796</v>
       </c>
       <c r="C26" s="2">
-        <v>45469.38604166666</v>
+        <v>45469.386041666658</v>
       </c>
       <c r="D26" s="2">
-        <v>45469.44440972222</v>
+        <v>45469.444409722222</v>
       </c>
       <c r="E26" s="2">
-        <v>45539.48244212963</v>
+        <v>45539.482442129629</v>
       </c>
       <c r="F26" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -5428,7 +5453,7 @@
         <v>1.71</v>
       </c>
       <c r="AG26">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH26">
         <v>15.2</v>
@@ -5515,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:78">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5523,16 +5548,16 @@
         <v>45797</v>
       </c>
       <c r="C27" s="2">
-        <v>45469.39581018518</v>
+        <v>45469.395810185182</v>
       </c>
       <c r="D27" s="2">
-        <v>45469.38748842593</v>
+        <v>45469.387488425928</v>
       </c>
       <c r="E27" s="2">
-        <v>45539.48208333334</v>
+        <v>45539.482083333343</v>
       </c>
       <c r="F27" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
@@ -5634,7 +5659,7 @@
         <v>0.4</v>
       </c>
       <c r="AR27">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS27">
         <v>0.91</v>
@@ -5661,7 +5686,7 @@
         <v>21.5</v>
       </c>
       <c r="BP27">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="BQ27">
         <v>3.59</v>
@@ -5676,7 +5701,7 @@
         <v>100.41</v>
       </c>
       <c r="BU27">
-        <v>78.51000000000001</v>
+        <v>78.510000000000005</v>
       </c>
       <c r="BV27">
         <v>108</v>
@@ -5694,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:78">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5702,16 +5727,16 @@
         <v>45798</v>
       </c>
       <c r="C28" s="2">
-        <v>45469.41197916667</v>
+        <v>45469.411979166667</v>
       </c>
       <c r="D28" s="2">
-        <v>45469.40112268519</v>
+        <v>45469.401122685187</v>
       </c>
       <c r="E28" s="2">
-        <v>45539.48355324074</v>
+        <v>45539.483553240738</v>
       </c>
       <c r="F28" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -5726,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5747,7 +5772,7 @@
         <v>190</v>
       </c>
       <c r="T28">
-        <v>8.039999999999999</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="V28">
         <v>1030</v>
@@ -5783,7 +5808,7 @@
         <v>2.95</v>
       </c>
       <c r="AG28">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH28">
         <v>15.4</v>
@@ -5810,7 +5835,7 @@
         <v>0.3</v>
       </c>
       <c r="AR28">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS28">
         <v>9.1</v>
@@ -5849,7 +5874,7 @@
         <v>107.21</v>
       </c>
       <c r="BT28">
-        <v>89.70999999999999</v>
+        <v>89.71</v>
       </c>
       <c r="BU28">
         <v>96.36</v>
@@ -5870,7 +5895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:78">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5878,16 +5903,16 @@
         <v>45799</v>
       </c>
       <c r="C29" s="2">
-        <v>45469.44491898148</v>
+        <v>45469.444918981477</v>
       </c>
       <c r="D29" s="2">
         <v>45469.42046296296</v>
       </c>
       <c r="E29" s="2">
-        <v>45539.48283564814</v>
+        <v>45539.482835648138</v>
       </c>
       <c r="F29" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G29" t="s">
         <v>78</v>
@@ -5959,7 +5984,7 @@
         <v>16</v>
       </c>
       <c r="AI29">
-        <v>309.4</v>
+        <v>309.39999999999998</v>
       </c>
       <c r="AK29">
         <v>0.89</v>
@@ -6007,7 +6032,7 @@
         <v>21.5</v>
       </c>
       <c r="BP29">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="BQ29">
         <v>3.78</v>
@@ -6019,10 +6044,10 @@
         <v>94.13</v>
       </c>
       <c r="BT29">
-        <v>95.84999999999999</v>
+        <v>95.85</v>
       </c>
       <c r="BU29">
-        <v>90.54000000000001</v>
+        <v>90.54</v>
       </c>
       <c r="BV29">
         <v>124</v>
@@ -6040,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:78">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6051,13 +6076,13 @@
         <v>45469.43546296296</v>
       </c>
       <c r="D30" s="2">
-        <v>45471.3405324074</v>
+        <v>45471.340532407397</v>
       </c>
       <c r="E30" s="2">
-        <v>45539.48407407408</v>
+        <v>45539.484074074076</v>
       </c>
       <c r="F30" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G30" t="s">
         <v>78</v>
@@ -6141,7 +6166,7 @@
         <v>38.5</v>
       </c>
       <c r="AK30">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AL30">
         <v>20</v>
@@ -6159,7 +6184,7 @@
         <v>0.3</v>
       </c>
       <c r="AR30">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS30">
         <v>5.65</v>
@@ -6201,7 +6226,7 @@
         <v>81.59</v>
       </c>
       <c r="BU30">
-        <v>86.93000000000001</v>
+        <v>86.93</v>
       </c>
       <c r="BV30">
         <v>125</v>
@@ -6219,7 +6244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:78">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6227,16 +6252,16 @@
         <v>45811</v>
       </c>
       <c r="C31" s="2">
-        <v>45470.24140046296</v>
+        <v>45470.241400462961</v>
       </c>
       <c r="D31" s="2">
-        <v>45470.26251157407</v>
+        <v>45470.262511574067</v>
       </c>
       <c r="E31" s="2">
-        <v>45539.48454861111</v>
+        <v>45539.484548611108</v>
       </c>
       <c r="F31" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G31" t="s">
         <v>78</v>
@@ -6311,7 +6336,7 @@
         <v>2.14</v>
       </c>
       <c r="AG31">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH31">
         <v>10.4</v>
@@ -6377,7 +6402,7 @@
         <v>113.88</v>
       </c>
       <c r="BT31">
-        <v>70.43000000000001</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="BU31">
         <v>80.25</v>
@@ -6398,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:78">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6406,16 +6431,16 @@
         <v>45812</v>
       </c>
       <c r="C32" s="2">
-        <v>45470.22710648148</v>
+        <v>45470.227106481478</v>
       </c>
       <c r="D32" s="2">
-        <v>45470.22063657407</v>
+        <v>45470.220636574071</v>
       </c>
       <c r="E32" s="2">
-        <v>45539.48638888889</v>
+        <v>45539.486388888887</v>
       </c>
       <c r="F32" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G32" t="s">
         <v>78</v>
@@ -6496,7 +6521,7 @@
         <v>12.3</v>
       </c>
       <c r="AI32">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AK32">
         <v>1.06</v>
@@ -6520,7 +6545,7 @@
         <v>0.06</v>
       </c>
       <c r="AS32">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AT32" t="s">
         <v>84</v>
@@ -6559,7 +6584,7 @@
         <v>86.97</v>
       </c>
       <c r="BU32">
-        <v>96.01000000000001</v>
+        <v>96.01</v>
       </c>
       <c r="BV32">
         <v>159</v>
@@ -6577,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:78">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6585,16 +6610,16 @@
         <v>45813</v>
       </c>
       <c r="C33" s="2">
-        <v>45470.26737268519</v>
+        <v>45470.267372685194</v>
       </c>
       <c r="D33" s="2">
-        <v>45470.22305555556</v>
+        <v>45470.223055555558</v>
       </c>
       <c r="E33" s="2">
-        <v>45539.48564814815</v>
+        <v>45539.485648148147</v>
       </c>
       <c r="F33" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G33" t="s">
         <v>78</v>
@@ -6696,7 +6721,7 @@
         <v>0.11</v>
       </c>
       <c r="AS33">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="AT33" t="s">
         <v>84</v>
@@ -6729,7 +6754,7 @@
         <v>0.76</v>
       </c>
       <c r="BS33">
-        <v>99.98999999999999</v>
+        <v>99.99</v>
       </c>
       <c r="BT33">
         <v>117.01</v>
@@ -6753,7 +6778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:78">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6761,16 +6786,16 @@
         <v>45814</v>
       </c>
       <c r="C34" s="2">
-        <v>45470.25943287037</v>
+        <v>45470.259432870371</v>
       </c>
       <c r="D34" s="2">
-        <v>45470.23787037037</v>
+        <v>45470.237870370373</v>
       </c>
       <c r="E34" s="2">
-        <v>45539.48784722222</v>
+        <v>45539.487847222219</v>
       </c>
       <c r="F34" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G34" t="s">
         <v>78</v>
@@ -6809,7 +6834,7 @@
         <v>219</v>
       </c>
       <c r="T34">
-        <v>8.789999999999999</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="V34">
         <v>1025</v>
@@ -6896,7 +6921,7 @@
         <v>0.4</v>
       </c>
       <c r="BB34">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC34">
         <v>0.6</v>
@@ -6935,7 +6960,7 @@
         <v>2.99</v>
       </c>
       <c r="BR34">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BS34">
         <v>104.93</v>
@@ -6962,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:78">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6970,16 +6995,16 @@
         <v>45815</v>
       </c>
       <c r="C35" s="2">
-        <v>45470.22201388889</v>
+        <v>45470.222013888888</v>
       </c>
       <c r="D35" s="2">
-        <v>45470.23543981482</v>
+        <v>45470.235439814824</v>
       </c>
       <c r="E35" s="2">
-        <v>45539.48828703703</v>
+        <v>45539.488287037027</v>
       </c>
       <c r="F35" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G35" t="s">
         <v>78</v>
@@ -7084,7 +7109,7 @@
         <v>0.1</v>
       </c>
       <c r="AS35">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AT35" t="s">
         <v>84</v>
@@ -7123,7 +7148,7 @@
         <v>85.7</v>
       </c>
       <c r="BU35">
-        <v>98.31999999999999</v>
+        <v>98.32</v>
       </c>
       <c r="BV35">
         <v>149</v>
@@ -7141,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:78">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7149,16 +7174,16 @@
         <v>45816</v>
       </c>
       <c r="C36" s="2">
-        <v>45470.27210648148</v>
+        <v>45470.272106481483</v>
       </c>
       <c r="D36" s="2">
-        <v>45470.23719907407</v>
+        <v>45470.237199074072</v>
       </c>
       <c r="E36" s="2">
-        <v>45539.48915509259</v>
+        <v>45539.489155092589</v>
       </c>
       <c r="F36" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G36" t="s">
         <v>78</v>
@@ -7197,7 +7222,7 @@
         <v>190</v>
       </c>
       <c r="T36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V36">
         <v>1020</v>
@@ -7242,7 +7267,7 @@
         <v>42.5</v>
       </c>
       <c r="AK36">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AL36">
         <v>24</v>
@@ -7260,7 +7285,7 @@
         <v>0.3</v>
       </c>
       <c r="AR36">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS36">
         <v>6.2</v>
@@ -7350,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:78">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7358,16 +7383,16 @@
         <v>45817</v>
       </c>
       <c r="C37" s="2">
-        <v>45470.27712962963</v>
+        <v>45470.277129629627</v>
       </c>
       <c r="D37" s="2">
-        <v>45470.26072916666</v>
+        <v>45470.260729166657</v>
       </c>
       <c r="E37" s="2">
-        <v>45539.48527777778</v>
+        <v>45539.485277777778</v>
       </c>
       <c r="F37" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G37" t="s">
         <v>78</v>
@@ -7451,7 +7476,7 @@
         <v>34.6</v>
       </c>
       <c r="AK37">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AL37">
         <v>31</v>
@@ -7469,7 +7494,7 @@
         <v>0.3</v>
       </c>
       <c r="AR37">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS37">
         <v>6.41</v>
@@ -7508,7 +7533,7 @@
         <v>103.55</v>
       </c>
       <c r="BT37">
-        <v>85.76000000000001</v>
+        <v>85.76</v>
       </c>
       <c r="BU37">
         <v>88.58</v>
@@ -7529,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:78">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7537,16 +7562,16 @@
         <v>45818</v>
       </c>
       <c r="C38" s="2">
-        <v>45470.23247685185</v>
+        <v>45470.232476851852</v>
       </c>
       <c r="D38" s="2">
-        <v>45470.24822916667</v>
+        <v>45470.248229166667</v>
       </c>
       <c r="E38" s="2">
-        <v>45539.48964120371</v>
+        <v>45539.489641203712</v>
       </c>
       <c r="F38" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G38" t="s">
         <v>78</v>
@@ -7648,7 +7673,7 @@
         <v>0.3</v>
       </c>
       <c r="AR38">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS38">
         <v>0.1</v>
@@ -7690,7 +7715,7 @@
         <v>103.96</v>
       </c>
       <c r="BU38">
-        <v>89.18000000000001</v>
+        <v>89.18</v>
       </c>
       <c r="BV38">
         <v>117</v>
@@ -7708,7 +7733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:78">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7716,16 +7741,16 @@
         <v>45819</v>
       </c>
       <c r="C39" s="2">
-        <v>45470.2934837963</v>
+        <v>45470.293483796297</v>
       </c>
       <c r="D39" s="2">
-        <v>45470.28962962963</v>
+        <v>45470.289629629631</v>
       </c>
       <c r="E39" s="2">
-        <v>45539.48598379629</v>
+        <v>45539.485983796287</v>
       </c>
       <c r="F39" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G39" t="s">
         <v>78</v>
@@ -7740,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M39">
         <v>1.5</v>
@@ -7809,7 +7834,7 @@
         <v>32.9</v>
       </c>
       <c r="AK39">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AL39">
         <v>18</v>
@@ -7827,7 +7852,7 @@
         <v>0.2</v>
       </c>
       <c r="AR39">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AS39">
         <v>0.23</v>
@@ -7857,7 +7882,7 @@
         <v>5.83</v>
       </c>
       <c r="BQ39">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="BR39">
         <v>0.83</v>
@@ -7869,7 +7894,7 @@
         <v>91.48</v>
       </c>
       <c r="BU39">
-        <v>95.45999999999999</v>
+        <v>95.46</v>
       </c>
       <c r="BV39">
         <v>133</v>
@@ -7887,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:78">
+    <row r="40" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7895,16 +7920,16 @@
         <v>45820</v>
       </c>
       <c r="C40" s="2">
-        <v>45470.24807870371</v>
+        <v>45470.248078703713</v>
       </c>
       <c r="D40" s="2">
-        <v>45470.28100694445</v>
+        <v>45470.281006944453</v>
       </c>
       <c r="E40" s="2">
-        <v>45539.48685185185</v>
+        <v>45539.486851851849</v>
       </c>
       <c r="F40" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G40" t="s">
         <v>78</v>
@@ -8063,7 +8088,7 @@
         <v>42</v>
       </c>
       <c r="BP40">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="BQ40">
         <v>3.44</v>
@@ -8096,7 +8121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:78">
+    <row r="41" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8107,13 +8132,13 @@
         <v>45470.25513888889</v>
       </c>
       <c r="D41" s="2">
-        <v>45470.27540509259</v>
+        <v>45470.275405092587</v>
       </c>
       <c r="E41" s="2">
-        <v>45539.49027777778</v>
+        <v>45539.490277777782</v>
       </c>
       <c r="F41" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G41" t="s">
         <v>79</v>
@@ -8188,13 +8213,13 @@
         <v>1.37</v>
       </c>
       <c r="AG41">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH41">
         <v>14.2</v>
       </c>
       <c r="AI41">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AK41">
         <v>0.67</v>
@@ -8275,7 +8300,7 @@
         <v>2.48</v>
       </c>
       <c r="BQ41">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="BR41">
         <v>0.82</v>
@@ -8284,10 +8309,10 @@
         <v>104.79</v>
       </c>
       <c r="BT41">
-        <v>70.56999999999999</v>
+        <v>70.569999999999993</v>
       </c>
       <c r="BU41">
-        <v>74.90000000000001</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="BV41">
         <v>137</v>
@@ -8305,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:78">
+    <row r="42" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8313,16 +8338,16 @@
         <v>45822</v>
       </c>
       <c r="C42" s="2">
-        <v>45470.28561342593</v>
+        <v>45470.285613425927</v>
       </c>
       <c r="D42" s="2">
         <v>45470.26971064815</v>
       </c>
       <c r="E42" s="2">
-        <v>45539.48875</v>
+        <v>45539.488749999997</v>
       </c>
       <c r="F42" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G42" t="s">
         <v>78</v>
@@ -8484,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:78">
+    <row r="43" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8492,16 +8517,16 @@
         <v>45823</v>
       </c>
       <c r="C43" s="2">
-        <v>45470.28167824074</v>
+        <v>45470.281678240739</v>
       </c>
       <c r="D43" s="2">
-        <v>45470.30648148148</v>
+        <v>45470.306481481479</v>
       </c>
       <c r="E43" s="2">
-        <v>45539.4872337963</v>
+        <v>45539.487233796302</v>
       </c>
       <c r="F43" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G43" t="s">
         <v>78</v>
@@ -8618,7 +8643,7 @@
         <v>84</v>
       </c>
       <c r="AW43">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AZ43">
         <v>0.2</v>
@@ -8636,7 +8661,7 @@
         <v>0.2</v>
       </c>
       <c r="BE43">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF43">
         <v>3</v>
@@ -8663,7 +8688,7 @@
         <v>5.56</v>
       </c>
       <c r="BQ43">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="BR43">
         <v>0.82</v>
@@ -8693,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:78">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8704,13 +8729,13 @@
         <v>45470.33898148148</v>
       </c>
       <c r="D44" s="2">
-        <v>45470.29758101852</v>
+        <v>45470.297581018523</v>
       </c>
       <c r="E44" s="2">
-        <v>45539.49143518518</v>
+        <v>45539.491435185177</v>
       </c>
       <c r="F44" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G44" t="s">
         <v>78</v>
@@ -8788,10 +8813,10 @@
         <v>14</v>
       </c>
       <c r="AI44">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="AK44">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="AL44">
         <v>15</v>
@@ -8812,7 +8837,7 @@
         <v>0.05</v>
       </c>
       <c r="AS44">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AT44" t="s">
         <v>84</v>
@@ -8833,7 +8858,7 @@
         <v>0.4</v>
       </c>
       <c r="BB44">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC44">
         <v>1.2</v>
@@ -8881,7 +8906,7 @@
         <v>98.95</v>
       </c>
       <c r="BU44">
-        <v>98.79000000000001</v>
+        <v>98.79</v>
       </c>
       <c r="BV44">
         <v>108</v>
@@ -8899,7 +8924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:78">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8907,16 +8932,16 @@
         <v>45825</v>
       </c>
       <c r="C45" s="2">
-        <v>45470.31403935186</v>
+        <v>45470.314039351862</v>
       </c>
       <c r="D45" s="2">
-        <v>45470.29943287037</v>
+        <v>45470.299432870372</v>
       </c>
       <c r="E45" s="2">
-        <v>45539.49105324074</v>
+        <v>45539.491053240738</v>
       </c>
       <c r="F45" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G45" t="s">
         <v>78</v>
@@ -9015,7 +9040,7 @@
         <v>0.3</v>
       </c>
       <c r="AR45">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS45">
         <v>0.2</v>
@@ -9048,7 +9073,7 @@
         <v>0.3</v>
       </c>
       <c r="BE45">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF45">
         <v>6</v>
@@ -9087,7 +9112,7 @@
         <v>95.94</v>
       </c>
       <c r="BU45">
-        <v>98.95999999999999</v>
+        <v>98.96</v>
       </c>
       <c r="BV45">
         <v>125</v>
@@ -9105,7 +9130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:78">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9113,16 +9138,16 @@
         <v>45826</v>
       </c>
       <c r="C46" s="2">
-        <v>45470.28998842592</v>
+        <v>45470.289988425917</v>
       </c>
       <c r="D46" s="2">
-        <v>45470.31429398148</v>
+        <v>45470.314293981479</v>
       </c>
       <c r="E46" s="2">
-        <v>45539.49065972222</v>
+        <v>45539.490659722222</v>
       </c>
       <c r="F46" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G46" t="s">
         <v>78</v>
@@ -9206,7 +9231,7 @@
         <v>35.6</v>
       </c>
       <c r="AK46">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AL46">
         <v>19</v>
@@ -9284,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:78">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9292,16 +9317,16 @@
         <v>45827</v>
       </c>
       <c r="C47" s="2">
-        <v>45470.30365740741</v>
+        <v>45470.303657407407</v>
       </c>
       <c r="D47" s="2">
-        <v>45470.3178125</v>
+        <v>45470.317812499998</v>
       </c>
       <c r="E47" s="2">
-        <v>45539.49179398148</v>
+        <v>45539.491793981477</v>
       </c>
       <c r="F47" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G47" t="s">
         <v>78</v>
@@ -9340,7 +9365,7 @@
         <v>314</v>
       </c>
       <c r="T47">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="V47">
         <v>1010</v>
@@ -9406,7 +9431,7 @@
         <v>0.05</v>
       </c>
       <c r="AS47">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AT47" t="s">
         <v>84</v>
@@ -9463,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:78">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9471,16 +9496,16 @@
         <v>45829</v>
       </c>
       <c r="C48" s="2">
-        <v>45470.35445601852</v>
+        <v>45470.354456018518</v>
       </c>
       <c r="D48" s="2">
-        <v>45470.32910879629</v>
+        <v>45470.329108796293</v>
       </c>
       <c r="E48" s="2">
-        <v>45539.49421296296</v>
+        <v>45539.494212962964</v>
       </c>
       <c r="F48" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G48" t="s">
         <v>78</v>
@@ -9612,7 +9637,7 @@
         <v>6.15</v>
       </c>
       <c r="BQ48">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="BR48">
         <v>0.79</v>
@@ -9624,7 +9649,7 @@
         <v>129.26</v>
       </c>
       <c r="BU48">
-        <v>130.17</v>
+        <v>130.16999999999999</v>
       </c>
       <c r="BV48">
         <v>100</v>
@@ -9642,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:78">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9656,10 +9681,10 @@
         <v>45470.35738425926</v>
       </c>
       <c r="E49" s="2">
-        <v>45539.49524305556</v>
+        <v>45539.495243055557</v>
       </c>
       <c r="F49" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G49" t="s">
         <v>78</v>
@@ -9698,7 +9723,7 @@
         <v>156</v>
       </c>
       <c r="T49">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="V49">
         <v>1025</v>
@@ -9785,7 +9810,7 @@
         <v>0.4</v>
       </c>
       <c r="BB49">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC49">
         <v>0.7</v>
@@ -9851,7 +9876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:78">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9862,13 +9887,13 @@
         <v>45470.39947916667</v>
       </c>
       <c r="D50" s="2">
-        <v>45470.36094907407</v>
+        <v>45470.360949074071</v>
       </c>
       <c r="E50" s="2">
-        <v>45539.49563657407</v>
+        <v>45539.495636574073</v>
       </c>
       <c r="F50" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G50" t="s">
         <v>78</v>
@@ -9973,7 +9998,7 @@
         <v>0.11</v>
       </c>
       <c r="AS50">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AT50" t="s">
         <v>84</v>
@@ -10039,10 +10064,10 @@
         <v>107.55</v>
       </c>
       <c r="BT50">
-        <v>91.79000000000001</v>
+        <v>91.79</v>
       </c>
       <c r="BU50">
-        <v>98.81999999999999</v>
+        <v>98.82</v>
       </c>
       <c r="BV50">
         <v>127</v>
@@ -10060,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:78">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -10068,16 +10093,16 @@
         <v>45833</v>
       </c>
       <c r="C51" s="2">
-        <v>45470.4099074074</v>
+        <v>45470.409907407397</v>
       </c>
       <c r="D51" s="2">
-        <v>45470.38966435185</v>
+        <v>45470.389664351853</v>
       </c>
       <c r="E51" s="2">
-        <v>45539.50414351852</v>
+        <v>45539.504143518519</v>
       </c>
       <c r="F51" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G51" t="s">
         <v>79</v>
@@ -10113,7 +10138,7 @@
         <v>223</v>
       </c>
       <c r="T51">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="V51">
         <v>1030</v>
@@ -10155,7 +10180,7 @@
         <v>13.3</v>
       </c>
       <c r="AI51">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="AK51">
         <v>0.62</v>
@@ -10179,7 +10204,7 @@
         <v>0.08</v>
       </c>
       <c r="AS51">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AT51" t="s">
         <v>84</v>
@@ -10203,7 +10228,7 @@
         <v>19.5</v>
       </c>
       <c r="BP51">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="BQ51">
         <v>3.34</v>
@@ -10212,7 +10237,7 @@
         <v>0.72</v>
       </c>
       <c r="BS51">
-        <v>88.45999999999999</v>
+        <v>88.46</v>
       </c>
       <c r="BT51">
         <v>101.82</v>
@@ -10236,7 +10261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:78">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10244,16 +10269,16 @@
         <v>45834</v>
       </c>
       <c r="C52" s="2">
-        <v>45470.43271990741</v>
+        <v>45470.432719907411</v>
       </c>
       <c r="D52" s="2">
-        <v>45470.41559027778</v>
+        <v>45470.415590277778</v>
       </c>
       <c r="E52" s="2">
-        <v>45539.50652777778</v>
+        <v>45539.506527777783</v>
       </c>
       <c r="F52" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G52" t="s">
         <v>78</v>
@@ -10355,7 +10380,7 @@
         <v>0.3</v>
       </c>
       <c r="AR52">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS52">
         <v>1.8</v>
@@ -10394,7 +10419,7 @@
         <v>100.03</v>
       </c>
       <c r="BT52">
-        <v>82.95999999999999</v>
+        <v>82.96</v>
       </c>
       <c r="BU52">
         <v>83.06</v>
@@ -10415,7 +10440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:78">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10423,16 +10448,16 @@
         <v>45836</v>
       </c>
       <c r="C53" s="2">
-        <v>45470.43748842592</v>
+        <v>45470.437488425923</v>
       </c>
       <c r="D53" s="2">
-        <v>45470.42115740741</v>
+        <v>45470.421157407407</v>
       </c>
       <c r="E53" s="2">
         <v>45539.50613425926</v>
       </c>
       <c r="F53" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G53" t="s">
         <v>78</v>
@@ -10555,7 +10580,7 @@
         <v>0.4</v>
       </c>
       <c r="BB53">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BC53">
         <v>0.5</v>
@@ -10570,7 +10595,7 @@
         <v>5</v>
       </c>
       <c r="BG53">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BH53">
         <v>0.4</v>
@@ -10588,7 +10613,7 @@
         <v>27</v>
       </c>
       <c r="BP53">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="BQ53">
         <v>3.76</v>
@@ -10621,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:78">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10632,13 +10657,13 @@
         <v>45471.24728009259</v>
       </c>
       <c r="D54" s="2">
-        <v>45471.22178240741</v>
+        <v>45471.221782407411</v>
       </c>
       <c r="E54" s="2">
-        <v>45539.50825231482</v>
+        <v>45539.508252314823</v>
       </c>
       <c r="F54" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G54" t="s">
         <v>78</v>
@@ -10704,7 +10729,7 @@
         <v>167</v>
       </c>
       <c r="AF54">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AG54">
         <v>3.5</v>
@@ -10794,7 +10819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:78">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10802,16 +10827,16 @@
         <v>45859</v>
       </c>
       <c r="C55" s="2">
-        <v>45471.21991898148</v>
+        <v>45471.219918981478</v>
       </c>
       <c r="D55" s="2">
-        <v>45471.23758101852</v>
+        <v>45471.237581018519</v>
       </c>
       <c r="E55" s="2">
-        <v>45539.51311342593</v>
+        <v>45539.513113425928</v>
       </c>
       <c r="F55" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G55" t="s">
         <v>78</v>
@@ -10976,7 +11001,7 @@
         <v>2.9</v>
       </c>
       <c r="BR55">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BS55">
         <v>106.41</v>
@@ -11003,7 +11028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:78">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11011,16 +11036,16 @@
         <v>45860</v>
       </c>
       <c r="C56" s="2">
-        <v>45471.25138888889</v>
+        <v>45471.251388888893</v>
       </c>
       <c r="D56" s="2">
-        <v>45471.27210648148</v>
+        <v>45471.272106481483</v>
       </c>
       <c r="E56" s="2">
-        <v>45539.50701388889</v>
+        <v>45539.507013888891</v>
       </c>
       <c r="F56" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G56" t="s">
         <v>78</v>
@@ -11095,7 +11120,7 @@
         <v>1.86</v>
       </c>
       <c r="AG56">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH56">
         <v>11.4</v>
@@ -11122,7 +11147,7 @@
         <v>0.3</v>
       </c>
       <c r="AR56">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AS56">
         <v>2.61</v>
@@ -11152,7 +11177,7 @@
         <v>5.96</v>
       </c>
       <c r="BQ56">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="BR56">
         <v>0.71</v>
@@ -11182,7 +11207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:78">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11190,16 +11215,16 @@
         <v>45861</v>
       </c>
       <c r="C57" s="2">
-        <v>45471.23921296297</v>
+        <v>45471.239212962973</v>
       </c>
       <c r="D57" s="2">
-        <v>45471.23295138889</v>
+        <v>45471.232951388891</v>
       </c>
       <c r="E57" s="2">
-        <v>45539.50912037037</v>
+        <v>45539.509120370371</v>
       </c>
       <c r="F57" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G57" t="s">
         <v>78</v>
@@ -11280,7 +11305,7 @@
         <v>29.7</v>
       </c>
       <c r="AK57">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AL57">
         <v>26</v>
@@ -11328,7 +11353,7 @@
         <v>5.28</v>
       </c>
       <c r="BQ57">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BR57">
         <v>0.83</v>
@@ -11358,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:78">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11366,13 +11391,13 @@
         <v>45862</v>
       </c>
       <c r="C58" s="2">
-        <v>45471.28751157408</v>
+        <v>45471.287511574083</v>
       </c>
       <c r="E58" s="2">
-        <v>45539.51460648148</v>
+        <v>45539.514606481483</v>
       </c>
       <c r="F58" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G58" t="s">
         <v>78</v>
@@ -11498,7 +11523,7 @@
         <v>5.13</v>
       </c>
       <c r="BQ58">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="BR58">
         <v>0.9</v>
@@ -11528,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:78">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11536,16 +11561,16 @@
         <v>45863</v>
       </c>
       <c r="C59" s="2">
-        <v>45471.23533564815</v>
+        <v>45471.235335648147</v>
       </c>
       <c r="D59" s="2">
         <v>45471.26253472222</v>
       </c>
       <c r="E59" s="2">
-        <v>45539.51546296296</v>
+        <v>45539.515462962961</v>
       </c>
       <c r="F59" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G59" t="s">
         <v>78</v>
@@ -11662,7 +11687,7 @@
         <v>84</v>
       </c>
       <c r="AW59">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AZ59">
         <v>0.2</v>
@@ -11713,7 +11738,7 @@
         <v>0.77</v>
       </c>
       <c r="BS59">
-        <v>90.04000000000001</v>
+        <v>90.04</v>
       </c>
       <c r="BT59">
         <v>118.1</v>
@@ -11737,7 +11762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:78">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11745,16 +11770,16 @@
         <v>45864</v>
       </c>
       <c r="C60" s="2">
-        <v>45471.22732638889</v>
+        <v>45471.227326388893</v>
       </c>
       <c r="D60" s="2">
         <v>45471.26761574074</v>
       </c>
       <c r="E60" s="2">
-        <v>45539.50875</v>
+        <v>45539.508750000001</v>
       </c>
       <c r="F60" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G60" t="s">
         <v>78</v>
@@ -11793,7 +11818,7 @@
         <v>222</v>
       </c>
       <c r="T60">
-        <v>8.550000000000001</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="V60">
         <v>1030</v>
@@ -11838,7 +11863,7 @@
         <v>37.9</v>
       </c>
       <c r="AK60">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AL60">
         <v>19</v>
@@ -11883,13 +11908,13 @@
         <v>41</v>
       </c>
       <c r="BP60">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="BQ60">
         <v>3.38</v>
       </c>
       <c r="BR60">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BS60">
         <v>104.6</v>
@@ -11916,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:78">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11924,16 +11949,16 @@
         <v>45865</v>
       </c>
       <c r="C61" s="2">
-        <v>45471.26347222222</v>
+        <v>45471.263472222221</v>
       </c>
       <c r="D61" s="2">
-        <v>45471.25724537037</v>
+        <v>45471.257245370369</v>
       </c>
       <c r="E61" s="2">
-        <v>45539.50770833333</v>
+        <v>45539.507708333331</v>
       </c>
       <c r="F61" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G61" t="s">
         <v>78</v>
@@ -12008,7 +12033,7 @@
         <v>1.2</v>
       </c>
       <c r="AG61">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AH61">
         <v>13.6</v>
@@ -12074,7 +12099,7 @@
         <v>95.09</v>
       </c>
       <c r="BT61">
-        <v>85.98999999999999</v>
+        <v>85.99</v>
       </c>
       <c r="BU61">
         <v>81.94</v>
@@ -12095,7 +12120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:78">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -12103,13 +12128,13 @@
         <v>45866</v>
       </c>
       <c r="C62" s="2">
-        <v>45471.28412037037</v>
+        <v>45471.284120370372</v>
       </c>
       <c r="D62" s="2">
-        <v>45471.25173611111</v>
+        <v>45471.251736111109</v>
       </c>
       <c r="E62" s="2">
-        <v>45539.51592592592</v>
+        <v>45539.515925925924</v>
       </c>
       <c r="G62" t="s">
         <v>78</v>
@@ -12157,7 +12182,7 @@
         <v>20.5</v>
       </c>
       <c r="BP62">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="BQ62">
         <v>3.72</v>
@@ -12190,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:78">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -12198,16 +12223,16 @@
         <v>45875</v>
       </c>
       <c r="C63" s="2">
-        <v>45471.32224537037</v>
+        <v>45471.322245370371</v>
       </c>
       <c r="D63" s="2">
-        <v>45471.28391203703</v>
+        <v>45471.283912037034</v>
       </c>
       <c r="E63" s="2">
-        <v>45539.51506944445</v>
+        <v>45539.515069444453</v>
       </c>
       <c r="F63" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G63" t="s">
         <v>78</v>
@@ -12243,7 +12268,7 @@
         <v>262</v>
       </c>
       <c r="T63">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="V63">
         <v>1030</v>
@@ -12285,7 +12310,7 @@
         <v>14.2</v>
       </c>
       <c r="AI63">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="AK63">
         <v>0.91</v>
@@ -12396,7 +12421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:78">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -12404,16 +12429,16 @@
         <v>45876</v>
       </c>
       <c r="C64" s="2">
-        <v>45471.27560185185</v>
+        <v>45471.275601851848</v>
       </c>
       <c r="D64" s="2">
-        <v>45471.29512731481</v>
+        <v>45471.295127314806</v>
       </c>
       <c r="E64" s="2">
-        <v>45539.51633101852</v>
+        <v>45539.516331018523</v>
       </c>
       <c r="F64" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G64" t="s">
         <v>78</v>
@@ -12605,7 +12630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:78">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -12613,16 +12638,16 @@
         <v>45877</v>
       </c>
       <c r="C65" s="2">
-        <v>45471.31034722222</v>
+        <v>45471.310347222221</v>
       </c>
       <c r="D65" s="2">
-        <v>45471.30685185185</v>
+        <v>45471.306851851848</v>
       </c>
       <c r="E65" s="2">
-        <v>45539.51668981482</v>
+        <v>45539.516689814824</v>
       </c>
       <c r="F65" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G65" t="s">
         <v>78</v>
@@ -12706,7 +12731,7 @@
         <v>32</v>
       </c>
       <c r="AK65">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AL65">
         <v>21</v>
@@ -12727,7 +12752,7 @@
         <v>0.31</v>
       </c>
       <c r="AS65">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="AT65" t="s">
         <v>84</v>
@@ -12763,7 +12788,7 @@
         <v>102.49</v>
       </c>
       <c r="BT65">
-        <v>92.48999999999999</v>
+        <v>92.49</v>
       </c>
       <c r="BU65">
         <v>94.87</v>
@@ -12784,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:78">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -12792,16 +12817,16 @@
         <v>45878</v>
       </c>
       <c r="C66" s="2">
-        <v>45471.32601851852</v>
+        <v>45471.326018518521</v>
       </c>
       <c r="D66" s="2">
-        <v>45471.3215162037</v>
+        <v>45471.321516203701</v>
       </c>
       <c r="E66" s="2">
-        <v>45539.51709490741</v>
+        <v>45539.517094907409</v>
       </c>
       <c r="F66" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G66" t="s">
         <v>78</v>
@@ -12903,7 +12928,7 @@
         <v>0.4</v>
       </c>
       <c r="AR66">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS66">
         <v>9.17</v>
@@ -12930,7 +12955,7 @@
         <v>48.5</v>
       </c>
       <c r="BP66">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="BQ66">
         <v>3.25</v>
@@ -12963,7 +12988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:78">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -12971,16 +12996,16 @@
         <v>45880</v>
       </c>
       <c r="C67" s="2">
-        <v>45471.3677662037</v>
+        <v>45471.367766203701</v>
       </c>
       <c r="D67" s="2">
-        <v>45471.36248842593</v>
+        <v>45471.362488425933</v>
       </c>
       <c r="E67" s="2">
         <v>45539.51767361111</v>
       </c>
       <c r="F67" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G67" t="s">
         <v>78</v>
@@ -13061,7 +13086,7 @@
         <v>10.3</v>
       </c>
       <c r="AI67">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="AK67">
         <v>0.91</v>
@@ -13172,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:78">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13180,16 +13205,16 @@
         <v>45883</v>
       </c>
       <c r="C68" s="2">
-        <v>45471.38100694444</v>
+        <v>45471.381006944437</v>
       </c>
       <c r="D68" s="2">
-        <v>45471.36496527777</v>
+        <v>45471.364965277768</v>
       </c>
       <c r="E68" s="2">
-        <v>45539.51825231482</v>
+        <v>45539.518252314818</v>
       </c>
       <c r="F68" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G68" t="s">
         <v>78</v>
@@ -13321,7 +13346,7 @@
         <v>5.47</v>
       </c>
       <c r="BQ68">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="BR68">
         <v>0.83</v>
@@ -13351,7 +13376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:78">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -13359,16 +13384,16 @@
         <v>45884</v>
       </c>
       <c r="C69" s="2">
-        <v>45471.37456018518</v>
+        <v>45471.374560185177</v>
       </c>
       <c r="D69" s="2">
-        <v>45471.38217592592</v>
+        <v>45471.382175925923</v>
       </c>
       <c r="E69" s="2">
         <v>45539.51866898148</v>
       </c>
       <c r="F69" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G69" t="s">
         <v>78</v>
@@ -13383,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -13449,7 +13474,7 @@
         <v>12.2</v>
       </c>
       <c r="AI69">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AK69">
         <v>0.82</v>
@@ -13512,7 +13537,7 @@
         <v>3.93</v>
       </c>
       <c r="BH69">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BI69">
         <v>2</v>
@@ -13539,10 +13564,10 @@
         <v>102.2</v>
       </c>
       <c r="BT69">
-        <v>71.56999999999999</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="BU69">
-        <v>73.20999999999999</v>
+        <v>73.209999999999994</v>
       </c>
       <c r="BV69">
         <v>112</v>
@@ -13560,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:78">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -13571,7 +13596,7 @@
         <v>45471.37332175926</v>
       </c>
       <c r="F70" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G70" t="s">
         <v>78</v>
@@ -13676,7 +13701,7 @@
         <v>114.18</v>
       </c>
     </row>
-    <row r="71" spans="1:78">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -13684,16 +13709,16 @@
         <v>45886</v>
       </c>
       <c r="C71" s="2">
-        <v>45471.42943287037</v>
+        <v>45471.429432870369</v>
       </c>
       <c r="D71" s="2">
         <v>45471.40357638889</v>
       </c>
       <c r="E71" s="2">
-        <v>45539.51924768519</v>
+        <v>45539.519247685188</v>
       </c>
       <c r="F71" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G71" t="s">
         <v>78</v>
@@ -13732,7 +13757,7 @@
         <v>328</v>
       </c>
       <c r="T71">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="V71">
         <v>1027</v>
@@ -13768,7 +13793,7 @@
         <v>6.3</v>
       </c>
       <c r="AG71">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AH71">
         <v>11.1</v>
@@ -13777,7 +13802,7 @@
         <v>11530.1</v>
       </c>
       <c r="AK71">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AL71">
         <v>16</v>
@@ -13822,7 +13847,7 @@
         <v>25.5</v>
       </c>
       <c r="BP71">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="BQ71">
         <v>3.87</v>
@@ -13834,10 +13859,10 @@
         <v>104.34</v>
       </c>
       <c r="BT71">
-        <v>88.06999999999999</v>
+        <v>88.07</v>
       </c>
       <c r="BU71">
-        <v>92.06999999999999</v>
+        <v>92.07</v>
       </c>
       <c r="BV71">
         <v>151</v>
@@ -13855,7 +13880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:78">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -13863,16 +13888,16 @@
         <v>45887</v>
       </c>
       <c r="C72" s="2">
-        <v>45471.40664351852</v>
+        <v>45471.406643518523</v>
       </c>
       <c r="D72" s="2">
-        <v>45471.42236111111</v>
+        <v>45471.422361111108</v>
       </c>
       <c r="E72" s="2">
-        <v>45539.5195949074</v>
+        <v>45539.519594907397</v>
       </c>
       <c r="F72" s="2">
-        <v>45541.47692129629</v>
+        <v>45541.476921296293</v>
       </c>
       <c r="G72" t="s">
         <v>78</v>
@@ -13971,7 +13996,7 @@
         <v>0.3</v>
       </c>
       <c r="AR72">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS72">
         <v>0.86</v>
@@ -14007,7 +14032,7 @@
         <v>0.89</v>
       </c>
       <c r="BS72">
-        <v>92.31999999999999</v>
+        <v>92.32</v>
       </c>
       <c r="BT72">
         <v>96.81</v>
@@ -14031,7 +14056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:78">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -14039,16 +14064,16 @@
         <v>49668</v>
       </c>
       <c r="C73" s="2">
-        <v>45594.27653935185</v>
+        <v>45594.276539351849</v>
       </c>
       <c r="D73" s="2">
-        <v>45594.26108796296</v>
+        <v>45594.261087962957</v>
       </c>
       <c r="E73" s="2">
-        <v>45594.24387731482</v>
+        <v>45594.243877314817</v>
       </c>
       <c r="F73" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -14060,7 +14085,7 @@
         <v>81</v>
       </c>
       <c r="L73">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M73">
         <v>1.5</v>
@@ -14150,7 +14175,7 @@
         <v>0.5</v>
       </c>
       <c r="AR73">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AS73">
         <v>2.31</v>
@@ -14177,7 +14202,7 @@
         <v>0.11</v>
       </c>
       <c r="BC73">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD73">
         <v>0.3</v>
@@ -14204,7 +14229,7 @@
         <v>5.99</v>
       </c>
       <c r="BQ73">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="BR73">
         <v>0.8</v>
@@ -14234,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:78">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -14242,16 +14267,16 @@
         <v>49669</v>
       </c>
       <c r="C74" s="2">
-        <v>45628.51887731482</v>
+        <v>45628.518877314818</v>
       </c>
       <c r="D74" s="2">
-        <v>45594.26865740741</v>
+        <v>45594.268657407411</v>
       </c>
       <c r="E74" s="2">
-        <v>45594.24583333333</v>
+        <v>45594.245833333327</v>
       </c>
       <c r="F74" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G74" t="s">
         <v>78</v>
@@ -14359,7 +14384,7 @@
         <v>85</v>
       </c>
       <c r="AW74">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="AZ74">
         <v>0.3</v>
@@ -14395,7 +14420,7 @@
         <v>20</v>
       </c>
       <c r="BP74">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="BQ74">
         <v>3.57</v>
@@ -14428,7 +14453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:78">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -14436,16 +14461,16 @@
         <v>49670</v>
       </c>
       <c r="C75" s="2">
-        <v>45595.26706018519</v>
+        <v>45595.267060185193</v>
       </c>
       <c r="D75" s="2">
-        <v>45594.2705324074</v>
+        <v>45594.270532407398</v>
       </c>
       <c r="E75" s="2">
-        <v>45594.26409722222</v>
+        <v>45594.264097222222</v>
       </c>
       <c r="F75" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G75" t="s">
         <v>78</v>
@@ -14463,7 +14488,7 @@
         <v>0.15</v>
       </c>
       <c r="N75">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O75">
         <v>129</v>
@@ -14523,7 +14548,7 @@
         <v>19.7</v>
       </c>
       <c r="AI75">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AJ75">
         <v>29</v>
@@ -14595,13 +14620,13 @@
         <v>3</v>
       </c>
       <c r="BO75">
-        <v>20.42</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="BP75">
         <v>5.48</v>
       </c>
       <c r="BQ75">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="BR75">
         <v>0.83</v>
@@ -14631,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:78">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -14642,13 +14667,13 @@
         <v>45594.31863425926</v>
       </c>
       <c r="D76" s="2">
-        <v>45594.30061342593</v>
+        <v>45594.300613425927</v>
       </c>
       <c r="E76" s="2">
-        <v>45594.28878472222</v>
+        <v>45594.288784722223</v>
       </c>
       <c r="F76" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G76" t="s">
         <v>79</v>
@@ -14723,7 +14748,7 @@
         <v>15.6</v>
       </c>
       <c r="AI76">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="AJ76">
         <v>46</v>
@@ -14807,13 +14832,13 @@
         <v>0.71</v>
       </c>
       <c r="BS76">
-        <v>90.34999999999999</v>
+        <v>90.35</v>
       </c>
       <c r="BT76">
         <v>91.73</v>
       </c>
       <c r="BU76">
-        <v>83.84999999999999</v>
+        <v>83.85</v>
       </c>
       <c r="BV76">
         <v>118</v>
@@ -14831,7 +14856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:78">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -14839,16 +14864,16 @@
         <v>49672</v>
       </c>
       <c r="C77" s="2">
-        <v>45594.26733796296</v>
+        <v>45594.267337962963</v>
       </c>
       <c r="D77" s="2">
-        <v>45594.31686342593</v>
+        <v>45594.316863425927</v>
       </c>
       <c r="E77" s="2">
-        <v>45594.33471064815</v>
+        <v>45594.334710648152</v>
       </c>
       <c r="F77" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G77" t="s">
         <v>78</v>
@@ -14950,7 +14975,7 @@
         <v>84</v>
       </c>
       <c r="AW77">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="BA77">
         <v>0.5</v>
@@ -14986,7 +15011,7 @@
         <v>78.98</v>
       </c>
       <c r="BU77">
-        <v>74.70999999999999</v>
+        <v>74.709999999999994</v>
       </c>
       <c r="BW77">
         <v>26.5</v>
@@ -14998,7 +15023,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="78" spans="1:78">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -15006,16 +15031,16 @@
         <v>49673</v>
       </c>
       <c r="C78" s="2">
-        <v>45596.26987268519</v>
+        <v>45596.269872685189</v>
       </c>
       <c r="F78" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G78" t="s">
         <v>78</v>
       </c>
-      <c r="H78">
-        <v>10</v>
+      <c r="H78" s="3">
+        <v>20</v>
       </c>
       <c r="I78" t="s">
         <v>81</v>
@@ -15129,7 +15154,7 @@
         <v>0.2</v>
       </c>
       <c r="BE78">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF78">
         <v>5</v>
@@ -15153,7 +15178,7 @@
         <v>0.74</v>
       </c>
       <c r="BS78">
-        <v>93.76000000000001</v>
+        <v>93.76</v>
       </c>
       <c r="BT78">
         <v>115.09</v>
@@ -15177,7 +15202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:78">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -15188,13 +15213,13 @@
         <v>45594.289375</v>
       </c>
       <c r="D79" s="2">
-        <v>45594.34268518518</v>
+        <v>45594.342685185176</v>
       </c>
       <c r="E79" s="2">
-        <v>45594.32844907408</v>
+        <v>45594.328449074077</v>
       </c>
       <c r="F79" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G79" t="s">
         <v>79</v>
@@ -15311,7 +15336,7 @@
         <v>85</v>
       </c>
       <c r="AW79">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AZ79">
         <v>0.4</v>
@@ -15320,7 +15345,7 @@
         <v>0.5</v>
       </c>
       <c r="BB79">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC79">
         <v>0.9</v>
@@ -15380,7 +15405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:78">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -15388,16 +15413,16 @@
         <v>49675</v>
       </c>
       <c r="C80" s="2">
-        <v>45594.30024305556</v>
+        <v>45594.300243055557</v>
       </c>
       <c r="D80" s="2">
-        <v>45594.31326388889</v>
+        <v>45594.313263888893</v>
       </c>
       <c r="E80" s="2">
-        <v>45594.30170138889</v>
+        <v>45594.301701388889</v>
       </c>
       <c r="F80" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G80" t="s">
         <v>78</v>
@@ -15556,7 +15581,7 @@
         <v>3.95</v>
       </c>
       <c r="BR80">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="BS80">
         <v>88.56</v>
@@ -15583,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:78">
+    <row r="81" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -15591,16 +15616,16 @@
         <v>49676</v>
       </c>
       <c r="C81" s="2">
-        <v>45595.29243055556</v>
+        <v>45595.292430555557</v>
       </c>
       <c r="D81" s="2">
-        <v>45594.39412037037</v>
+        <v>45594.394120370373</v>
       </c>
       <c r="E81" s="2">
-        <v>45594.38445601852</v>
+        <v>45594.384456018517</v>
       </c>
       <c r="F81" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G81" t="s">
         <v>78</v>
@@ -15636,7 +15661,7 @@
         <v>302</v>
       </c>
       <c r="T81">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="V81">
         <v>1020</v>
@@ -15669,7 +15694,7 @@
         <v>186</v>
       </c>
       <c r="AF81">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="AG81">
         <v>5.7</v>
@@ -15678,7 +15703,7 @@
         <v>15</v>
       </c>
       <c r="AI81">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AJ81">
         <v>49</v>
@@ -15735,7 +15760,7 @@
         <v>0.6</v>
       </c>
       <c r="BE81">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BF81">
         <v>4</v>
@@ -15786,7 +15811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:78">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -15794,16 +15819,16 @@
         <v>49677</v>
       </c>
       <c r="C82" s="2">
-        <v>45594.31171296296</v>
+        <v>45594.311712962961</v>
       </c>
       <c r="D82" s="2">
-        <v>45594.28803240741</v>
+        <v>45594.288032407407</v>
       </c>
       <c r="E82" s="2">
-        <v>45594.26957175926</v>
+        <v>45594.269571759258</v>
       </c>
       <c r="F82" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G82" t="s">
         <v>79</v>
@@ -15836,7 +15861,7 @@
         <v>251</v>
       </c>
       <c r="T82">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="V82">
         <v>1025</v>
@@ -15878,7 +15903,7 @@
         <v>15</v>
       </c>
       <c r="AI82">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AJ82">
         <v>33</v>
@@ -15926,7 +15951,7 @@
         <v>0.5</v>
       </c>
       <c r="BB82">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BC82">
         <v>1.8</v>
@@ -15986,7 +16011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:78">
+    <row r="83" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -15994,16 +16019,16 @@
         <v>49678</v>
       </c>
       <c r="C83" s="2">
-        <v>45594.37671296296</v>
+        <v>45594.376712962963</v>
       </c>
       <c r="D83" s="2">
-        <v>45594.35431712963</v>
+        <v>45594.354317129633</v>
       </c>
       <c r="E83" s="2">
-        <v>45594.34366898148</v>
+        <v>45594.343668981477</v>
       </c>
       <c r="F83" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G83" t="s">
         <v>78</v>
@@ -16072,7 +16097,7 @@
         <v>1.19</v>
       </c>
       <c r="AG83">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH83">
         <v>11</v>
@@ -16117,7 +16142,7 @@
         <v>85</v>
       </c>
       <c r="AW83">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AZ83">
         <v>0.3</v>
@@ -16165,7 +16190,7 @@
         <v>112.65</v>
       </c>
       <c r="BT83">
-        <v>94.84999999999999</v>
+        <v>94.85</v>
       </c>
       <c r="BU83">
         <v>106.88</v>
@@ -16186,7 +16211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:78">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -16194,16 +16219,16 @@
         <v>49679</v>
       </c>
       <c r="C84" s="2">
-        <v>45594.34204861111</v>
+        <v>45594.342048611114</v>
       </c>
       <c r="D84" s="2">
-        <v>45594.32711805555</v>
+        <v>45594.327118055553</v>
       </c>
       <c r="E84" s="2">
-        <v>45594.31804398148</v>
+        <v>45594.318043981482</v>
       </c>
       <c r="F84" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G84" t="s">
         <v>79</v>
@@ -16326,7 +16351,7 @@
         <v>0.5</v>
       </c>
       <c r="BB84">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC84">
         <v>0.2</v>
@@ -16386,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:78">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -16394,16 +16419,16 @@
         <v>49680</v>
       </c>
       <c r="C85" s="2">
-        <v>45594.35688657407</v>
+        <v>45594.356886574067</v>
       </c>
       <c r="D85" s="2">
-        <v>45594.30075231481</v>
+        <v>45594.300752314812</v>
       </c>
       <c r="E85" s="2">
-        <v>45594.2844212963</v>
+        <v>45594.284421296303</v>
       </c>
       <c r="F85" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G85" t="s">
         <v>78</v>
@@ -16559,7 +16584,7 @@
         <v>5.57</v>
       </c>
       <c r="BQ85">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="BR85">
         <v>0.74</v>
@@ -16589,7 +16614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:78">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -16597,16 +16622,16 @@
         <v>49681</v>
       </c>
       <c r="C86" s="2">
-        <v>45594.33460648148</v>
+        <v>45594.334606481483</v>
       </c>
       <c r="D86" s="2">
-        <v>45594.32241898148</v>
+        <v>45594.322418981479</v>
       </c>
       <c r="E86" s="2">
-        <v>45594.31398148148</v>
+        <v>45594.313981481479</v>
       </c>
       <c r="F86" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G86" t="s">
         <v>78</v>
@@ -16711,7 +16736,7 @@
         <v>0.09</v>
       </c>
       <c r="AS86">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AT86" t="s">
         <v>84</v>
@@ -16774,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:78">
+    <row r="87" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -16782,16 +16807,16 @@
         <v>49682</v>
       </c>
       <c r="C87" s="2">
-        <v>45594.36643518518</v>
+        <v>45594.366435185177</v>
       </c>
       <c r="D87" s="2">
-        <v>45594.38283564815</v>
+        <v>45594.382835648154</v>
       </c>
       <c r="E87" s="2">
-        <v>45594.37177083334</v>
+        <v>45594.371770833342</v>
       </c>
       <c r="F87" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G87" t="s">
         <v>78</v>
@@ -16803,7 +16828,7 @@
         <v>81</v>
       </c>
       <c r="L87">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -16860,7 +16885,7 @@
         <v>170</v>
       </c>
       <c r="AF87">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AG87">
         <v>5.5</v>
@@ -16869,13 +16894,13 @@
         <v>14.8</v>
       </c>
       <c r="AI87">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="AJ87">
         <v>41</v>
       </c>
       <c r="AK87">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="AL87">
         <v>22</v>
@@ -16893,7 +16918,7 @@
         <v>0.3</v>
       </c>
       <c r="AR87">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AS87">
         <v>0.08</v>
@@ -16917,7 +16942,7 @@
         <v>0.5</v>
       </c>
       <c r="BB87">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC87">
         <v>3.4</v>
@@ -16977,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:78">
+    <row r="88" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -16985,16 +17010,16 @@
         <v>49683</v>
       </c>
       <c r="C88" s="2">
-        <v>45594.34836805556</v>
+        <v>45594.348368055558</v>
       </c>
       <c r="D88" s="2">
-        <v>45594.37101851852</v>
+        <v>45594.371018518519</v>
       </c>
       <c r="E88" s="2">
-        <v>45594.36283564815</v>
+        <v>45594.362835648149</v>
       </c>
       <c r="F88" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G88" t="s">
         <v>78</v>
@@ -17030,7 +17055,7 @@
         <v>209</v>
       </c>
       <c r="T88">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="V88">
         <v>1030</v>
@@ -17063,7 +17088,7 @@
         <v>95</v>
       </c>
       <c r="AF88">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="AG88">
         <v>4.7</v>
@@ -17072,7 +17097,7 @@
         <v>13.3</v>
       </c>
       <c r="AI88">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="AJ88">
         <v>37</v>
@@ -17147,7 +17172,7 @@
         <v>21.67</v>
       </c>
       <c r="BP88">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BQ88">
         <v>4.22</v>
@@ -17180,7 +17205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:78">
+    <row r="89" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17188,16 +17213,16 @@
         <v>49684</v>
       </c>
       <c r="C89" s="2">
-        <v>45594.40976851852</v>
+        <v>45594.409768518519</v>
       </c>
       <c r="D89" s="2">
-        <v>45594.3622337963</v>
+        <v>45594.362233796302</v>
       </c>
       <c r="E89" s="2">
-        <v>45594.35319444445</v>
+        <v>45594.353194444448</v>
       </c>
       <c r="F89" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G89" t="s">
         <v>78</v>
@@ -17209,7 +17234,7 @@
         <v>81</v>
       </c>
       <c r="L89">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -17266,13 +17291,13 @@
         <v>132</v>
       </c>
       <c r="AF89">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AG89">
         <v>5.9</v>
       </c>
       <c r="AH89">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AI89">
         <v>39.4</v>
@@ -17314,7 +17339,7 @@
         <v>84</v>
       </c>
       <c r="AW89">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AZ89">
         <v>0.6</v>
@@ -17353,19 +17378,19 @@
         <v>5.26</v>
       </c>
       <c r="BQ89">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="BR89">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BS89">
         <v>102.25</v>
       </c>
       <c r="BT89">
-        <v>89.15000000000001</v>
+        <v>89.15</v>
       </c>
       <c r="BU89">
-        <v>91.84999999999999</v>
+        <v>91.85</v>
       </c>
       <c r="BV89">
         <v>141</v>
@@ -17383,7 +17408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:78">
+    <row r="90" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17391,16 +17416,16 @@
         <v>49685</v>
       </c>
       <c r="C90" s="2">
-        <v>45594.39684027778</v>
+        <v>45594.396840277783</v>
       </c>
       <c r="D90" s="2">
-        <v>45594.33400462963</v>
+        <v>45594.334004629629</v>
       </c>
       <c r="E90" s="2">
-        <v>45594.3253587963</v>
+        <v>45594.325358796297</v>
       </c>
       <c r="F90" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G90" t="s">
         <v>78</v>
@@ -17475,7 +17500,7 @@
         <v>6.1</v>
       </c>
       <c r="AH90">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AI90">
         <v>53.3</v>
@@ -17505,7 +17530,7 @@
         <v>0.1</v>
       </c>
       <c r="AS90">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AT90" t="s">
         <v>85</v>
@@ -17586,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:78">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17594,16 +17619,16 @@
         <v>49686</v>
       </c>
       <c r="C91" s="2">
-        <v>45594.38446759259</v>
+        <v>45594.384467592587</v>
       </c>
       <c r="D91" s="2">
-        <v>45594.35203703704</v>
+        <v>45594.352037037039</v>
       </c>
       <c r="E91" s="2">
-        <v>45594.34366898148</v>
+        <v>45594.343668981477</v>
       </c>
       <c r="F91" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G91" t="s">
         <v>78</v>
@@ -17684,7 +17709,7 @@
         <v>37</v>
       </c>
       <c r="AK91">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="AL91">
         <v>11</v>
@@ -17756,7 +17781,7 @@
         <v>3.2</v>
       </c>
       <c r="BQ91">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BR91">
         <v>0.72</v>
@@ -17765,7 +17790,7 @@
         <v>95.72</v>
       </c>
       <c r="BT91">
-        <v>69.76000000000001</v>
+        <v>69.760000000000005</v>
       </c>
       <c r="BU91">
         <v>66.84</v>
@@ -17786,7 +17811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:78">
+    <row r="92" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17794,16 +17819,16 @@
         <v>49687</v>
       </c>
       <c r="C92" s="2">
-        <v>45595.27758101852</v>
+        <v>45595.277581018519</v>
       </c>
       <c r="D92" s="2">
-        <v>45594.37162037037</v>
+        <v>45594.371620370373</v>
       </c>
       <c r="E92" s="2">
-        <v>45594.35938657408</v>
+        <v>45594.359386574077</v>
       </c>
       <c r="F92" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G92" t="s">
         <v>78</v>
@@ -17944,7 +17969,7 @@
         <v>3</v>
       </c>
       <c r="BG92">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="BH92">
         <v>0.5</v>
@@ -17989,7 +18014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:78">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17997,16 +18022,16 @@
         <v>49688</v>
       </c>
       <c r="C93" s="2">
-        <v>45594.43606481481</v>
+        <v>45594.436064814807</v>
       </c>
       <c r="D93" s="2">
-        <v>45594.39513888889</v>
+        <v>45594.395138888889</v>
       </c>
       <c r="E93" s="2">
-        <v>45594.37927083333</v>
+        <v>45594.379270833328</v>
       </c>
       <c r="F93" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G93" t="s">
         <v>79</v>
@@ -18018,7 +18043,7 @@
         <v>81</v>
       </c>
       <c r="L93">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="M93">
         <v>1.5</v>
@@ -18192,7 +18217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:78">
+    <row r="94" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -18200,16 +18225,16 @@
         <v>49689</v>
       </c>
       <c r="C94" s="2">
-        <v>45594.44574074074</v>
+        <v>45594.445740740739</v>
       </c>
       <c r="D94" s="2">
-        <v>45594.41373842592</v>
+        <v>45594.413738425923</v>
       </c>
       <c r="E94" s="2">
-        <v>45594.4022800926</v>
+        <v>45594.402280092603</v>
       </c>
       <c r="F94" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G94" t="s">
         <v>78</v>
@@ -18281,7 +18306,7 @@
         <v>2.77</v>
       </c>
       <c r="AG94">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH94">
         <v>13.7</v>
@@ -18311,7 +18336,7 @@
         <v>0.2</v>
       </c>
       <c r="AR94">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS94">
         <v>10.92</v>
@@ -18362,13 +18387,13 @@
         <v>55.42</v>
       </c>
       <c r="BP94">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BQ94">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="BR94">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BS94">
         <v>106.67</v>
@@ -18395,7 +18420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:78">
+    <row r="95" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -18406,13 +18431,13 @@
         <v>45594.42287037037</v>
       </c>
       <c r="D95" s="2">
-        <v>45594.43611111111</v>
+        <v>45594.436111111107</v>
       </c>
       <c r="E95" s="2">
-        <v>45594.42461805556</v>
+        <v>45594.424618055556</v>
       </c>
       <c r="F95" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G95" t="s">
         <v>78</v>
@@ -18439,7 +18464,7 @@
         <v>50.8</v>
       </c>
       <c r="R95">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="S95">
         <v>245</v>
@@ -18484,7 +18509,7 @@
         <v>5.7</v>
       </c>
       <c r="AH95">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AI95">
         <v>28</v>
@@ -18514,7 +18539,7 @@
         <v>0.06</v>
       </c>
       <c r="AS95">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="AT95" t="s">
         <v>85</v>
@@ -18550,7 +18575,7 @@
         <v>4</v>
       </c>
       <c r="BG95">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH95">
         <v>0.2</v>
@@ -18574,7 +18599,7 @@
         <v>96.8</v>
       </c>
       <c r="BT95">
-        <v>128.77</v>
+        <v>128.77000000000001</v>
       </c>
       <c r="BU95">
         <v>124.84</v>
@@ -18595,7 +18620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:78">
+    <row r="96" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -18603,16 +18628,16 @@
         <v>49692</v>
       </c>
       <c r="C96" s="2">
-        <v>45594.45498842592</v>
+        <v>45594.454988425918</v>
       </c>
       <c r="D96" s="2">
         <v>45594.40152777778</v>
       </c>
       <c r="E96" s="2">
-        <v>45594.3949537037</v>
+        <v>45594.394953703697</v>
       </c>
       <c r="F96" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G96" t="s">
         <v>78</v>
@@ -18684,7 +18709,7 @@
         <v>6.1</v>
       </c>
       <c r="AH96">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AI96">
         <v>46.4</v>
@@ -18735,7 +18760,7 @@
         <v>2.9</v>
       </c>
       <c r="BB96">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC96">
         <v>0.2</v>
@@ -18759,13 +18784,13 @@
         <v>1</v>
       </c>
       <c r="BO96">
-        <v>19.17</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="BP96">
         <v>4.93</v>
       </c>
       <c r="BQ96">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="BR96">
         <v>0.83</v>
@@ -18777,7 +18802,7 @@
         <v>89.5</v>
       </c>
       <c r="BU96">
-        <v>92.45999999999999</v>
+        <v>92.46</v>
       </c>
       <c r="BV96">
         <v>129</v>
@@ -18795,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:78">
+    <row r="97" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -18803,16 +18828,16 @@
         <v>49693</v>
       </c>
       <c r="C97" s="2">
-        <v>45594.46375</v>
+        <v>45594.463750000003</v>
       </c>
       <c r="D97" s="2">
-        <v>45594.405</v>
+        <v>45594.404999999999</v>
       </c>
       <c r="E97" s="2">
-        <v>45594.3959837963</v>
+        <v>45594.395983796298</v>
       </c>
       <c r="F97" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G97" t="s">
         <v>78</v>
@@ -18887,7 +18912,7 @@
         <v>14.1</v>
       </c>
       <c r="AI97">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="AJ97">
         <v>29</v>
@@ -18914,7 +18939,7 @@
         <v>0.04</v>
       </c>
       <c r="AS97">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT97" t="s">
         <v>85</v>
@@ -18995,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:78">
+    <row r="98" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -19009,10 +19034,10 @@
         <v>45595.31658564815</v>
       </c>
       <c r="E98" s="2">
-        <v>45595.30787037037</v>
+        <v>45595.307870370372</v>
       </c>
       <c r="F98" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G98" t="s">
         <v>79</v>
@@ -19081,7 +19106,7 @@
         <v>72</v>
       </c>
       <c r="AF98">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AG98">
         <v>5.4</v>
@@ -19117,7 +19142,7 @@
         <v>0.17</v>
       </c>
       <c r="AS98">
-        <v>8.859999999999999</v>
+        <v>8.86</v>
       </c>
       <c r="AT98" t="s">
         <v>85</v>
@@ -19129,7 +19154,7 @@
         <v>85</v>
       </c>
       <c r="AW98">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AZ98">
         <v>0.4</v>
@@ -19198,7 +19223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:78">
+    <row r="99" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -19206,16 +19231,16 @@
         <v>49711</v>
       </c>
       <c r="C99" s="2">
-        <v>45595.2858912037</v>
+        <v>45595.285891203697</v>
       </c>
       <c r="D99" s="2">
-        <v>45595.30140046297</v>
+        <v>45595.301400462973</v>
       </c>
       <c r="E99" s="2">
         <v>45595.29074074074</v>
       </c>
       <c r="F99" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G99" t="s">
         <v>78</v>
@@ -19287,7 +19312,7 @@
         <v>6.4</v>
       </c>
       <c r="AH99">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AI99">
         <v>28</v>
@@ -19314,7 +19339,7 @@
         <v>0.3</v>
       </c>
       <c r="AR99">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS99">
         <v>0.06</v>
@@ -19368,19 +19393,19 @@
         <v>3.55</v>
       </c>
       <c r="BQ99">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="BR99">
         <v>0.71</v>
       </c>
       <c r="BS99">
-        <v>94.15000000000001</v>
+        <v>94.15</v>
       </c>
       <c r="BT99">
-        <v>79.65000000000001</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="BU99">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="BV99">
         <v>138</v>
@@ -19398,7 +19423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:78">
+    <row r="100" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -19406,16 +19431,16 @@
         <v>49712</v>
       </c>
       <c r="C100" s="2">
-        <v>45595.3253587963</v>
+        <v>45595.325358796297</v>
       </c>
       <c r="D100" s="2">
-        <v>45595.3062037037</v>
+        <v>45595.306203703702</v>
       </c>
       <c r="E100" s="2">
-        <v>45595.2946875</v>
+        <v>45595.294687499998</v>
       </c>
       <c r="F100" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G100" t="s">
         <v>78</v>
@@ -19574,10 +19599,10 @@
         <v>0.76</v>
       </c>
       <c r="BS100">
-        <v>99.79000000000001</v>
+        <v>99.79</v>
       </c>
       <c r="BT100">
-        <v>72.68000000000001</v>
+        <v>72.680000000000007</v>
       </c>
       <c r="BU100">
         <v>72.61</v>
@@ -19598,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:78">
+    <row r="101" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -19606,16 +19631,16 @@
         <v>49713</v>
       </c>
       <c r="C101" s="2">
-        <v>45628.59618055556</v>
+        <v>45628.596180555563</v>
       </c>
       <c r="D101" s="2">
-        <v>45595.26391203704</v>
+        <v>45595.263912037037</v>
       </c>
       <c r="E101" s="2">
-        <v>45595.25436342593</v>
+        <v>45595.254363425927</v>
       </c>
       <c r="F101" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G101" t="s">
         <v>78</v>
@@ -19711,7 +19736,7 @@
         <v>0.1</v>
       </c>
       <c r="AS101">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AT101" t="s">
         <v>84</v>
@@ -19783,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:78">
+    <row r="102" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -19791,16 +19816,16 @@
         <v>49714</v>
       </c>
       <c r="C102" s="2">
-        <v>45628.59284722222</v>
+        <v>45628.592847222222</v>
       </c>
       <c r="D102" s="2">
-        <v>45595.26585648148</v>
+        <v>45595.265856481477</v>
       </c>
       <c r="E102" s="2">
-        <v>45595.2556712963</v>
+        <v>45595.255671296298</v>
       </c>
       <c r="F102" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G102" t="s">
         <v>78</v>
@@ -19893,7 +19918,7 @@
         <v>0.3</v>
       </c>
       <c r="AR102">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS102">
         <v>10.3</v>
@@ -19920,7 +19945,7 @@
         <v>0.19</v>
       </c>
       <c r="BC102">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BD102">
         <v>1.4</v>
@@ -19932,7 +19957,7 @@
         <v>2</v>
       </c>
       <c r="BG102">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="BH102">
         <v>0.2</v>
@@ -19956,13 +19981,13 @@
         <v>79.53</v>
       </c>
       <c r="BU102">
-        <v>84.06999999999999</v>
+        <v>84.07</v>
       </c>
       <c r="BW102">
         <v>26.5</v>
       </c>
     </row>
-    <row r="103" spans="1:78">
+    <row r="103" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -19970,16 +19995,16 @@
         <v>49715</v>
       </c>
       <c r="C103" s="2">
-        <v>45595.33381944444</v>
+        <v>45595.333819444437</v>
       </c>
       <c r="D103" s="2">
-        <v>45595.2762962963</v>
+        <v>45595.276296296302</v>
       </c>
       <c r="E103" s="2">
-        <v>45595.26716435186</v>
+        <v>45595.267164351862</v>
       </c>
       <c r="F103" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G103" t="s">
         <v>78</v>
@@ -20048,7 +20073,7 @@
         <v>0.72</v>
       </c>
       <c r="AG103">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH103">
         <v>15.1</v>
@@ -20117,7 +20142,7 @@
         <v>1</v>
       </c>
       <c r="BG103">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BH103">
         <v>0.3</v>
@@ -20126,7 +20151,7 @@
         <v>1</v>
       </c>
       <c r="BO103">
-        <v>19.58</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="BP103">
         <v>6.74</v>
@@ -20162,7 +20187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:78">
+    <row r="104" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -20170,16 +20195,16 @@
         <v>49716</v>
       </c>
       <c r="C104" s="2">
-        <v>45595.31869212963</v>
+        <v>45595.318692129629</v>
       </c>
       <c r="D104" s="2">
-        <v>45595.29391203704</v>
+        <v>45595.293912037043</v>
       </c>
       <c r="E104" s="2">
-        <v>45595.285</v>
+        <v>45595.285000000003</v>
       </c>
       <c r="F104" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G104" t="s">
         <v>78</v>
@@ -20209,7 +20234,7 @@
         <v>197</v>
       </c>
       <c r="T104">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="V104">
         <v>1025</v>
@@ -20242,7 +20267,7 @@
         <v>66</v>
       </c>
       <c r="AF104">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AG104">
         <v>5.9</v>
@@ -20299,7 +20324,7 @@
         <v>0.5</v>
       </c>
       <c r="BB104">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC104">
         <v>0.5</v>
@@ -20329,7 +20354,7 @@
         <v>3.87</v>
       </c>
       <c r="BR104">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BS104">
         <v>115.79</v>
@@ -20356,7 +20381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:78">
+    <row r="105" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -20364,16 +20389,16 @@
         <v>49717</v>
       </c>
       <c r="C105" s="2">
-        <v>45629.53327546296</v>
+        <v>45629.533275462964</v>
       </c>
       <c r="D105" s="2">
-        <v>45595.28996527778</v>
+        <v>45595.289965277778</v>
       </c>
       <c r="E105" s="2">
-        <v>45595.2775462963</v>
+        <v>45595.277546296304</v>
       </c>
       <c r="F105" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G105" t="s">
         <v>78</v>
@@ -20442,7 +20467,7 @@
         <v>12.5</v>
       </c>
       <c r="AI105">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AJ105">
         <v>32</v>
@@ -20466,7 +20491,7 @@
         <v>0.3</v>
       </c>
       <c r="AR105">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AS105">
         <v>5.14</v>
@@ -20505,7 +20530,7 @@
         <v>5</v>
       </c>
       <c r="BG105">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="BH105">
         <v>0.7</v>
@@ -20529,7 +20554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:78">
+    <row r="106" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -20537,16 +20562,16 @@
         <v>49718</v>
       </c>
       <c r="C106" s="2">
-        <v>45628.59353009259</v>
+        <v>45628.593530092592</v>
       </c>
       <c r="D106" s="2">
-        <v>45595.33483796296</v>
+        <v>45595.334837962961</v>
       </c>
       <c r="E106" s="2">
         <v>45595.32440972222</v>
       </c>
       <c r="F106" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G106" t="s">
         <v>78</v>
@@ -20639,7 +20664,7 @@
         <v>0.3</v>
       </c>
       <c r="AR106">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS106">
         <v>0.84</v>
@@ -20654,7 +20679,7 @@
         <v>85</v>
       </c>
       <c r="AW106">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AZ106">
         <v>0.3</v>
@@ -20678,7 +20703,7 @@
         <v>2</v>
       </c>
       <c r="BG106">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BH106">
         <v>0.2</v>
@@ -20720,7 +20745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:78">
+    <row r="107" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -20728,16 +20753,16 @@
         <v>49719</v>
       </c>
       <c r="C107" s="2">
-        <v>45595.34277777778</v>
+        <v>45595.342777777783</v>
       </c>
       <c r="D107" s="2">
-        <v>45595.31105324074</v>
+        <v>45595.311053240737</v>
       </c>
       <c r="E107" s="2">
         <v>45595.30196759259</v>
       </c>
       <c r="F107" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G107" t="s">
         <v>78</v>
@@ -20812,7 +20837,7 @@
         <v>6.3</v>
       </c>
       <c r="AH107">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AI107">
         <v>227.7</v>
@@ -20917,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:78">
+    <row r="108" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -20925,16 +20950,16 @@
         <v>49720</v>
       </c>
       <c r="C108" s="2">
-        <v>45629.5325</v>
+        <v>45629.532500000001</v>
       </c>
       <c r="F108" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G108" t="s">
         <v>78</v>
       </c>
-      <c r="H108">
-        <v>10</v>
+      <c r="H108" s="3">
+        <v>20</v>
       </c>
       <c r="I108" t="s">
         <v>81</v>
@@ -21048,7 +21073,7 @@
         <v>3</v>
       </c>
       <c r="BG108">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BH108">
         <v>0.5</v>
@@ -21060,7 +21085,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="109" spans="1:78">
+    <row r="109" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -21068,16 +21093,16 @@
         <v>49721</v>
       </c>
       <c r="C109" s="2">
-        <v>45595.30993055556</v>
+        <v>45595.309930555559</v>
       </c>
       <c r="D109" s="2">
-        <v>45595.34770833333</v>
+        <v>45595.347708333327</v>
       </c>
       <c r="E109" s="2">
-        <v>45595.3394212963</v>
+        <v>45595.339421296303</v>
       </c>
       <c r="F109" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G109" t="s">
         <v>78</v>
@@ -21182,7 +21207,7 @@
         <v>0.12</v>
       </c>
       <c r="AS109">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AT109" t="s">
         <v>84</v>
@@ -21242,7 +21267,7 @@
         <v>106.62</v>
       </c>
       <c r="BT109">
-        <v>91.43000000000001</v>
+        <v>91.43</v>
       </c>
       <c r="BU109">
         <v>97.8</v>
@@ -21263,7 +21288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:78">
+    <row r="110" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -21271,16 +21296,16 @@
         <v>49722</v>
       </c>
       <c r="C110" s="2">
-        <v>45595.36203703703</v>
+        <v>45595.362037037034</v>
       </c>
       <c r="D110" s="2">
-        <v>45595.32922453704</v>
+        <v>45595.329224537039</v>
       </c>
       <c r="E110" s="2">
-        <v>45595.3190625</v>
+        <v>45595.319062499999</v>
       </c>
       <c r="F110" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G110" t="s">
         <v>78</v>
@@ -21358,7 +21383,7 @@
         <v>13.3</v>
       </c>
       <c r="AI110">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="AJ110">
         <v>57</v>
@@ -21466,7 +21491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:78">
+    <row r="111" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -21474,16 +21499,16 @@
         <v>49723</v>
       </c>
       <c r="C111" s="2">
-        <v>45595.36734953704</v>
+        <v>45595.367349537039</v>
       </c>
       <c r="D111" s="2">
-        <v>45595.35966435185</v>
+        <v>45595.359664351847</v>
       </c>
       <c r="E111" s="2">
-        <v>45595.35027777778</v>
+        <v>45595.350277777783</v>
       </c>
       <c r="F111" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G111" t="s">
         <v>78</v>
@@ -21552,7 +21577,7 @@
         <v>1.65</v>
       </c>
       <c r="AG111">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH111">
         <v>14.6</v>
@@ -21615,7 +21640,7 @@
         <v>0.3</v>
       </c>
       <c r="BE111">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF111">
         <v>6</v>
@@ -21642,7 +21667,7 @@
         <v>0.73</v>
       </c>
       <c r="BS111">
-        <v>90.51000000000001</v>
+        <v>90.51</v>
       </c>
       <c r="BT111">
         <v>130.22</v>
@@ -21666,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:78">
+    <row r="112" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -21674,16 +21699,16 @@
         <v>49724</v>
       </c>
       <c r="C112" s="2">
-        <v>45595.39701388889</v>
+        <v>45595.397013888891</v>
       </c>
       <c r="D112" s="2">
-        <v>45595.38520833333</v>
+        <v>45595.385208333333</v>
       </c>
       <c r="E112" s="2">
-        <v>45595.37778935185</v>
+        <v>45595.377789351849</v>
       </c>
       <c r="F112" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G112" t="s">
         <v>78</v>
@@ -21824,7 +21849,7 @@
         <v>2</v>
       </c>
       <c r="BG112">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="BH112">
         <v>0.1</v>
@@ -21833,7 +21858,7 @@
         <v>1</v>
       </c>
       <c r="BO112">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BP112">
         <v>3.88</v>
@@ -21869,7 +21894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:78">
+    <row r="113" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -21877,16 +21902,16 @@
         <v>49725</v>
       </c>
       <c r="C113" s="2">
-        <v>45595.43262731482</v>
+        <v>45595.432627314818</v>
       </c>
       <c r="D113" s="2">
-        <v>45595.40550925926</v>
+        <v>45595.405509259261</v>
       </c>
       <c r="E113" s="2">
-        <v>45595.39866898148</v>
+        <v>45595.398668981477</v>
       </c>
       <c r="F113" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G113" t="s">
         <v>79</v>
@@ -22072,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:78">
+    <row r="114" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -22080,16 +22105,16 @@
         <v>49726</v>
       </c>
       <c r="C114" s="2">
-        <v>45595.38967592592</v>
+        <v>45595.389675925922</v>
       </c>
       <c r="D114" s="2">
-        <v>45595.37383101852</v>
+        <v>45595.373831018522</v>
       </c>
       <c r="E114" s="2">
-        <v>45595.36069444445</v>
+        <v>45595.360694444447</v>
       </c>
       <c r="F114" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G114" t="s">
         <v>78</v>
@@ -22218,7 +22243,7 @@
         <v>0.08</v>
       </c>
       <c r="BC114">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BD114">
         <v>0.5</v>
@@ -22242,7 +22267,7 @@
         <v>25.83</v>
       </c>
       <c r="BP114">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="BQ114">
         <v>3.85</v>
@@ -22275,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:78">
+    <row r="115" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -22283,16 +22308,16 @@
         <v>49727</v>
       </c>
       <c r="C115" s="2">
-        <v>45595.37571759259</v>
+        <v>45595.375717592593</v>
       </c>
       <c r="F115" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G115" t="s">
         <v>78</v>
       </c>
-      <c r="H115">
-        <v>10</v>
+      <c r="H115" s="3">
+        <v>20</v>
       </c>
       <c r="I115" t="s">
         <v>81</v>
@@ -22358,7 +22383,7 @@
         <v>6.3</v>
       </c>
       <c r="AH115">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AI115">
         <v>30</v>
@@ -22391,7 +22416,7 @@
         <v>2.84</v>
       </c>
       <c r="AW115">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AZ115">
         <v>0.3</v>
@@ -22400,7 +22425,7 @@
         <v>0.5</v>
       </c>
       <c r="BB115">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC115">
         <v>0.2</v>
@@ -22457,7 +22482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:78">
+    <row r="116" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -22465,16 +22490,16 @@
         <v>49728</v>
       </c>
       <c r="C116" s="2">
-        <v>45595.38319444445</v>
+        <v>45595.383194444446</v>
       </c>
       <c r="D116" s="2">
-        <v>45595.37428240741</v>
+        <v>45595.374282407407</v>
       </c>
       <c r="E116" s="2">
-        <v>45595.3662962963</v>
+        <v>45595.366296296299</v>
       </c>
       <c r="F116" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G116" t="s">
         <v>78</v>
@@ -22492,7 +22517,7 @@
         <v>0.05</v>
       </c>
       <c r="N116">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="O116">
         <v>159</v>
@@ -22639,7 +22664,7 @@
         <v>97.44</v>
       </c>
       <c r="BT116">
-        <v>97.81999999999999</v>
+        <v>97.82</v>
       </c>
       <c r="BU116">
         <v>95.31</v>
@@ -22660,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:78">
+    <row r="117" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -22668,7 +22693,7 @@
         <v>49729</v>
       </c>
       <c r="C117" s="2">
-        <v>45595.37145833333</v>
+        <v>45595.371458333328</v>
       </c>
       <c r="D117" s="2">
         <v>45595.34883101852</v>
@@ -22677,7 +22702,7 @@
         <v>45595.34070601852</v>
       </c>
       <c r="F117" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G117" t="s">
         <v>78</v>
@@ -22776,7 +22801,7 @@
         <v>0.11</v>
       </c>
       <c r="AS117">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AT117" t="s">
         <v>84</v>
@@ -22797,7 +22822,7 @@
         <v>0.5</v>
       </c>
       <c r="BB117">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC117">
         <v>0.2</v>
@@ -22854,7 +22879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:78">
+    <row r="118" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -22862,16 +22887,16 @@
         <v>49730</v>
       </c>
       <c r="C118" s="2">
-        <v>45595.34833333334</v>
+        <v>45595.348333333342</v>
       </c>
       <c r="D118" s="2">
-        <v>45595.33043981482</v>
+        <v>45595.330439814818</v>
       </c>
       <c r="E118" s="2">
-        <v>45595.32997685186</v>
+        <v>45595.329976851863</v>
       </c>
       <c r="F118" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G118" t="s">
         <v>78</v>
@@ -22946,7 +22971,7 @@
         <v>6.4</v>
       </c>
       <c r="AH118">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AI118">
         <v>28.8</v>
@@ -23057,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:78">
+    <row r="119" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -23065,16 +23090,16 @@
         <v>49731</v>
       </c>
       <c r="C119" s="2">
-        <v>45628.59423611111</v>
+        <v>45628.594236111108</v>
       </c>
       <c r="D119" s="2">
         <v>45596.35564814815</v>
       </c>
       <c r="E119" s="2">
-        <v>45596.35127314815</v>
+        <v>45596.351273148153</v>
       </c>
       <c r="F119" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G119" t="s">
         <v>78</v>
@@ -23134,7 +23159,7 @@
         <v>2.96</v>
       </c>
       <c r="AG119">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AH119">
         <v>11.5</v>
@@ -23164,10 +23189,10 @@
         <v>0.3</v>
       </c>
       <c r="AR119">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS119">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="AT119" t="s">
         <v>85</v>
@@ -23203,7 +23228,7 @@
         <v>2</v>
       </c>
       <c r="BG119">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="BH119">
         <v>0.3</v>
@@ -23245,7 +23270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:78">
+    <row r="120" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -23253,16 +23278,16 @@
         <v>49732</v>
       </c>
       <c r="C120" s="2">
-        <v>45596.30708333333</v>
+        <v>45596.307083333333</v>
       </c>
       <c r="D120" s="2">
-        <v>45595.35591435185</v>
+        <v>45595.355914351851</v>
       </c>
       <c r="E120" s="2">
-        <v>45595.34863425926</v>
+        <v>45595.348634259259</v>
       </c>
       <c r="F120" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G120" t="s">
         <v>78</v>
@@ -23298,7 +23323,7 @@
         <v>248</v>
       </c>
       <c r="T120">
-        <v>8.609999999999999</v>
+        <v>8.61</v>
       </c>
       <c r="V120">
         <v>1015</v>
@@ -23448,7 +23473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:78">
+    <row r="121" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -23456,16 +23481,16 @@
         <v>49734</v>
       </c>
       <c r="C121" s="2">
-        <v>45595.40650462963</v>
+        <v>45595.406504629631</v>
       </c>
       <c r="D121" s="2">
-        <v>45595.39116898148</v>
+        <v>45595.391168981478</v>
       </c>
       <c r="E121" s="2">
-        <v>45595.37753472223</v>
+        <v>45595.377534722233</v>
       </c>
       <c r="F121" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G121" t="s">
         <v>78</v>
@@ -23501,7 +23526,7 @@
         <v>237</v>
       </c>
       <c r="T121">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="V121">
         <v>1025</v>
@@ -23543,7 +23568,7 @@
         <v>10.8</v>
       </c>
       <c r="AI121">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AJ121">
         <v>54</v>
@@ -23591,7 +23616,7 @@
         <v>0.5</v>
       </c>
       <c r="BB121">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC121">
         <v>4.5</v>
@@ -23630,10 +23655,10 @@
         <v>103.05</v>
       </c>
       <c r="BT121">
-        <v>91.48999999999999</v>
+        <v>91.49</v>
       </c>
       <c r="BU121">
-        <v>94.15000000000001</v>
+        <v>94.15</v>
       </c>
       <c r="BV121">
         <v>134</v>
@@ -23651,7 +23676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:78">
+    <row r="122" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -23659,16 +23684,16 @@
         <v>49738</v>
       </c>
       <c r="C122" s="2">
-        <v>45595.42501157407</v>
+        <v>45595.425011574072</v>
       </c>
       <c r="D122" s="2">
-        <v>45595.36554398148</v>
+        <v>45595.365543981483</v>
       </c>
       <c r="E122" s="2">
-        <v>45595.35653935185</v>
+        <v>45595.356539351851</v>
       </c>
       <c r="F122" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G122" t="s">
         <v>78</v>
@@ -23740,7 +23765,7 @@
         <v>5.3</v>
       </c>
       <c r="AH122">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AI122">
         <v>200.4</v>
@@ -23851,7 +23876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:78">
+    <row r="123" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -23859,16 +23884,16 @@
         <v>49739</v>
       </c>
       <c r="C123" s="2">
-        <v>45595.44275462963</v>
+        <v>45595.442754629628</v>
       </c>
       <c r="D123" s="2">
-        <v>45595.41200231481</v>
+        <v>45595.412002314813</v>
       </c>
       <c r="E123" s="2">
-        <v>45595.40157407407</v>
+        <v>45595.401574074072</v>
       </c>
       <c r="F123" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G123" t="s">
         <v>78</v>
@@ -23880,7 +23905,7 @@
         <v>81</v>
       </c>
       <c r="L123">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="M123">
         <v>1.25</v>
@@ -23895,7 +23920,7 @@
         <v>50.8</v>
       </c>
       <c r="R123">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="S123">
         <v>169</v>
@@ -24018,7 +24043,7 @@
         <v>46.25</v>
       </c>
       <c r="BP123">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="BQ123">
         <v>1.79</v>
@@ -24051,7 +24076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:78">
+    <row r="124" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -24059,16 +24084,16 @@
         <v>49740</v>
       </c>
       <c r="C124" s="2">
-        <v>45595.41664351852</v>
+        <v>45595.416643518518</v>
       </c>
       <c r="D124" s="2">
-        <v>45595.39693287037</v>
+        <v>45595.396932870368</v>
       </c>
       <c r="E124" s="2">
-        <v>45595.3863425926</v>
+        <v>45595.386342592603</v>
       </c>
       <c r="F124" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G124" t="s">
         <v>78</v>
@@ -24215,7 +24240,7 @@
         <v>0.5</v>
       </c>
       <c r="BO124">
-        <v>19.17</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="BP124">
         <v>5.33</v>
@@ -24227,7 +24252,7 @@
         <v>0.68</v>
       </c>
       <c r="BS124">
-        <v>89.70999999999999</v>
+        <v>89.71</v>
       </c>
       <c r="BT124">
         <v>100.19</v>
@@ -24251,7 +24276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:78">
+    <row r="125" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -24259,16 +24284,16 @@
         <v>49742</v>
       </c>
       <c r="C125" s="2">
-        <v>45628.59486111111</v>
+        <v>45628.594861111109</v>
       </c>
       <c r="D125" s="2">
-        <v>45595.40096064815</v>
+        <v>45595.400960648149</v>
       </c>
       <c r="E125" s="2">
-        <v>45595.39236111111</v>
+        <v>45595.392361111109</v>
       </c>
       <c r="F125" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G125" t="s">
         <v>78</v>
@@ -24415,7 +24440,7 @@
         <v>5.47</v>
       </c>
       <c r="BQ125">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="BR125">
         <v>0.92</v>
@@ -24445,7 +24470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:78">
+    <row r="126" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -24453,16 +24478,16 @@
         <v>49746</v>
       </c>
       <c r="C126" s="2">
-        <v>45595.46704861111</v>
+        <v>45595.467048611114</v>
       </c>
       <c r="D126" s="2">
-        <v>45595.4346875</v>
+        <v>45595.434687499997</v>
       </c>
       <c r="E126" s="2">
         <v>45595.41988425926</v>
       </c>
       <c r="F126" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G126" t="s">
         <v>79</v>
@@ -24624,10 +24649,10 @@
         <v>103.84</v>
       </c>
       <c r="BT126">
-        <v>77.45999999999999</v>
+        <v>77.459999999999994</v>
       </c>
       <c r="BU126">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="BV126">
         <v>180</v>
@@ -24645,7 +24670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:78">
+    <row r="127" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -24653,16 +24678,16 @@
         <v>49748</v>
       </c>
       <c r="C127" s="2">
-        <v>45595.48222222222</v>
+        <v>45595.482222222221</v>
       </c>
       <c r="D127" s="2">
-        <v>45595.45184027778</v>
+        <v>45595.451840277783</v>
       </c>
       <c r="E127" s="2">
-        <v>45595.44201388889</v>
+        <v>45595.442013888889</v>
       </c>
       <c r="F127" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G127" t="s">
         <v>79</v>
@@ -24689,7 +24714,7 @@
         <v>78</v>
       </c>
       <c r="Q127">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="R127">
         <v>11.5</v>
@@ -24797,7 +24822,7 @@
         <v>108.96</v>
       </c>
       <c r="BT127">
-        <v>91.23999999999999</v>
+        <v>91.24</v>
       </c>
       <c r="BU127">
         <v>100.93</v>
@@ -24818,7 +24843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:78">
+    <row r="128" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -24826,16 +24851,16 @@
         <v>49753</v>
       </c>
       <c r="C128" s="2">
-        <v>45595.45534722223</v>
+        <v>45595.455347222232</v>
       </c>
       <c r="D128" s="2">
-        <v>45595.44658564815</v>
+        <v>45595.446585648147</v>
       </c>
       <c r="E128" s="2">
-        <v>45595.43642361111</v>
+        <v>45595.436423611107</v>
       </c>
       <c r="F128" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G128" t="s">
         <v>78</v>
@@ -24934,10 +24959,10 @@
         <v>0.3</v>
       </c>
       <c r="AR128">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS128">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT128" t="s">
         <v>85</v>
@@ -24988,7 +25013,7 @@
         <v>5.72</v>
       </c>
       <c r="BQ128">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BR128">
         <v>0.72</v>
@@ -25018,7 +25043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:78">
+    <row r="129" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -25026,16 +25051,16 @@
         <v>49779</v>
       </c>
       <c r="C129" s="2">
-        <v>45596.32601851852</v>
+        <v>45596.326018518521</v>
       </c>
       <c r="D129" s="2">
-        <v>45596.26113425926</v>
+        <v>45596.261134259257</v>
       </c>
       <c r="E129" s="2">
-        <v>45596.25237268519</v>
+        <v>45596.252372685187</v>
       </c>
       <c r="F129" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G129" t="s">
         <v>78</v>
@@ -25104,7 +25129,7 @@
         <v>3.46</v>
       </c>
       <c r="AG129">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH129">
         <v>11.1</v>
@@ -25116,7 +25141,7 @@
         <v>55</v>
       </c>
       <c r="AK129">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AL129">
         <v>28</v>
@@ -25191,7 +25216,7 @@
         <v>3.85</v>
       </c>
       <c r="BR129">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BS129">
         <v>103.78</v>
@@ -25218,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:78">
+    <row r="130" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -25226,16 +25251,16 @@
         <v>49780</v>
       </c>
       <c r="C130" s="2">
-        <v>45596.28752314814</v>
+        <v>45596.287523148138</v>
       </c>
       <c r="D130" s="2">
-        <v>45596.29804398148</v>
+        <v>45596.298043981478</v>
       </c>
       <c r="E130" s="2">
-        <v>45596.28791666667</v>
+        <v>45596.287916666668</v>
       </c>
       <c r="F130" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G130" t="s">
         <v>78</v>
@@ -25313,7 +25338,7 @@
         <v>11.2</v>
       </c>
       <c r="AI130">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AJ130">
         <v>29</v>
@@ -25421,7 +25446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:78">
+    <row r="131" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -25429,16 +25454,16 @@
         <v>49781</v>
       </c>
       <c r="C131" s="2">
-        <v>45596.34208333334</v>
+        <v>45596.342083333337</v>
       </c>
       <c r="D131" s="2">
-        <v>45596.27738425926</v>
+        <v>45596.277384259258</v>
       </c>
       <c r="E131" s="2">
-        <v>45596.26248842593</v>
+        <v>45596.262488425928</v>
       </c>
       <c r="F131" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G131" t="s">
         <v>78</v>
@@ -25450,7 +25475,7 @@
         <v>81</v>
       </c>
       <c r="L131">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="M131">
         <v>1.25</v>
@@ -25555,7 +25580,7 @@
         <v>84</v>
       </c>
       <c r="AW131">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AZ131">
         <v>0.6</v>
@@ -25603,7 +25628,7 @@
         <v>99.17</v>
       </c>
       <c r="BT131">
-        <v>71.48999999999999</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="BU131">
         <v>71.73</v>
@@ -25624,7 +25649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:78">
+    <row r="132" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -25632,16 +25657,16 @@
         <v>49782</v>
       </c>
       <c r="C132" s="2">
-        <v>45596.29848379629</v>
+        <v>45596.298483796287</v>
       </c>
       <c r="D132" s="2">
         <v>45596.31391203704</v>
       </c>
       <c r="E132" s="2">
-        <v>45596.29922453704</v>
+        <v>45596.299224537041</v>
       </c>
       <c r="F132" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G132" t="s">
         <v>78</v>
@@ -25713,7 +25738,7 @@
         <v>2.85</v>
       </c>
       <c r="AG132">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AH132">
         <v>15.3</v>
@@ -25758,7 +25783,7 @@
         <v>84</v>
       </c>
       <c r="AW132">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AZ132">
         <v>0.4</v>
@@ -25782,7 +25807,7 @@
         <v>2</v>
       </c>
       <c r="BG132">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="BH132">
         <v>0.4</v>
@@ -25791,7 +25816,7 @@
         <v>32.5</v>
       </c>
       <c r="BP132">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="BQ132">
         <v>3.33</v>
@@ -25824,7 +25849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:78">
+    <row r="133" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -25832,16 +25857,16 @@
         <v>49783</v>
       </c>
       <c r="C133" s="2">
-        <v>45596.36479166667</v>
+        <v>45596.364791666667</v>
       </c>
       <c r="D133" s="2">
-        <v>45596.32796296296</v>
+        <v>45596.327962962961</v>
       </c>
       <c r="E133" s="2">
-        <v>45596.31475694444</v>
+        <v>45596.314756944441</v>
       </c>
       <c r="F133" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G133" t="s">
         <v>78</v>
@@ -26027,7 +26052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:78">
+    <row r="134" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -26035,16 +26060,16 @@
         <v>49784</v>
       </c>
       <c r="C134" s="2">
-        <v>45596.31655092593</v>
+        <v>45596.316550925927</v>
       </c>
       <c r="F134" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G134" t="s">
         <v>78</v>
       </c>
-      <c r="H134">
-        <v>10</v>
+      <c r="H134" s="3">
+        <v>20</v>
       </c>
       <c r="I134" t="s">
         <v>81</v>
@@ -26089,7 +26114,7 @@
         <v>1.66</v>
       </c>
       <c r="AG134">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH134">
         <v>14.8</v>
@@ -26131,7 +26156,7 @@
         <v>0.5</v>
       </c>
       <c r="BC134">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE134">
         <v>1.3</v>
@@ -26158,7 +26183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:78">
+    <row r="135" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -26166,16 +26191,16 @@
         <v>49785</v>
       </c>
       <c r="C135" s="2">
-        <v>45596.3555324074</v>
+        <v>45596.355532407397</v>
       </c>
       <c r="D135" s="2">
-        <v>45596.37974537037</v>
+        <v>45596.379745370366</v>
       </c>
       <c r="E135" s="2">
-        <v>45596.36717592592</v>
+        <v>45596.367175925923</v>
       </c>
       <c r="F135" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G135" t="s">
         <v>78</v>
@@ -26244,7 +26269,7 @@
         <v>55</v>
       </c>
       <c r="AF135">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AG135">
         <v>6.4</v>
@@ -26259,7 +26284,7 @@
         <v>34</v>
       </c>
       <c r="AK135">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AL135">
         <v>14</v>
@@ -26292,7 +26317,7 @@
         <v>84</v>
       </c>
       <c r="AW135">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AZ135">
         <v>0.3</v>
@@ -26301,7 +26326,7 @@
         <v>0.5</v>
       </c>
       <c r="BB135">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC135">
         <v>2</v>
@@ -26337,10 +26362,10 @@
         <v>0.79</v>
       </c>
       <c r="BS135">
-        <v>99.23999999999999</v>
+        <v>99.24</v>
       </c>
       <c r="BT135">
-        <v>94.65000000000001</v>
+        <v>94.65</v>
       </c>
       <c r="BU135">
         <v>94.11</v>
@@ -26361,7 +26386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:78">
+    <row r="136" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -26369,16 +26394,16 @@
         <v>49786</v>
       </c>
       <c r="C136" s="2">
-        <v>45596.3833912037</v>
+        <v>45596.383391203701</v>
       </c>
       <c r="D136" s="2">
-        <v>45596.40064814815</v>
+        <v>45596.400648148148</v>
       </c>
       <c r="E136" s="2">
-        <v>45596.39177083333</v>
+        <v>45596.391770833332</v>
       </c>
       <c r="F136" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G136" t="s">
         <v>78</v>
@@ -26456,7 +26481,7 @@
         <v>15</v>
       </c>
       <c r="AI136">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AJ136">
         <v>42</v>
@@ -26483,7 +26508,7 @@
         <v>0.1</v>
       </c>
       <c r="AS136">
-        <v>8.890000000000001</v>
+        <v>8.89</v>
       </c>
       <c r="AT136" t="s">
         <v>85</v>
@@ -26513,7 +26538,7 @@
         <v>0.3</v>
       </c>
       <c r="BE136">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BF136">
         <v>5</v>
@@ -26537,7 +26562,7 @@
         <v>0.7</v>
       </c>
       <c r="BS136">
-        <v>90.84999999999999</v>
+        <v>90.85</v>
       </c>
       <c r="BT136">
         <v>100.41</v>
@@ -26561,7 +26586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:78">
+    <row r="137" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -26569,16 +26594,16 @@
         <v>49787</v>
       </c>
       <c r="C137" s="2">
-        <v>45596.37474537037</v>
+        <v>45596.374745370369</v>
       </c>
       <c r="D137" s="2">
-        <v>45596.34082175926</v>
+        <v>45596.340821759259</v>
       </c>
       <c r="E137" s="2">
-        <v>45596.3290625</v>
+        <v>45596.329062500001</v>
       </c>
       <c r="F137" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G137" t="s">
         <v>79</v>
@@ -26650,7 +26675,7 @@
         <v>2.41</v>
       </c>
       <c r="AG137">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH137">
         <v>14.1</v>
@@ -26764,7 +26789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:78">
+    <row r="138" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -26772,16 +26797,16 @@
         <v>49788</v>
       </c>
       <c r="C138" s="2">
-        <v>45628.59707175926</v>
+        <v>45628.597071759257</v>
       </c>
       <c r="D138" s="2">
-        <v>45596.35017361111</v>
+        <v>45596.350173611107</v>
       </c>
       <c r="E138" s="2">
-        <v>45596.34178240741</v>
+        <v>45596.341782407413</v>
       </c>
       <c r="F138" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G138" t="s">
         <v>78</v>
@@ -26943,7 +26968,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="139" spans="1:78">
+    <row r="139" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -26951,16 +26976,16 @@
         <v>49789</v>
       </c>
       <c r="C139" s="2">
-        <v>45596.41702546296</v>
+        <v>45596.417025462957</v>
       </c>
       <c r="D139" s="2">
-        <v>45596.39072916667</v>
+        <v>45596.390729166669</v>
       </c>
       <c r="E139" s="2">
-        <v>45596.38123842593</v>
+        <v>45596.381238425929</v>
       </c>
       <c r="F139" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G139" t="s">
         <v>78</v>
@@ -27059,7 +27084,7 @@
         <v>0.4</v>
       </c>
       <c r="AR139">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AS139">
         <v>8.74</v>
@@ -27083,7 +27108,7 @@
         <v>0.5</v>
       </c>
       <c r="BB139">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BC139">
         <v>0.3</v>
@@ -27143,7 +27168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:78">
+    <row r="140" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -27151,16 +27176,16 @@
         <v>49790</v>
       </c>
       <c r="C140" s="2">
-        <v>45596.39892361111</v>
+        <v>45596.398923611108</v>
       </c>
       <c r="D140" s="2">
-        <v>45596.41150462963</v>
+        <v>45596.411504629628</v>
       </c>
       <c r="E140" s="2">
-        <v>45596.40261574074</v>
+        <v>45596.402615740742</v>
       </c>
       <c r="F140" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G140" t="s">
         <v>78</v>
@@ -27187,7 +27212,7 @@
         <v>266</v>
       </c>
       <c r="T140">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="V140">
         <v>1030</v>
@@ -27223,7 +27248,7 @@
         <v>2.11</v>
       </c>
       <c r="AG140">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH140">
         <v>12.8</v>
@@ -27256,7 +27281,7 @@
         <v>0.04</v>
       </c>
       <c r="AS140">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT140" t="s">
         <v>85</v>
@@ -27277,7 +27302,7 @@
         <v>0.5</v>
       </c>
       <c r="BB140">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC140">
         <v>1.3</v>
@@ -27292,7 +27317,7 @@
         <v>3</v>
       </c>
       <c r="BG140">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BH140">
         <v>0.2</v>
@@ -27307,16 +27332,16 @@
         <v>2.89</v>
       </c>
       <c r="BQ140">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BR140">
         <v>0.76</v>
       </c>
       <c r="BS140">
-        <v>94.34999999999999</v>
+        <v>94.35</v>
       </c>
       <c r="BT140">
-        <v>77.54000000000001</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="BU140">
         <v>74.27</v>
@@ -27337,7 +27362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:78">
+    <row r="141" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -27345,7 +27370,7 @@
         <v>49792</v>
       </c>
       <c r="C141" s="2">
-        <v>45596.4084375</v>
+        <v>45596.408437500002</v>
       </c>
       <c r="D141" s="2">
         <v>45596.42895833333</v>
@@ -27354,7 +27379,7 @@
         <v>45596.41978009259</v>
       </c>
       <c r="F141" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G141" t="s">
         <v>78</v>
@@ -27420,7 +27445,7 @@
         <v>62</v>
       </c>
       <c r="AF141">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AG141">
         <v>6.1</v>
@@ -27492,7 +27517,7 @@
         <v>4</v>
       </c>
       <c r="BG141">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="BH141">
         <v>0.6</v>
@@ -27504,7 +27529,7 @@
         <v>29.17</v>
       </c>
       <c r="BP141">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BQ141">
         <v>3.72</v>
@@ -27519,7 +27544,7 @@
         <v>80.73</v>
       </c>
       <c r="BU141">
-        <v>88.56999999999999</v>
+        <v>88.57</v>
       </c>
       <c r="BV141">
         <v>114</v>
@@ -27537,7 +27562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:78">
+    <row r="142" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -27545,16 +27570,16 @@
         <v>49793</v>
       </c>
       <c r="C142" s="2">
-        <v>45628.5984375</v>
+        <v>45628.598437499997</v>
       </c>
       <c r="D142" s="2">
-        <v>45596.41888888889</v>
+        <v>45596.418888888889</v>
       </c>
       <c r="E142" s="2">
         <v>45596.41337962963</v>
       </c>
       <c r="F142" s="2">
-        <v>45639.59922453704</v>
+        <v>45639.599224537043</v>
       </c>
       <c r="G142" t="s">
         <v>78</v>
@@ -27707,7 +27732,7 @@
         <v>74.87</v>
       </c>
       <c r="BU142">
-        <v>81.29000000000001</v>
+        <v>81.290000000000006</v>
       </c>
       <c r="BV142">
         <v>117</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF63BE-B90D-4213-815D-CF761543A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C075D0B-32BE-4569-80FC-C740C4AAD9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15037,10 +15037,10 @@
         <v>45639.599224537043</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H78" s="3">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I78" t="s">
         <v>81</v>
@@ -20959,7 +20959,7 @@
         <v>78</v>
       </c>
       <c r="H108" s="3">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I108" t="s">
         <v>81</v>
@@ -22317,7 +22317,7 @@
         <v>78</v>
       </c>
       <c r="H115" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I115" t="s">
         <v>81</v>
@@ -26069,7 +26069,7 @@
         <v>78</v>
       </c>
       <c r="H134" s="3">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I134" t="s">
         <v>81</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C075D0B-32BE-4569-80FC-C740C4AAD9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A5FB13-FA93-45E2-BA95-91AF9C2C32CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -658,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" topLeftCell="AB55" workbookViewId="0">
+      <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14174,6 +14187,9 @@
       <c r="AP73">
         <v>0.5</v>
       </c>
+      <c r="AQ73">
+        <v>166.9</v>
+      </c>
       <c r="AR73">
         <v>0.14000000000000001</v>
       </c>
@@ -14368,6 +14384,9 @@
       <c r="AP74">
         <v>0.4</v>
       </c>
+      <c r="AQ74">
+        <v>1.9</v>
+      </c>
       <c r="AR74">
         <v>0.11</v>
       </c>
@@ -14571,6 +14590,9 @@
       <c r="AP75">
         <v>0.4</v>
       </c>
+      <c r="AQ75">
+        <v>52.1</v>
+      </c>
       <c r="AR75">
         <v>0.15</v>
       </c>
@@ -14771,6 +14793,9 @@
       <c r="AP76">
         <v>0.3</v>
       </c>
+      <c r="AQ76">
+        <v>21.3</v>
+      </c>
       <c r="AR76">
         <v>0.09</v>
       </c>
@@ -14959,6 +14984,9 @@
       <c r="AP77">
         <v>0.4</v>
       </c>
+      <c r="AQ77">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="AR77">
         <v>0.1</v>
       </c>
@@ -15129,6 +15157,9 @@
       <c r="AP78">
         <v>0.6</v>
       </c>
+      <c r="AQ78">
+        <v>100.2</v>
+      </c>
       <c r="AR78">
         <v>0.16</v>
       </c>
@@ -15320,6 +15351,9 @@
       <c r="AP79">
         <v>0.4</v>
       </c>
+      <c r="AQ79">
+        <v>1000</v>
+      </c>
       <c r="AR79">
         <v>5.77</v>
       </c>
@@ -15523,6 +15557,9 @@
       <c r="AP80">
         <v>0.3</v>
       </c>
+      <c r="AQ80">
+        <v>335.3</v>
+      </c>
       <c r="AR80">
         <v>0.12</v>
       </c>
@@ -15726,6 +15763,9 @@
       <c r="AP81">
         <v>0.4</v>
       </c>
+      <c r="AQ81">
+        <v>0.4</v>
+      </c>
       <c r="AR81">
         <v>0.12</v>
       </c>
@@ -15926,6 +15966,9 @@
       <c r="AP82">
         <v>0.4</v>
       </c>
+      <c r="AQ82">
+        <v>0.1</v>
+      </c>
       <c r="AR82">
         <v>0.12</v>
       </c>
@@ -16126,6 +16169,9 @@
       <c r="AP83">
         <v>0.4</v>
       </c>
+      <c r="AQ83">
+        <v>41.7</v>
+      </c>
       <c r="AR83">
         <v>0.13</v>
       </c>
@@ -16326,6 +16372,9 @@
       <c r="AP84">
         <v>0.3</v>
       </c>
+      <c r="AQ84">
+        <v>1000</v>
+      </c>
       <c r="AR84">
         <v>0.12</v>
       </c>
@@ -16529,6 +16578,9 @@
       <c r="AP85">
         <v>0.3</v>
       </c>
+      <c r="AQ85">
+        <v>11.7</v>
+      </c>
       <c r="AR85">
         <v>0.11</v>
       </c>
@@ -16731,6 +16783,9 @@
       </c>
       <c r="AP86">
         <v>0.4</v>
+      </c>
+      <c r="AQ86">
+        <v>11.5</v>
       </c>
       <c r="AR86">
         <v>0.09</v>
@@ -16917,6 +16972,9 @@
       <c r="AP87">
         <v>0.3</v>
       </c>
+      <c r="AQ87">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AR87">
         <v>0.14000000000000001</v>
       </c>
@@ -17120,6 +17178,9 @@
       <c r="AP88">
         <v>0.3</v>
       </c>
+      <c r="AQ88">
+        <v>52</v>
+      </c>
       <c r="AR88">
         <v>0.17</v>
       </c>
@@ -17323,6 +17384,9 @@
       <c r="AP89">
         <v>0.4</v>
       </c>
+      <c r="AQ89">
+        <v>54</v>
+      </c>
       <c r="AR89">
         <v>0.1</v>
       </c>
@@ -17526,6 +17590,9 @@
       <c r="AP90">
         <v>0.3</v>
       </c>
+      <c r="AQ90">
+        <v>56.5</v>
+      </c>
       <c r="AR90">
         <v>0.1</v>
       </c>
@@ -17726,6 +17793,9 @@
       <c r="AP91">
         <v>0.5</v>
       </c>
+      <c r="AQ91">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="AR91">
         <v>0.11</v>
       </c>
@@ -17929,6 +17999,9 @@
       <c r="AP92">
         <v>0.4</v>
       </c>
+      <c r="AQ92">
+        <v>52.5</v>
+      </c>
       <c r="AR92">
         <v>0.09</v>
       </c>
@@ -18132,6 +18205,9 @@
       <c r="AP93">
         <v>0.5</v>
       </c>
+      <c r="AQ93">
+        <v>0.1</v>
+      </c>
       <c r="AR93">
         <v>0.1</v>
       </c>
@@ -18335,6 +18411,9 @@
       <c r="AP94">
         <v>0.2</v>
       </c>
+      <c r="AQ94">
+        <v>2.5</v>
+      </c>
       <c r="AR94">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -18535,6 +18614,9 @@
       <c r="AP95">
         <v>0.3</v>
       </c>
+      <c r="AQ95">
+        <v>0.6</v>
+      </c>
       <c r="AR95">
         <v>0.06</v>
       </c>
@@ -18735,6 +18817,9 @@
       <c r="AP96">
         <v>0.4</v>
       </c>
+      <c r="AQ96">
+        <v>89.4</v>
+      </c>
       <c r="AR96">
         <v>0.11</v>
       </c>
@@ -18935,6 +19020,9 @@
       <c r="AP97">
         <v>0.3</v>
       </c>
+      <c r="AQ97">
+        <v>321</v>
+      </c>
       <c r="AR97">
         <v>0.04</v>
       </c>
@@ -19138,6 +19226,9 @@
       <c r="AP98">
         <v>0.4</v>
       </c>
+      <c r="AQ98">
+        <v>67.400000000000006</v>
+      </c>
       <c r="AR98">
         <v>0.17</v>
       </c>
@@ -19338,6 +19429,9 @@
       <c r="AP99">
         <v>0.3</v>
       </c>
+      <c r="AQ99">
+        <v>0.3</v>
+      </c>
       <c r="AR99">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -19538,6 +19632,9 @@
       <c r="AP100">
         <v>0.5</v>
       </c>
+      <c r="AQ100">
+        <v>101.4</v>
+      </c>
       <c r="AR100">
         <v>2.77</v>
       </c>
@@ -19732,6 +19829,9 @@
       <c r="AP101">
         <v>0.4</v>
       </c>
+      <c r="AQ101">
+        <v>2.9</v>
+      </c>
       <c r="AR101">
         <v>0.1</v>
       </c>
@@ -19917,6 +20017,9 @@
       <c r="AP102">
         <v>0.3</v>
       </c>
+      <c r="AQ102">
+        <v>0.5</v>
+      </c>
       <c r="AR102">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -20102,6 +20205,9 @@
       <c r="AP103">
         <v>0.5</v>
       </c>
+      <c r="AQ103">
+        <v>14.3</v>
+      </c>
       <c r="AR103">
         <v>0.1</v>
       </c>
@@ -20299,6 +20405,9 @@
       <c r="AP104">
         <v>0.3</v>
       </c>
+      <c r="AQ104">
+        <v>9.4</v>
+      </c>
       <c r="AR104">
         <v>0.09</v>
       </c>
@@ -20490,6 +20599,9 @@
       <c r="AP105">
         <v>0.3</v>
       </c>
+      <c r="AQ105">
+        <v>1000</v>
+      </c>
       <c r="AR105">
         <v>0.14000000000000001</v>
       </c>
@@ -20663,6 +20775,9 @@
       <c r="AP106">
         <v>0.3</v>
       </c>
+      <c r="AQ106">
+        <v>0.6</v>
+      </c>
       <c r="AR106">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -20863,6 +20978,9 @@
       <c r="AP107">
         <v>0.3</v>
       </c>
+      <c r="AQ107">
+        <v>7.4</v>
+      </c>
       <c r="AR107">
         <v>0.11</v>
       </c>
@@ -21042,6 +21160,9 @@
       <c r="AP108">
         <v>0.3</v>
       </c>
+      <c r="AQ108">
+        <v>94.8</v>
+      </c>
       <c r="AR108">
         <v>0.09</v>
       </c>
@@ -21203,6 +21324,9 @@
       <c r="AP109">
         <v>0.4</v>
       </c>
+      <c r="AQ109">
+        <v>14.9</v>
+      </c>
       <c r="AR109">
         <v>0.12</v>
       </c>
@@ -21406,6 +21530,9 @@
       <c r="AP110">
         <v>0.3</v>
       </c>
+      <c r="AQ110">
+        <v>29.4</v>
+      </c>
       <c r="AR110">
         <v>0.05</v>
       </c>
@@ -21606,6 +21733,9 @@
       <c r="AP111">
         <v>0.5</v>
       </c>
+      <c r="AQ111">
+        <v>264.2</v>
+      </c>
       <c r="AR111">
         <v>0.08</v>
       </c>
@@ -21809,6 +21939,9 @@
       <c r="AP112">
         <v>0.3</v>
       </c>
+      <c r="AQ112">
+        <v>996.1</v>
+      </c>
       <c r="AR112">
         <v>0.2</v>
       </c>
@@ -22012,6 +22145,9 @@
       <c r="AP113">
         <v>0.3</v>
       </c>
+      <c r="AQ113">
+        <v>0.9</v>
+      </c>
       <c r="AR113">
         <v>0.09</v>
       </c>
@@ -22215,6 +22351,9 @@
       <c r="AP114">
         <v>0.3</v>
       </c>
+      <c r="AQ114">
+        <v>5</v>
+      </c>
       <c r="AR114">
         <v>0.12</v>
       </c>
@@ -22409,6 +22548,9 @@
       <c r="AP115">
         <v>0.3</v>
       </c>
+      <c r="AQ115">
+        <v>25.5</v>
+      </c>
       <c r="AR115">
         <v>0.12</v>
       </c>
@@ -22600,6 +22742,9 @@
       <c r="AP116">
         <v>0.3</v>
       </c>
+      <c r="AQ116">
+        <v>87.6</v>
+      </c>
       <c r="AR116">
         <v>0.08</v>
       </c>
@@ -22797,6 +22942,9 @@
       <c r="AP117">
         <v>0.3</v>
       </c>
+      <c r="AQ117">
+        <v>2.4</v>
+      </c>
       <c r="AR117">
         <v>0.11</v>
       </c>
@@ -22997,6 +23145,9 @@
       <c r="AP118">
         <v>0.3</v>
       </c>
+      <c r="AQ118">
+        <v>5.7</v>
+      </c>
       <c r="AR118">
         <v>0.09</v>
       </c>
@@ -23188,6 +23339,9 @@
       <c r="AP119">
         <v>0.3</v>
       </c>
+      <c r="AQ119">
+        <v>0.4</v>
+      </c>
       <c r="AR119">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -23388,6 +23542,9 @@
       <c r="AP120">
         <v>0.3</v>
       </c>
+      <c r="AQ120">
+        <v>1000</v>
+      </c>
       <c r="AR120">
         <v>0.09</v>
       </c>
@@ -23591,6 +23748,9 @@
       <c r="AP121">
         <v>0.3</v>
       </c>
+      <c r="AQ121">
+        <v>13.1</v>
+      </c>
       <c r="AR121">
         <v>0.85</v>
       </c>
@@ -23791,6 +23951,9 @@
       <c r="AP122">
         <v>0.3</v>
       </c>
+      <c r="AQ122">
+        <v>15.3</v>
+      </c>
       <c r="AR122">
         <v>0.12</v>
       </c>
@@ -23991,6 +24154,9 @@
       <c r="AP123">
         <v>0.4</v>
       </c>
+      <c r="AQ123">
+        <v>1000</v>
+      </c>
       <c r="AR123">
         <v>3.86</v>
       </c>
@@ -24194,6 +24360,9 @@
       <c r="AP124">
         <v>0.4</v>
       </c>
+      <c r="AQ124">
+        <v>4.5</v>
+      </c>
       <c r="AR124">
         <v>0.09</v>
       </c>
@@ -24385,6 +24554,9 @@
       <c r="AP125">
         <v>0.3</v>
       </c>
+      <c r="AQ125">
+        <v>0.7</v>
+      </c>
       <c r="AR125">
         <v>0.1</v>
       </c>
@@ -24585,6 +24757,9 @@
       <c r="AP126">
         <v>0.3</v>
       </c>
+      <c r="AQ126">
+        <v>0.1</v>
+      </c>
       <c r="AR126">
         <v>0.13</v>
       </c>
@@ -24773,6 +24948,9 @@
       <c r="AP127">
         <v>0.3</v>
       </c>
+      <c r="AQ127">
+        <v>24.3</v>
+      </c>
       <c r="AR127">
         <v>0.17</v>
       </c>
@@ -24958,6 +25136,9 @@
       <c r="AP128">
         <v>0.3</v>
       </c>
+      <c r="AQ128">
+        <v>775.8</v>
+      </c>
       <c r="AR128">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -25158,6 +25339,9 @@
       <c r="AP129">
         <v>0.4</v>
       </c>
+      <c r="AQ129">
+        <v>0.4</v>
+      </c>
       <c r="AR129">
         <v>0.18</v>
       </c>
@@ -25361,6 +25545,9 @@
       <c r="AP130">
         <v>0.3</v>
       </c>
+      <c r="AQ130">
+        <v>0.1</v>
+      </c>
       <c r="AR130">
         <v>0.08</v>
       </c>
@@ -25564,6 +25751,9 @@
       <c r="AP131">
         <v>0.2</v>
       </c>
+      <c r="AQ131">
+        <v>23.4</v>
+      </c>
       <c r="AR131">
         <v>0.11</v>
       </c>
@@ -25767,6 +25957,9 @@
       <c r="AP132">
         <v>0.5</v>
       </c>
+      <c r="AQ132">
+        <v>33.4</v>
+      </c>
       <c r="AR132">
         <v>0.19</v>
       </c>
@@ -25967,6 +26160,9 @@
       <c r="AP133">
         <v>0.3</v>
       </c>
+      <c r="AQ133">
+        <v>91.7</v>
+      </c>
       <c r="AR133">
         <v>0.08</v>
       </c>
@@ -26143,6 +26339,9 @@
       <c r="AP134">
         <v>0.3</v>
       </c>
+      <c r="AQ134">
+        <v>118.9</v>
+      </c>
       <c r="AR134">
         <v>0.12</v>
       </c>
@@ -26301,6 +26500,9 @@
       <c r="AP135">
         <v>0.4</v>
       </c>
+      <c r="AQ135">
+        <v>1000</v>
+      </c>
       <c r="AR135">
         <v>0.17</v>
       </c>
@@ -26504,6 +26706,9 @@
       <c r="AP136">
         <v>0.3</v>
       </c>
+      <c r="AQ136">
+        <v>0.6</v>
+      </c>
       <c r="AR136">
         <v>0.1</v>
       </c>
@@ -26704,6 +26909,9 @@
       <c r="AP137">
         <v>0.3</v>
       </c>
+      <c r="AQ137">
+        <v>0.3</v>
+      </c>
       <c r="AR137">
         <v>0.12</v>
       </c>
@@ -26895,6 +27103,9 @@
       <c r="AP138">
         <v>0.3</v>
       </c>
+      <c r="AQ138">
+        <v>1</v>
+      </c>
       <c r="AR138">
         <v>0.08</v>
       </c>
@@ -27083,6 +27294,9 @@
       <c r="AP139">
         <v>0.4</v>
       </c>
+      <c r="AQ139">
+        <v>152.4</v>
+      </c>
       <c r="AR139">
         <v>0.14000000000000001</v>
       </c>
@@ -27277,6 +27491,9 @@
       <c r="AP140">
         <v>0.4</v>
       </c>
+      <c r="AQ140">
+        <v>0.1</v>
+      </c>
       <c r="AR140">
         <v>0.04</v>
       </c>
@@ -27477,6 +27694,9 @@
       <c r="AP141">
         <v>0.4</v>
       </c>
+      <c r="AQ141">
+        <v>0.1</v>
+      </c>
       <c r="AR141">
         <v>0.08</v>
       </c>
@@ -27667,6 +27887,9 @@
       </c>
       <c r="AP142">
         <v>0.4</v>
+      </c>
+      <c r="AQ142">
+        <v>105.9</v>
       </c>
       <c r="AR142">
         <v>0.09</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A5FB13-FA93-45E2-BA95-91AF9C2C32CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D6903E-2CE3-4C43-B3EF-7FD1386E9400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="86">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CA142"/>
+  <dimension ref="A1:CA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB55" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25429,19 +25429,19 @@
     </row>
     <row r="130" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>49780</v>
+        <v>49781</v>
       </c>
       <c r="C130" s="2">
-        <v>45596.287523148138</v>
+        <v>45596.342083333337</v>
       </c>
       <c r="D130" s="2">
-        <v>45596.298043981478</v>
+        <v>45596.277384259258</v>
       </c>
       <c r="E130" s="2">
-        <v>45596.287916666668</v>
+        <v>45596.262488425928</v>
       </c>
       <c r="F130" s="2">
         <v>45639.599224537043</v>
@@ -25450,40 +25450,40 @@
         <v>78</v>
       </c>
       <c r="H130">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I130" t="s">
         <v>81</v>
       </c>
       <c r="L130">
-        <v>27.1</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="M130">
-        <v>0.15</v>
+        <v>1.25</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>40</v>
       </c>
       <c r="O130">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="P130">
         <v>90</v>
       </c>
       <c r="Q130">
-        <v>42.1</v>
+        <v>47.2</v>
       </c>
       <c r="R130">
-        <v>13</v>
+        <v>14.2</v>
       </c>
       <c r="S130">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="T130">
-        <v>7.71</v>
+        <v>7.83</v>
       </c>
       <c r="V130">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="W130" t="s">
         <v>82</v>
@@ -25495,159 +25495,159 @@
         <v>1</v>
       </c>
       <c r="Z130">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA130">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="AB130">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AC130">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AD130">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AE130">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="AF130">
-        <v>0.93</v>
+        <v>1.51</v>
       </c>
       <c r="AG130">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AH130">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="AI130">
-        <v>34.200000000000003</v>
+        <v>113.3</v>
       </c>
       <c r="AJ130">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AK130">
-        <v>1.02</v>
+        <v>0.64</v>
       </c>
       <c r="AL130">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AM130">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AN130">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO130">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP130">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AQ130">
-        <v>0.1</v>
+        <v>23.4</v>
       </c>
       <c r="AR130">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AS130">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AT130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AU130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AV130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AW130">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AZ130">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BA130">
         <v>0.5</v>
       </c>
       <c r="BB130">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="BC130">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BD130">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="BE130">
+        <v>0.6</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>2.02</v>
+      </c>
+      <c r="BH130">
         <v>0.3</v>
       </c>
-      <c r="BF130">
-        <v>1</v>
-      </c>
-      <c r="BG130">
-        <v>0.6</v>
-      </c>
-      <c r="BH130">
-        <v>0.2</v>
-      </c>
       <c r="BI130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO130">
-        <v>42.92</v>
+        <v>23.33</v>
       </c>
       <c r="BP130">
-        <v>4.38</v>
+        <v>2.44</v>
       </c>
       <c r="BQ130">
-        <v>3.71</v>
+        <v>1.89</v>
       </c>
       <c r="BR130">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="BS130">
-        <v>108.09</v>
+        <v>99.17</v>
       </c>
       <c r="BT130">
-        <v>86.87</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="BU130">
-        <v>94.05</v>
+        <v>71.73</v>
       </c>
       <c r="BV130">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="BW130">
         <v>26.5</v>
       </c>
       <c r="BX130">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="BY130">
-        <v>96.5</v>
+        <v>155.5</v>
       </c>
       <c r="BZ130">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>49781</v>
+        <v>49782</v>
       </c>
       <c r="C131" s="2">
-        <v>45596.342083333337</v>
+        <v>45596.298483796287</v>
       </c>
       <c r="D131" s="2">
-        <v>45596.277384259258</v>
+        <v>45596.31391203704</v>
       </c>
       <c r="E131" s="2">
-        <v>45596.262488425928</v>
+        <v>45596.299224537041</v>
       </c>
       <c r="F131" s="2">
         <v>45639.599224537043</v>
@@ -25656,40 +25656,40 @@
         <v>78</v>
       </c>
       <c r="H131">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I131" t="s">
         <v>81</v>
       </c>
       <c r="L131">
-        <v>38.700000000000003</v>
+        <v>30.1</v>
       </c>
       <c r="M131">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="N131">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O131">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="P131">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q131">
-        <v>47.2</v>
+        <v>46.1</v>
       </c>
       <c r="R131">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="S131">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="T131">
-        <v>7.83</v>
+        <v>8.51</v>
       </c>
       <c r="V131">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="W131" t="s">
         <v>82</v>
@@ -25701,64 +25701,64 @@
         <v>1</v>
       </c>
       <c r="Z131">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="AB131">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="AC131">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="AD131">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE131">
-        <v>103</v>
+        <v>793</v>
       </c>
       <c r="AF131">
-        <v>1.51</v>
+        <v>2.85</v>
       </c>
       <c r="AG131">
-        <v>5.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AH131">
-        <v>14</v>
+        <v>15.3</v>
       </c>
       <c r="AI131">
-        <v>113.3</v>
+        <v>41.7</v>
       </c>
       <c r="AJ131">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK131">
-        <v>0.64</v>
+        <v>1.01</v>
       </c>
       <c r="AL131">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AM131">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AN131">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AO131">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AP131">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ131">
-        <v>23.4</v>
+        <v>33.4</v>
       </c>
       <c r="AR131">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="AS131">
-        <v>0.11</v>
+        <v>4.32</v>
       </c>
       <c r="AT131" t="s">
         <v>84</v>
@@ -25770,90 +25770,87 @@
         <v>84</v>
       </c>
       <c r="AW131">
-        <v>8.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AZ131">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BA131">
         <v>0.5</v>
       </c>
       <c r="BB131">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="BC131">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="BD131">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="BE131">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="BF131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG131">
-        <v>2.02</v>
+        <v>0.94</v>
       </c>
       <c r="BH131">
-        <v>0.3</v>
-      </c>
-      <c r="BI131">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="BO131">
-        <v>23.33</v>
+        <v>32.5</v>
       </c>
       <c r="BP131">
-        <v>2.44</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="BQ131">
-        <v>1.89</v>
+        <v>3.33</v>
       </c>
       <c r="BR131">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="BS131">
-        <v>99.17</v>
+        <v>109.19</v>
       </c>
       <c r="BT131">
-        <v>71.489999999999995</v>
+        <v>97.88</v>
       </c>
       <c r="BU131">
-        <v>71.73</v>
+        <v>106.89</v>
       </c>
       <c r="BV131">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="BW131">
         <v>26.5</v>
       </c>
       <c r="BX131">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="BY131">
-        <v>155.5</v>
+        <v>125.5</v>
       </c>
       <c r="BZ131">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>49782</v>
+        <v>49783</v>
       </c>
       <c r="C132" s="2">
-        <v>45596.298483796287</v>
+        <v>45596.364791666667</v>
       </c>
       <c r="D132" s="2">
-        <v>45596.31391203704</v>
+        <v>45596.327962962961</v>
       </c>
       <c r="E132" s="2">
-        <v>45596.299224537041</v>
+        <v>45596.314756944441</v>
       </c>
       <c r="F132" s="2">
         <v>45639.599224537043</v>
@@ -25862,13 +25859,13 @@
         <v>78</v>
       </c>
       <c r="H132">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I132" t="s">
         <v>81</v>
       </c>
       <c r="L132">
-        <v>30.1</v>
+        <v>30.8</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -25877,25 +25874,25 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P132">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q132">
-        <v>46.1</v>
+        <v>46.7</v>
       </c>
       <c r="R132">
-        <v>14.5</v>
+        <v>13.7</v>
       </c>
       <c r="S132">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="T132">
-        <v>8.51</v>
+        <v>6.93</v>
       </c>
       <c r="V132">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="W132" t="s">
         <v>82</v>
@@ -25910,82 +25907,82 @@
         <v>1</v>
       </c>
       <c r="AA132">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="AB132">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="AC132">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AD132">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="AE132">
-        <v>793</v>
+        <v>119</v>
       </c>
       <c r="AF132">
-        <v>2.85</v>
+        <v>1.25</v>
       </c>
       <c r="AG132">
-        <v>4.5999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="AH132">
-        <v>15.3</v>
+        <v>14.1</v>
       </c>
       <c r="AI132">
-        <v>41.7</v>
+        <v>37.4</v>
       </c>
       <c r="AJ132">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK132">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="AL132">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AM132">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AN132">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AO132">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="AP132">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AQ132">
-        <v>33.4</v>
+        <v>91.7</v>
       </c>
       <c r="AR132">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="AS132">
-        <v>4.32</v>
+        <v>0.12</v>
       </c>
       <c r="AT132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AV132" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW132">
-        <v>8.8000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="AZ132">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BA132">
         <v>0.5</v>
       </c>
       <c r="BB132">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="BC132">
         <v>0.2</v>
@@ -25994,49 +25991,52 @@
         <v>0.2</v>
       </c>
       <c r="BE132">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="BF132">
         <v>2</v>
       </c>
       <c r="BG132">
-        <v>0.94</v>
+        <v>0.4</v>
       </c>
       <c r="BH132">
-        <v>0.4</v>
+        <v>0.3</v>
+      </c>
+      <c r="BI132">
+        <v>1</v>
       </c>
       <c r="BO132">
-        <v>32.5</v>
+        <v>42.08</v>
       </c>
       <c r="BP132">
-        <v>4.0199999999999996</v>
+        <v>4.41</v>
       </c>
       <c r="BQ132">
-        <v>3.33</v>
+        <v>3.68</v>
       </c>
       <c r="BR132">
         <v>0.83</v>
       </c>
       <c r="BS132">
-        <v>109.19</v>
+        <v>110.23</v>
       </c>
       <c r="BT132">
-        <v>97.88</v>
+        <v>101.15</v>
       </c>
       <c r="BU132">
-        <v>106.89</v>
+        <v>111.59</v>
       </c>
       <c r="BV132">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="BW132">
         <v>26.5</v>
       </c>
       <c r="BX132">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="BY132">
-        <v>125.5</v>
+        <v>92.5</v>
       </c>
       <c r="BZ132">
         <v>0</v>
@@ -26044,19 +26044,13 @@
     </row>
     <row r="133" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>49783</v>
+        <v>49784</v>
       </c>
       <c r="C133" s="2">
-        <v>45596.364791666667</v>
-      </c>
-      <c r="D133" s="2">
-        <v>45596.327962962961</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45596.314756944441</v>
+        <v>45596.316550925927</v>
       </c>
       <c r="F133" s="2">
         <v>45639.599224537043</v>
@@ -26064,199 +26058,139 @@
       <c r="G133" t="s">
         <v>78</v>
       </c>
-      <c r="H133">
-        <v>60</v>
+      <c r="H133" s="3">
+        <v>42</v>
       </c>
       <c r="I133" t="s">
         <v>81</v>
       </c>
       <c r="L133">
-        <v>30.8</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="O133">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="P133">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q133">
-        <v>46.7</v>
+        <v>49.7</v>
       </c>
       <c r="R133">
-        <v>13.7</v>
+        <v>15.7</v>
       </c>
       <c r="S133">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="T133">
-        <v>6.93</v>
-      </c>
-      <c r="V133">
-        <v>1030</v>
-      </c>
-      <c r="W133" t="s">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y133">
-        <v>1</v>
-      </c>
-      <c r="Z133">
-        <v>1</v>
+        <v>13.81</v>
       </c>
       <c r="AA133">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AB133">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AC133">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="AD133">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="AE133">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="AF133">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="AG133">
-        <v>5.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH133">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="AI133">
-        <v>37.4</v>
+        <v>33.4</v>
       </c>
       <c r="AJ133">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AK133">
         <v>0.82</v>
       </c>
       <c r="AL133">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM133">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN133">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AO133">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="AP133">
         <v>0.3</v>
       </c>
       <c r="AQ133">
-        <v>91.7</v>
+        <v>118.9</v>
       </c>
       <c r="AR133">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AS133">
-        <v>0.12</v>
-      </c>
-      <c r="AT133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV133" t="s">
-        <v>85</v>
+        <v>7.8</v>
       </c>
       <c r="AW133">
-        <v>11.5</v>
-      </c>
-      <c r="AZ133">
-        <v>0.3</v>
+        <v>21.2</v>
       </c>
       <c r="BA133">
         <v>0.5</v>
       </c>
-      <c r="BB133">
-        <v>0.21</v>
-      </c>
       <c r="BC133">
-        <v>0.2</v>
-      </c>
-      <c r="BD133">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE133">
-        <v>1.9</v>
-      </c>
-      <c r="BF133">
+        <v>1.3</v>
+      </c>
+      <c r="BG133">
+        <v>1.31</v>
+      </c>
+      <c r="BI133">
         <v>2</v>
       </c>
-      <c r="BG133">
-        <v>0.4</v>
-      </c>
-      <c r="BH133">
-        <v>0.3</v>
-      </c>
-      <c r="BI133">
-        <v>1</v>
-      </c>
-      <c r="BO133">
-        <v>42.08</v>
-      </c>
-      <c r="BP133">
-        <v>4.41</v>
-      </c>
-      <c r="BQ133">
-        <v>3.68</v>
-      </c>
-      <c r="BR133">
-        <v>0.83</v>
-      </c>
-      <c r="BS133">
-        <v>110.23</v>
-      </c>
-      <c r="BT133">
-        <v>101.15</v>
-      </c>
-      <c r="BU133">
-        <v>111.59</v>
-      </c>
       <c r="BV133">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="BW133">
         <v>26.5</v>
       </c>
       <c r="BX133">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="BY133">
-        <v>92.5</v>
+        <v>105.5</v>
       </c>
       <c r="BZ133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>49784</v>
+        <v>49785</v>
       </c>
       <c r="C134" s="2">
-        <v>45596.316550925927</v>
+        <v>45596.355532407397</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45596.379745370366</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45596.367175925923</v>
       </c>
       <c r="F134" s="2">
         <v>45639.599224537043</v>
@@ -26264,139 +26198,205 @@
       <c r="G134" t="s">
         <v>78</v>
       </c>
-      <c r="H134" s="3">
-        <v>42</v>
+      <c r="H134">
+        <v>41</v>
       </c>
       <c r="I134" t="s">
         <v>81</v>
       </c>
       <c r="L134">
-        <v>27.4</v>
+        <v>21</v>
+      </c>
+      <c r="M134">
+        <v>1.25</v>
+      </c>
+      <c r="N134">
+        <v>30</v>
       </c>
       <c r="O134">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P134">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="Q134">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="R134">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="S134">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="T134">
-        <v>13.81</v>
+        <v>7.21</v>
+      </c>
+      <c r="V134">
+        <v>1025</v>
+      </c>
+      <c r="W134" t="s">
+        <v>82</v>
+      </c>
+      <c r="X134" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y134">
+        <v>4.5</v>
+      </c>
+      <c r="Z134">
+        <v>2</v>
       </c>
       <c r="AA134">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB134">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AC134">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="AD134">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="AE134">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="AF134">
-        <v>1.66</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AG134">
-        <v>5.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="AH134">
-        <v>14.8</v>
+        <v>13.4</v>
       </c>
       <c r="AI134">
-        <v>33.4</v>
+        <v>37.1</v>
       </c>
       <c r="AJ134">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK134">
-        <v>0.82</v>
+        <v>0.94</v>
       </c>
       <c r="AL134">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM134">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AN134">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AO134">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="AP134">
+        <v>0.4</v>
+      </c>
+      <c r="AQ134">
+        <v>1000</v>
+      </c>
+      <c r="AR134">
+        <v>0.17</v>
+      </c>
+      <c r="AS134">
+        <v>3.87</v>
+      </c>
+      <c r="AT134" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU134" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV134" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW134">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AZ134">
         <v>0.3</v>
-      </c>
-      <c r="AQ134">
-        <v>118.9</v>
-      </c>
-      <c r="AR134">
-        <v>0.12</v>
-      </c>
-      <c r="AS134">
-        <v>7.8</v>
-      </c>
-      <c r="AW134">
-        <v>21.2</v>
       </c>
       <c r="BA134">
         <v>0.5</v>
       </c>
+      <c r="BB134">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="BC134">
-        <v>1.1000000000000001</v>
+        <v>2</v>
+      </c>
+      <c r="BD134">
+        <v>0.4</v>
       </c>
       <c r="BE134">
-        <v>1.3</v>
+        <v>0.3</v>
+      </c>
+      <c r="BF134">
+        <v>3</v>
       </c>
       <c r="BG134">
-        <v>1.31</v>
+        <v>0.25</v>
+      </c>
+      <c r="BH134">
+        <v>0.2</v>
       </c>
       <c r="BI134">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BO134">
+        <v>21.67</v>
+      </c>
+      <c r="BP134">
+        <v>4.88</v>
+      </c>
+      <c r="BQ134">
+        <v>3.85</v>
+      </c>
+      <c r="BR134">
+        <v>0.79</v>
+      </c>
+      <c r="BS134">
+        <v>99.24</v>
+      </c>
+      <c r="BT134">
+        <v>94.65</v>
+      </c>
+      <c r="BU134">
+        <v>94.11</v>
       </c>
       <c r="BV134">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="BW134">
         <v>26.5</v>
       </c>
       <c r="BX134">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="BY134">
-        <v>105.5</v>
+        <v>97.5</v>
       </c>
       <c r="BZ134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>49785</v>
+        <v>49786</v>
       </c>
       <c r="C135" s="2">
-        <v>45596.355532407397</v>
+        <v>45596.383391203701</v>
       </c>
       <c r="D135" s="2">
-        <v>45596.379745370366</v>
+        <v>45596.400648148148</v>
       </c>
       <c r="E135" s="2">
-        <v>45596.367175925923</v>
+        <v>45596.391770833332</v>
       </c>
       <c r="F135" s="2">
         <v>45639.599224537043</v>
@@ -26405,40 +26405,40 @@
         <v>78</v>
       </c>
       <c r="H135">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I135" t="s">
         <v>81</v>
       </c>
       <c r="L135">
-        <v>21</v>
+        <v>22.9</v>
       </c>
       <c r="M135">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="N135">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="O135">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="P135">
         <v>80</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>43.7</v>
       </c>
       <c r="R135">
-        <v>15.9</v>
+        <v>13.5</v>
       </c>
       <c r="S135">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="T135">
-        <v>7.21</v>
+        <v>7.32</v>
       </c>
       <c r="V135">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="W135" t="s">
         <v>82</v>
@@ -26447,79 +26447,79 @@
         <v>82</v>
       </c>
       <c r="Y135">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Z135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA135">
+        <v>102</v>
+      </c>
+      <c r="AB135">
+        <v>53</v>
+      </c>
+      <c r="AC135">
+        <v>72</v>
+      </c>
+      <c r="AD135">
+        <v>140</v>
+      </c>
+      <c r="AE135">
         <v>74</v>
       </c>
-      <c r="AB135">
-        <v>45</v>
-      </c>
-      <c r="AC135">
-        <v>126</v>
-      </c>
-      <c r="AD135">
-        <v>173</v>
-      </c>
-      <c r="AE135">
-        <v>55</v>
-      </c>
       <c r="AF135">
-        <v>2.2200000000000002</v>
+        <v>0.93</v>
       </c>
       <c r="AG135">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AH135">
-        <v>13.4</v>
+        <v>15</v>
       </c>
       <c r="AI135">
-        <v>37.1</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AJ135">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK135">
-        <v>0.94</v>
+        <v>0.83</v>
       </c>
       <c r="AL135">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AM135">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN135">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AO135">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AQ135">
-        <v>1000</v>
+        <v>0.6</v>
       </c>
       <c r="AR135">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AS135">
-        <v>3.87</v>
+        <v>8.89</v>
       </c>
       <c r="AT135" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU135" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AV135" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW135">
-        <v>9.8000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="AZ135">
         <v>0.3</v>
@@ -26528,61 +26528,58 @@
         <v>0.5</v>
       </c>
       <c r="BB135">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="BC135">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="BD135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BE135">
-        <v>0.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BF135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG135">
-        <v>0.25</v>
+        <v>1.54</v>
       </c>
       <c r="BH135">
-        <v>0.2</v>
-      </c>
-      <c r="BI135">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BO135">
-        <v>21.67</v>
+        <v>26.25</v>
       </c>
       <c r="BP135">
-        <v>4.88</v>
+        <v>5.57</v>
       </c>
       <c r="BQ135">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="BR135">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="BS135">
-        <v>99.24</v>
+        <v>90.85</v>
       </c>
       <c r="BT135">
-        <v>94.65</v>
+        <v>100.41</v>
       </c>
       <c r="BU135">
-        <v>94.11</v>
+        <v>91.41</v>
       </c>
       <c r="BV135">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="BW135">
         <v>26.5</v>
       </c>
       <c r="BX135">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="BY135">
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="BZ135">
         <v>0</v>
@@ -26590,61 +26587,61 @@
     </row>
     <row r="136" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>49786</v>
+        <v>49787</v>
       </c>
       <c r="C136" s="2">
-        <v>45596.383391203701</v>
+        <v>45596.374745370369</v>
       </c>
       <c r="D136" s="2">
-        <v>45596.400648148148</v>
+        <v>45596.340821759259</v>
       </c>
       <c r="E136" s="2">
-        <v>45596.391770833332</v>
+        <v>45596.329062500001</v>
       </c>
       <c r="F136" s="2">
         <v>45639.599224537043</v>
       </c>
       <c r="G136" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H136">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I136" t="s">
         <v>81</v>
       </c>
       <c r="L136">
-        <v>22.9</v>
+        <v>25.2</v>
       </c>
       <c r="M136">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="N136">
-        <v>10.5</v>
+        <v>70</v>
       </c>
       <c r="O136">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="P136">
         <v>80</v>
       </c>
       <c r="Q136">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="R136">
         <v>13.5</v>
       </c>
       <c r="S136">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="T136">
-        <v>7.32</v>
+        <v>5.78</v>
       </c>
       <c r="V136">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="W136" t="s">
         <v>82</v>
@@ -26653,139 +26650,142 @@
         <v>82</v>
       </c>
       <c r="Y136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z136">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AA136">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AB136">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="AC136">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="AD136">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="AE136">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AF136">
-        <v>0.93</v>
+        <v>2.41</v>
       </c>
       <c r="AG136">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH136">
+        <v>14.1</v>
+      </c>
+      <c r="AI136">
+        <v>283.2</v>
+      </c>
+      <c r="AJ136">
+        <v>25</v>
+      </c>
+      <c r="AK136">
+        <v>0.71</v>
+      </c>
+      <c r="AL136">
         <v>15</v>
       </c>
-      <c r="AI136">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="AJ136">
-        <v>42</v>
-      </c>
-      <c r="AK136">
-        <v>0.83</v>
-      </c>
-      <c r="AL136">
-        <v>18</v>
-      </c>
       <c r="AM136">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AN136">
         <v>18</v>
       </c>
       <c r="AO136">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AP136">
         <v>0.3</v>
       </c>
       <c r="AQ136">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AR136">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AS136">
-        <v>8.89</v>
+        <v>0.13</v>
       </c>
       <c r="AT136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AU136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AV136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AW136">
-        <v>7.8</v>
+        <v>24.6</v>
       </c>
       <c r="AZ136">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="BA136">
         <v>0.5</v>
       </c>
       <c r="BB136">
-        <v>0.08</v>
+        <v>0.46</v>
       </c>
       <c r="BC136">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="BD136">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="BE136">
-        <v>4.4000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="BF136">
         <v>5</v>
       </c>
       <c r="BG136">
-        <v>1.54</v>
+        <v>0.52</v>
       </c>
       <c r="BH136">
-        <v>0.1</v>
+        <v>0.7</v>
+      </c>
+      <c r="BI136">
+        <v>1</v>
       </c>
       <c r="BO136">
-        <v>26.25</v>
+        <v>36.25</v>
       </c>
       <c r="BP136">
-        <v>5.57</v>
+        <v>2.92</v>
       </c>
       <c r="BQ136">
-        <v>3.88</v>
+        <v>2.4</v>
       </c>
       <c r="BR136">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="BS136">
-        <v>90.85</v>
+        <v>102.86</v>
       </c>
       <c r="BT136">
-        <v>100.41</v>
+        <v>89.52</v>
       </c>
       <c r="BU136">
-        <v>91.41</v>
+        <v>93.13</v>
       </c>
       <c r="BV136">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="BW136">
         <v>26.5</v>
       </c>
       <c r="BX136">
-        <v>75</v>
+        <v>55.5</v>
       </c>
       <c r="BY136">
-        <v>101.5</v>
+        <v>82</v>
       </c>
       <c r="BZ136">
         <v>0</v>
@@ -26793,61 +26793,49 @@
     </row>
     <row r="137" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>49787</v>
+        <v>49788</v>
       </c>
       <c r="C137" s="2">
-        <v>45596.374745370369</v>
+        <v>45628.597071759257</v>
       </c>
       <c r="D137" s="2">
-        <v>45596.340821759259</v>
+        <v>45596.350173611107</v>
       </c>
       <c r="E137" s="2">
-        <v>45596.329062500001</v>
+        <v>45596.341782407413</v>
       </c>
       <c r="F137" s="2">
         <v>45639.599224537043</v>
       </c>
       <c r="G137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H137">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I137" t="s">
         <v>81</v>
       </c>
-      <c r="L137">
-        <v>25.2</v>
-      </c>
       <c r="M137">
-        <v>2</v>
-      </c>
-      <c r="N137">
-        <v>70</v>
-      </c>
-      <c r="O137">
-        <v>120</v>
-      </c>
-      <c r="P137">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="Q137">
-        <v>43.5</v>
+        <v>53.3</v>
       </c>
       <c r="R137">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="S137">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="T137">
-        <v>5.78</v>
+        <v>7.39</v>
       </c>
       <c r="V137">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="W137" t="s">
         <v>82</v>
@@ -26856,67 +26844,67 @@
         <v>82</v>
       </c>
       <c r="Y137">
+        <v>4</v>
+      </c>
+      <c r="Z137">
         <v>1</v>
       </c>
-      <c r="Z137">
+      <c r="AA137">
+        <v>112</v>
+      </c>
+      <c r="AB137">
+        <v>41</v>
+      </c>
+      <c r="AC137">
+        <v>136</v>
+      </c>
+      <c r="AD137">
+        <v>187</v>
+      </c>
+      <c r="AE137">
+        <v>111</v>
+      </c>
+      <c r="AF137">
+        <v>1.43</v>
+      </c>
+      <c r="AG137">
+        <v>5.6</v>
+      </c>
+      <c r="AH137">
+        <v>14.4</v>
+      </c>
+      <c r="AI137">
+        <v>144.4</v>
+      </c>
+      <c r="AJ137">
+        <v>36</v>
+      </c>
+      <c r="AK137">
+        <v>0.87</v>
+      </c>
+      <c r="AL137">
+        <v>20</v>
+      </c>
+      <c r="AM137">
         <v>21</v>
       </c>
-      <c r="AA137">
-        <v>76</v>
-      </c>
-      <c r="AB137">
-        <v>69</v>
-      </c>
-      <c r="AC137">
-        <v>135</v>
-      </c>
-      <c r="AD137">
-        <v>216</v>
-      </c>
-      <c r="AE137">
-        <v>85</v>
-      </c>
-      <c r="AF137">
-        <v>2.41</v>
-      </c>
-      <c r="AG137">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AH137">
-        <v>14.1</v>
-      </c>
-      <c r="AI137">
-        <v>283.2</v>
-      </c>
-      <c r="AJ137">
-        <v>25</v>
-      </c>
-      <c r="AK137">
-        <v>0.71</v>
-      </c>
-      <c r="AL137">
-        <v>15</v>
-      </c>
-      <c r="AM137">
-        <v>12</v>
-      </c>
       <c r="AN137">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AO137">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AP137">
         <v>0.3</v>
       </c>
       <c r="AQ137">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AR137">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AS137">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="AT137" t="s">
         <v>84</v>
@@ -26928,90 +26916,78 @@
         <v>84</v>
       </c>
       <c r="AW137">
-        <v>24.6</v>
+        <v>17.3</v>
       </c>
       <c r="AZ137">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="BA137">
         <v>0.5</v>
       </c>
       <c r="BB137">
-        <v>0.46</v>
+        <v>0.09</v>
       </c>
       <c r="BC137">
+        <v>1.9</v>
+      </c>
+      <c r="BD137">
         <v>0.5</v>
       </c>
-      <c r="BD137">
-        <v>0.7</v>
-      </c>
       <c r="BE137">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="BF137">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG137">
-        <v>0.52</v>
+        <v>3.57</v>
       </c>
       <c r="BH137">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="BI137">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BO137">
-        <v>36.25</v>
+        <v>31.67</v>
       </c>
       <c r="BP137">
-        <v>2.92</v>
+        <v>3.61</v>
       </c>
       <c r="BQ137">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="BR137">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="BS137">
-        <v>102.86</v>
+        <v>99.22</v>
       </c>
       <c r="BT137">
-        <v>89.52</v>
+        <v>76.97</v>
       </c>
       <c r="BU137">
-        <v>93.13</v>
-      </c>
-      <c r="BV137">
-        <v>114</v>
+        <v>76.31</v>
       </c>
       <c r="BW137">
         <v>26.5</v>
-      </c>
-      <c r="BX137">
-        <v>55.5</v>
-      </c>
-      <c r="BY137">
-        <v>82</v>
-      </c>
-      <c r="BZ137">
-        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>49788</v>
+        <v>49789</v>
       </c>
       <c r="C138" s="2">
-        <v>45628.597071759257</v>
+        <v>45596.417025462957</v>
       </c>
       <c r="D138" s="2">
-        <v>45596.350173611107</v>
+        <v>45596.390729166669</v>
       </c>
       <c r="E138" s="2">
-        <v>45596.341782407413</v>
+        <v>45596.381238425929</v>
       </c>
       <c r="F138" s="2">
         <v>45639.599224537043</v>
@@ -27020,28 +26996,37 @@
         <v>78</v>
       </c>
       <c r="H138">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I138" t="s">
         <v>81</v>
       </c>
+      <c r="L138">
+        <v>27.7</v>
+      </c>
       <c r="M138">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>130</v>
+      </c>
+      <c r="P138">
+        <v>90</v>
       </c>
       <c r="Q138">
-        <v>53.3</v>
+        <v>47.1</v>
       </c>
       <c r="R138">
-        <v>16.5</v>
+        <v>15.1</v>
       </c>
       <c r="S138">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="T138">
-        <v>7.39</v>
+        <v>7.06</v>
       </c>
       <c r="V138">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="W138" t="s">
         <v>82</v>
@@ -27050,67 +27035,67 @@
         <v>82</v>
       </c>
       <c r="Y138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z138">
         <v>1</v>
       </c>
       <c r="AA138">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AB138">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="AC138">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="AD138">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="AE138">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="AF138">
-        <v>1.43</v>
+        <v>0.49</v>
       </c>
       <c r="AG138">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AH138">
-        <v>14.4</v>
+        <v>16.8</v>
       </c>
       <c r="AI138">
-        <v>144.4</v>
+        <v>28.3</v>
       </c>
       <c r="AJ138">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AK138">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AL138">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AM138">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN138">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AO138">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="AP138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>152.4</v>
       </c>
       <c r="AR138">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AS138">
-        <v>0.2</v>
+        <v>8.74</v>
       </c>
       <c r="AT138" t="s">
         <v>84</v>
@@ -27122,78 +27107,90 @@
         <v>84</v>
       </c>
       <c r="AW138">
-        <v>17.3</v>
+        <v>15.3</v>
       </c>
       <c r="AZ138">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="BA138">
         <v>0.5</v>
       </c>
       <c r="BB138">
-        <v>0.09</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BC138">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="BD138">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="BE138">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="BF138">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG138">
-        <v>3.57</v>
+        <v>0.89</v>
       </c>
       <c r="BH138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BI138">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BO138">
-        <v>31.67</v>
+        <v>34.17</v>
       </c>
       <c r="BP138">
-        <v>3.61</v>
+        <v>3.99</v>
       </c>
       <c r="BQ138">
-        <v>2.77</v>
+        <v>3.39</v>
       </c>
       <c r="BR138">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="BS138">
-        <v>99.22</v>
+        <v>107.58</v>
       </c>
       <c r="BT138">
-        <v>76.97</v>
+        <v>84.45</v>
       </c>
       <c r="BU138">
-        <v>76.31</v>
+        <v>90.67</v>
+      </c>
+      <c r="BV138">
+        <v>134</v>
       </c>
       <c r="BW138">
         <v>26.5</v>
+      </c>
+      <c r="BX138">
+        <v>82</v>
+      </c>
+      <c r="BY138">
+        <v>108.5</v>
+      </c>
+      <c r="BZ138">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>49789</v>
+        <v>49790</v>
       </c>
       <c r="C139" s="2">
-        <v>45596.417025462957</v>
+        <v>45596.398923611108</v>
       </c>
       <c r="D139" s="2">
-        <v>45596.390729166669</v>
+        <v>45596.411504629628</v>
       </c>
       <c r="E139" s="2">
-        <v>45596.381238425929</v>
+        <v>45596.402615740742</v>
       </c>
       <c r="F139" s="2">
         <v>45639.599224537043</v>
@@ -27202,37 +27199,31 @@
         <v>78</v>
       </c>
       <c r="H139">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I139" t="s">
         <v>81</v>
       </c>
       <c r="L139">
-        <v>27.7</v>
+        <v>35.6</v>
       </c>
       <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="O139">
-        <v>130</v>
-      </c>
-      <c r="P139">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="Q139">
-        <v>47.1</v>
+        <v>46.5</v>
       </c>
       <c r="R139">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="S139">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="T139">
-        <v>7.06</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="V139">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="W139" t="s">
         <v>82</v>
@@ -27247,156 +27238,156 @@
         <v>1</v>
       </c>
       <c r="AA139">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AB139">
         <v>58</v>
       </c>
       <c r="AC139">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="AD139">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="AE139">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="AF139">
-        <v>0.49</v>
+        <v>2.11</v>
       </c>
       <c r="AG139">
-        <v>6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH139">
-        <v>16.8</v>
+        <v>12.8</v>
       </c>
       <c r="AI139">
-        <v>28.3</v>
+        <v>39.4</v>
       </c>
       <c r="AJ139">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AK139">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AL139">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="AM139">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AN139">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AO139">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AP139">
         <v>0.4</v>
       </c>
       <c r="AQ139">
-        <v>152.4</v>
+        <v>0.1</v>
       </c>
       <c r="AR139">
-        <v>0.14000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AS139">
-        <v>8.74</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AT139" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU139" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AV139" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW139">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="AZ139">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="BA139">
         <v>0.5</v>
       </c>
       <c r="BB139">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC139">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="BD139">
         <v>0.3</v>
       </c>
       <c r="BE139">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="BF139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG139">
-        <v>0.89</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BH139">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="BI139">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BO139">
-        <v>34.17</v>
+        <v>23.75</v>
       </c>
       <c r="BP139">
-        <v>3.99</v>
+        <v>2.89</v>
       </c>
       <c r="BQ139">
-        <v>3.39</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BR139">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="BS139">
-        <v>107.58</v>
+        <v>94.35</v>
       </c>
       <c r="BT139">
-        <v>84.45</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="BU139">
-        <v>90.67</v>
+        <v>74.27</v>
       </c>
       <c r="BV139">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="BW139">
         <v>26.5</v>
       </c>
       <c r="BX139">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="BY139">
-        <v>108.5</v>
+        <v>88.5</v>
       </c>
       <c r="BZ139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>49790</v>
+        <v>49792</v>
       </c>
       <c r="C140" s="2">
-        <v>45596.398923611108</v>
+        <v>45596.408437500002</v>
       </c>
       <c r="D140" s="2">
-        <v>45596.411504629628</v>
+        <v>45596.42895833333</v>
       </c>
       <c r="E140" s="2">
-        <v>45596.402615740742</v>
+        <v>45596.41978009259</v>
       </c>
       <c r="F140" s="2">
         <v>45639.599224537043</v>
@@ -27405,28 +27396,34 @@
         <v>78</v>
       </c>
       <c r="H140">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I140" t="s">
         <v>81</v>
       </c>
       <c r="L140">
-        <v>35.6</v>
+        <v>24.5</v>
       </c>
       <c r="M140">
-        <v>1</v>
+        <v>0.2</v>
+      </c>
+      <c r="O140">
+        <v>150</v>
+      </c>
+      <c r="P140">
+        <v>106</v>
       </c>
       <c r="Q140">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="R140">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="S140">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="T140">
-        <v>10.029999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="V140">
         <v>1030</v>
@@ -27438,55 +27435,55 @@
         <v>82</v>
       </c>
       <c r="Y140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA140">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="AB140">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC140">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="AD140">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="AE140">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="AF140">
-        <v>2.11</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AG140">
-        <v>4.9000000000000004</v>
+        <v>6.1</v>
       </c>
       <c r="AH140">
-        <v>12.8</v>
+        <v>14</v>
       </c>
       <c r="AI140">
-        <v>39.4</v>
+        <v>41.5</v>
       </c>
       <c r="AJ140">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AK140">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AL140">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM140">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN140">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AO140">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="AP140">
         <v>0.4</v>
@@ -27495,10 +27492,10 @@
         <v>0.1</v>
       </c>
       <c r="AR140">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="AS140">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="AT140" t="s">
         <v>85</v>
@@ -27510,70 +27507,70 @@
         <v>85</v>
       </c>
       <c r="AW140">
-        <v>14.5</v>
+        <v>9.4</v>
       </c>
       <c r="AZ140">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="BA140">
         <v>0.5</v>
       </c>
       <c r="BB140">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="BC140">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="BD140">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BE140">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="BF140">
+        <v>4</v>
+      </c>
+      <c r="BG140">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="BH140">
+        <v>0.6</v>
+      </c>
+      <c r="BI140">
         <v>3</v>
       </c>
-      <c r="BG140">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="BH140">
-        <v>0.2</v>
-      </c>
-      <c r="BI140">
-        <v>5</v>
-      </c>
       <c r="BO140">
-        <v>23.75</v>
+        <v>29.17</v>
       </c>
       <c r="BP140">
-        <v>2.89</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BQ140">
-        <v>2.2000000000000002</v>
+        <v>3.72</v>
       </c>
       <c r="BR140">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="BS140">
-        <v>94.35</v>
+        <v>109.31</v>
       </c>
       <c r="BT140">
-        <v>77.540000000000006</v>
+        <v>80.73</v>
       </c>
       <c r="BU140">
-        <v>74.27</v>
+        <v>88.57</v>
       </c>
       <c r="BV140">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BW140">
         <v>26.5</v>
       </c>
       <c r="BX140">
-        <v>62</v>
+        <v>101.5</v>
       </c>
       <c r="BY140">
-        <v>88.5</v>
+        <v>128</v>
       </c>
       <c r="BZ140">
         <v>0</v>
@@ -27581,19 +27578,19 @@
     </row>
     <row r="141" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>49792</v>
+        <v>49793</v>
       </c>
       <c r="C141" s="2">
-        <v>45596.408437500002</v>
+        <v>45628.598437499997</v>
       </c>
       <c r="D141" s="2">
-        <v>45596.42895833333</v>
+        <v>45596.418888888889</v>
       </c>
       <c r="E141" s="2">
-        <v>45596.41978009259</v>
+        <v>45596.41337962963</v>
       </c>
       <c r="F141" s="2">
         <v>45639.599224537043</v>
@@ -27602,34 +27599,25 @@
         <v>78</v>
       </c>
       <c r="H141">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I141" t="s">
         <v>81</v>
       </c>
-      <c r="L141">
-        <v>24.5</v>
-      </c>
       <c r="M141">
-        <v>0.2</v>
-      </c>
-      <c r="O141">
-        <v>150</v>
-      </c>
-      <c r="P141">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="Q141">
-        <v>46.6</v>
+        <v>44.7</v>
       </c>
       <c r="R141">
-        <v>14.9</v>
+        <v>13.2</v>
       </c>
       <c r="S141">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="T141">
-        <v>6.4</v>
+        <v>9.91</v>
       </c>
       <c r="V141">
         <v>1030</v>
@@ -27641,335 +27629,141 @@
         <v>82</v>
       </c>
       <c r="Y141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA141">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AB141">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AC141">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="AD141">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AE141">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AF141">
-        <v>2.0099999999999998</v>
+        <v>1.88</v>
       </c>
       <c r="AG141">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AH141">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="AI141">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="AJ141">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AK141">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="AL141">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AM141">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AN141">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AO141">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="AP141">
         <v>0.4</v>
       </c>
       <c r="AQ141">
-        <v>0.1</v>
+        <v>105.9</v>
       </c>
       <c r="AR141">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AS141">
-        <v>0.13</v>
+        <v>2.73</v>
       </c>
       <c r="AT141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AU141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AV141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AW141">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
       <c r="AZ141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BA141">
         <v>0.5</v>
       </c>
       <c r="BB141">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="BC141">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="BD141">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="BE141">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="BF141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG141">
-        <v>4.5599999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="BH141">
-        <v>0.6</v>
-      </c>
-      <c r="BI141">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="BO141">
-        <v>29.17</v>
+        <v>31.67</v>
       </c>
       <c r="BP141">
-        <v>4.4000000000000004</v>
+        <v>4.03</v>
       </c>
       <c r="BQ141">
-        <v>3.72</v>
+        <v>3.38</v>
       </c>
       <c r="BR141">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="BS141">
-        <v>109.31</v>
+        <v>108.29</v>
       </c>
       <c r="BT141">
-        <v>80.73</v>
+        <v>74.87</v>
       </c>
       <c r="BU141">
-        <v>88.57</v>
+        <v>81.290000000000006</v>
       </c>
       <c r="BV141">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BW141">
         <v>26.5</v>
       </c>
       <c r="BX141">
-        <v>101.5</v>
+        <v>84</v>
       </c>
       <c r="BY141">
-        <v>128</v>
+        <v>110.5</v>
       </c>
       <c r="BZ141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>49793</v>
-      </c>
-      <c r="C142" s="2">
-        <v>45628.598437499997</v>
-      </c>
-      <c r="D142" s="2">
-        <v>45596.418888888889</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45596.41337962963</v>
-      </c>
-      <c r="F142" s="2">
-        <v>45639.599224537043</v>
-      </c>
-      <c r="G142" t="s">
-        <v>78</v>
-      </c>
-      <c r="H142">
-        <v>51</v>
-      </c>
-      <c r="I142" t="s">
-        <v>81</v>
-      </c>
-      <c r="M142">
-        <v>3</v>
-      </c>
-      <c r="Q142">
-        <v>44.7</v>
-      </c>
-      <c r="R142">
-        <v>13.2</v>
-      </c>
-      <c r="S142">
-        <v>170</v>
-      </c>
-      <c r="T142">
-        <v>9.91</v>
-      </c>
-      <c r="V142">
-        <v>1030</v>
-      </c>
-      <c r="W142" t="s">
-        <v>82</v>
-      </c>
-      <c r="X142" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y142">
-        <v>1</v>
-      </c>
-      <c r="Z142">
-        <v>1</v>
-      </c>
-      <c r="AA142">
-        <v>79</v>
-      </c>
-      <c r="AB142">
-        <v>47</v>
-      </c>
-      <c r="AC142">
-        <v>132</v>
-      </c>
-      <c r="AD142">
-        <v>176</v>
-      </c>
-      <c r="AE142">
-        <v>67</v>
-      </c>
-      <c r="AF142">
-        <v>1.88</v>
-      </c>
-      <c r="AG142">
-        <v>5.9</v>
-      </c>
-      <c r="AH142">
-        <v>13.7</v>
-      </c>
-      <c r="AI142">
-        <v>41.4</v>
-      </c>
-      <c r="AJ142">
-        <v>33</v>
-      </c>
-      <c r="AK142">
-        <v>0.78</v>
-      </c>
-      <c r="AL142">
-        <v>25</v>
-      </c>
-      <c r="AM142">
-        <v>30</v>
-      </c>
-      <c r="AN142">
-        <v>35</v>
-      </c>
-      <c r="AO142">
-        <v>90</v>
-      </c>
-      <c r="AP142">
-        <v>0.4</v>
-      </c>
-      <c r="AQ142">
-        <v>105.9</v>
-      </c>
-      <c r="AR142">
-        <v>0.09</v>
-      </c>
-      <c r="AS142">
-        <v>2.73</v>
-      </c>
-      <c r="AT142" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU142" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV142" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW142">
-        <v>10.7</v>
-      </c>
-      <c r="AZ142">
-        <v>0.4</v>
-      </c>
-      <c r="BA142">
-        <v>0.5</v>
-      </c>
-      <c r="BB142">
-        <v>0.25</v>
-      </c>
-      <c r="BC142">
-        <v>1.8</v>
-      </c>
-      <c r="BD142">
-        <v>0.8</v>
-      </c>
-      <c r="BE142">
-        <v>0.3</v>
-      </c>
-      <c r="BF142">
-        <v>2</v>
-      </c>
-      <c r="BG142">
-        <v>0.25</v>
-      </c>
-      <c r="BH142">
-        <v>0.4</v>
-      </c>
-      <c r="BO142">
-        <v>31.67</v>
-      </c>
-      <c r="BP142">
-        <v>4.03</v>
-      </c>
-      <c r="BQ142">
-        <v>3.38</v>
-      </c>
-      <c r="BR142">
-        <v>0.84</v>
-      </c>
-      <c r="BS142">
-        <v>108.29</v>
-      </c>
-      <c r="BT142">
-        <v>74.87</v>
-      </c>
-      <c r="BU142">
-        <v>81.290000000000006</v>
-      </c>
-      <c r="BV142">
-        <v>117</v>
-      </c>
-      <c r="BW142">
-        <v>26.5</v>
-      </c>
-      <c r="BX142">
-        <v>84</v>
-      </c>
-      <c r="BY142">
-        <v>110.5</v>
-      </c>
-      <c r="BZ142">
         <v>0</v>
       </c>
     </row>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D6903E-2CE3-4C43-B3EF-7FD1386E9400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92783B-00AF-417D-B17B-52184A13C122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="86">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -317,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,13 +364,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,245 +688,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:XFD130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:79" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -15051,185 +15069,179 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="78" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="78" spans="1:78" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>49673</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="6">
         <v>45596.269872685189</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="6">
         <v>45639.599224537043</v>
       </c>
-      <c r="G78" t="s">
-        <v>79</v>
-      </c>
-      <c r="H78" s="3">
-        <v>53</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="I78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="5">
         <v>24.5</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="5">
         <v>127</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="5">
         <v>83</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="5">
         <v>43.7</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="5">
         <v>13.1</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="5">
         <v>273</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="5">
         <v>6.72</v>
       </c>
-      <c r="V78">
+      <c r="V78" s="5">
         <v>1030</v>
       </c>
-      <c r="W78" t="s">
+      <c r="W78" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="X78" t="s">
+      <c r="X78" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Y78">
+      <c r="Y78" s="5">
         <v>4</v>
       </c>
-      <c r="Z78">
+      <c r="Z78" s="5">
         <v>9</v>
       </c>
-      <c r="AA78">
+      <c r="AA78" s="5">
         <v>96</v>
       </c>
-      <c r="AB78">
+      <c r="AB78" s="5">
         <v>57</v>
       </c>
-      <c r="AC78">
+      <c r="AC78" s="5">
         <v>140</v>
       </c>
-      <c r="AD78">
+      <c r="AD78" s="5">
         <v>207</v>
       </c>
-      <c r="AE78">
+      <c r="AE78" s="5">
         <v>102</v>
       </c>
-      <c r="AF78">
+      <c r="AF78" s="5">
         <v>1.47</v>
       </c>
-      <c r="AG78">
+      <c r="AG78" s="5">
         <v>5</v>
       </c>
-      <c r="AH78">
+      <c r="AH78" s="5">
         <v>15.9</v>
       </c>
-      <c r="AI78">
+      <c r="AI78" s="5">
         <v>1799.6</v>
       </c>
-      <c r="AJ78">
+      <c r="AJ78" s="5">
         <v>38</v>
       </c>
-      <c r="AK78">
+      <c r="AK78" s="5">
         <v>1.04</v>
       </c>
-      <c r="AL78">
+      <c r="AL78" s="5">
         <v>18</v>
       </c>
-      <c r="AM78">
+      <c r="AM78" s="5">
         <v>16</v>
       </c>
-      <c r="AN78">
+      <c r="AN78" s="5">
         <v>14</v>
       </c>
-      <c r="AO78">
+      <c r="AO78" s="5">
         <v>56</v>
       </c>
-      <c r="AP78">
+      <c r="AP78" s="5">
         <v>0.6</v>
       </c>
-      <c r="AQ78">
+      <c r="AQ78" s="5">
         <v>100.2</v>
       </c>
-      <c r="AR78">
+      <c r="AR78" s="5">
         <v>0.16</v>
       </c>
-      <c r="AS78">
+      <c r="AS78" s="5">
         <v>0.17</v>
       </c>
-      <c r="AW78">
+      <c r="AW78" s="5">
         <v>7.3</v>
       </c>
-      <c r="AZ78">
+      <c r="AZ78" s="5">
         <v>0.3</v>
       </c>
-      <c r="BA78">
+      <c r="BA78" s="5">
         <v>0.5</v>
       </c>
-      <c r="BB78">
+      <c r="BB78" s="5">
         <v>0.42</v>
       </c>
-      <c r="BC78">
+      <c r="BC78" s="5">
         <v>0.5</v>
       </c>
-      <c r="BD78">
+      <c r="BD78" s="5">
         <v>0.2</v>
       </c>
-      <c r="BE78">
+      <c r="BE78" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BF78">
+      <c r="BF78" s="5">
         <v>5</v>
       </c>
-      <c r="BG78">
+      <c r="BG78" s="5">
         <v>0.74</v>
       </c>
-      <c r="BH78">
+      <c r="BH78" s="5">
         <v>0.6</v>
       </c>
-      <c r="BO78">
+      <c r="BO78" s="5">
         <v>25.83</v>
       </c>
-      <c r="BP78">
+      <c r="BP78" s="5">
         <v>4.01</v>
       </c>
-      <c r="BQ78">
+      <c r="BQ78" s="5">
         <v>2.98</v>
       </c>
-      <c r="BR78">
+      <c r="BR78" s="5">
         <v>0.74</v>
       </c>
-      <c r="BS78">
+      <c r="BS78" s="5">
         <v>93.76</v>
       </c>
-      <c r="BT78">
+      <c r="BT78" s="5">
         <v>115.09</v>
       </c>
-      <c r="BU78">
+      <c r="BU78" s="5">
         <v>109.34</v>
       </c>
-      <c r="BV78">
+      <c r="BV78" s="5">
         <v>151</v>
       </c>
-      <c r="BW78">
+      <c r="BW78" s="5">
         <v>26.5</v>
       </c>
-      <c r="BX78">
+      <c r="BX78" s="5">
         <v>55.5</v>
       </c>
-      <c r="BY78">
+      <c r="BY78" s="5">
         <v>82</v>
       </c>
-      <c r="BZ78">
+      <c r="BZ78" s="5">
         <v>1</v>
       </c>
     </row>
@@ -21073,12 +21085,7 @@
       <c r="F108" s="2">
         <v>45639.599224537043</v>
       </c>
-      <c r="G108" t="s">
-        <v>78</v>
-      </c>
-      <c r="H108" s="3">
-        <v>57</v>
-      </c>
+      <c r="H108" s="3"/>
       <c r="I108" t="s">
         <v>81</v>
       </c>
@@ -22452,12 +22459,7 @@
       <c r="F115" s="2">
         <v>45639.599224537043</v>
       </c>
-      <c r="G115" t="s">
-        <v>78</v>
-      </c>
-      <c r="H115" s="3">
-        <v>29</v>
-      </c>
+      <c r="H115" s="3"/>
       <c r="I115" t="s">
         <v>81</v>
       </c>
@@ -26055,12 +26057,7 @@
       <c r="F133" s="2">
         <v>45639.599224537043</v>
       </c>
-      <c r="G133" t="s">
-        <v>78</v>
-      </c>
-      <c r="H133" s="3">
-        <v>42</v>
-      </c>
+      <c r="H133" s="3"/>
       <c r="I133" t="s">
         <v>81</v>
       </c>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92783B-00AF-417D-B17B-52184A13C122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6BB6D3-0B8B-433B-AFCD-6687B342305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="87">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Όχι</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -689,8 +692,8 @@
   <dimension ref="A1:CA141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15082,6 +15085,9 @@
       <c r="F78" s="6">
         <v>45639.599224537043</v>
       </c>
+      <c r="H78" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="I78" s="5" t="s">
         <v>81</v>
       </c>
@@ -21085,7 +21091,9 @@
       <c r="F108" s="2">
         <v>45639.599224537043</v>
       </c>
-      <c r="H108" s="3"/>
+      <c r="H108" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I108" t="s">
         <v>81</v>
       </c>
@@ -22459,7 +22467,9 @@
       <c r="F115" s="2">
         <v>45639.599224537043</v>
       </c>
-      <c r="H115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I115" t="s">
         <v>81</v>
       </c>
@@ -26057,7 +26067,9 @@
       <c r="F133" s="2">
         <v>45639.599224537043</v>
       </c>
-      <c r="H133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I133" t="s">
         <v>81</v>
       </c>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6BB6D3-0B8B-433B-AFCD-6687B342305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0050081A-2111-436E-95F9-460B0705E2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="87">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -692,8 +692,8 @@
   <dimension ref="A1:CA141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15085,6 +15085,9 @@
       <c r="F78" s="6">
         <v>45639.599224537043</v>
       </c>
+      <c r="G78" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="H78" s="5" t="s">
         <v>86</v>
       </c>
@@ -21091,6 +21094,9 @@
       <c r="F108" s="2">
         <v>45639.599224537043</v>
       </c>
+      <c r="G108" t="s">
+        <v>86</v>
+      </c>
       <c r="H108" s="3" t="s">
         <v>86</v>
       </c>
@@ -22467,6 +22473,9 @@
       <c r="F115" s="2">
         <v>45639.599224537043</v>
       </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
       <c r="H115" s="3" t="s">
         <v>86</v>
       </c>
@@ -26066,6 +26075,9 @@
       </c>
       <c r="F133" s="2">
         <v>45639.599224537043</v>
+      </c>
+      <c r="G133" t="s">
+        <v>86</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>86</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0050081A-2111-436E-95F9-460B0705E2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548BB8B1-9146-48B3-AB68-E3BD24025C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="87">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -692,8 +692,8 @@
   <dimension ref="A1:CA141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15085,9 +15085,6 @@
       <c r="F78" s="6">
         <v>45639.599224537043</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="H78" s="5" t="s">
         <v>86</v>
       </c>
@@ -21094,9 +21091,6 @@
       <c r="F108" s="2">
         <v>45639.599224537043</v>
       </c>
-      <c r="G108" t="s">
-        <v>86</v>
-      </c>
       <c r="H108" s="3" t="s">
         <v>86</v>
       </c>
@@ -22473,9 +22467,6 @@
       <c r="F115" s="2">
         <v>45639.599224537043</v>
       </c>
-      <c r="G115" t="s">
-        <v>86</v>
-      </c>
       <c r="H115" s="3" t="s">
         <v>86</v>
       </c>
@@ -26075,9 +26066,6 @@
       </c>
       <c r="F133" s="2">
         <v>45639.599224537043</v>
-      </c>
-      <c r="G133" t="s">
-        <v>86</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>86</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548BB8B1-9146-48B3-AB68-E3BD24025C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4182236-2440-45D3-9B4D-B2793071C6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="87">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -692,8 +692,8 @@
   <dimension ref="A1:CA141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15085,6 +15085,9 @@
       <c r="F78" s="6">
         <v>45639.599224537043</v>
       </c>
+      <c r="G78" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="H78" s="5" t="s">
         <v>86</v>
       </c>
@@ -21091,6 +21094,9 @@
       <c r="F108" s="2">
         <v>45639.599224537043</v>
       </c>
+      <c r="G108" t="s">
+        <v>86</v>
+      </c>
       <c r="H108" s="3" t="s">
         <v>86</v>
       </c>
@@ -22467,6 +22473,9 @@
       <c r="F115" s="2">
         <v>45639.599224537043</v>
       </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
       <c r="H115" s="3" t="s">
         <v>86</v>
       </c>
@@ -26066,6 +26075,9 @@
       </c>
       <c r="F133" s="2">
         <v>45639.599224537043</v>
+      </c>
+      <c r="G133" t="s">
+        <v>86</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>86</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4182236-2440-45D3-9B4D-B2793071C6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42BC72D-7EC6-44E9-9D79-46F8C27606EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="86">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>Όχι</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -692,8 +689,8 @@
   <dimension ref="A1:CA141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15086,10 +15083,10 @@
         <v>45639.599224537043</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="H78" s="5">
+        <v>53</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>81</v>
@@ -21095,10 +21092,10 @@
         <v>45639.599224537043</v>
       </c>
       <c r="G108" t="s">
-        <v>86</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="H108" s="3">
+        <v>57</v>
       </c>
       <c r="I108" t="s">
         <v>81</v>
@@ -22474,10 +22471,10 @@
         <v>45639.599224537043</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="H115" s="3">
+        <v>29</v>
       </c>
       <c r="I115" t="s">
         <v>81</v>
@@ -26077,10 +26074,10 @@
         <v>45639.599224537043</v>
       </c>
       <c r="G133" t="s">
-        <v>86</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="H133" s="3">
+        <v>42</v>
       </c>
       <c r="I133" t="s">
         <v>81</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42BC72D-7EC6-44E9-9D79-46F8C27606EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0524D-F78B-41FE-9D3A-BB6CE87175E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="86">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -689,8 +689,8 @@
   <dimension ref="A1:CA141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I134" sqref="I134"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15082,9 +15082,6 @@
       <c r="F78" s="6">
         <v>45639.599224537043</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="H78" s="5">
         <v>53</v>
       </c>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0524D-F78B-41FE-9D3A-BB6CE87175E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9014AFB-C410-47A4-9D09-224045EEC2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="86">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -689,8 +689,8 @@
   <dimension ref="A1:CA141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15082,6 +15082,9 @@
       <c r="F78" s="6">
         <v>45639.599224537043</v>
       </c>
+      <c r="G78" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="H78" s="5">
         <v>53</v>
       </c>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8FC5C9-AE2F-499B-B52A-52E12BBAC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0833CD4C-51F5-4A7B-882A-BA0D86EDB83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,9 +741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H142" sqref="H142"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BL2" sqref="BL2:BL99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,12 +1150,6 @@
       <c r="BI2">
         <v>6</v>
       </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
       <c r="BO2">
         <v>24.5</v>
       </c>
@@ -1359,12 +1353,6 @@
       <c r="BI3">
         <v>2</v>
       </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
       <c r="BO3">
         <v>19</v>
       </c>
@@ -1568,12 +1556,6 @@
       <c r="BI4">
         <v>20</v>
       </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
       <c r="BP4">
         <v>2.09</v>
       </c>
@@ -1741,12 +1723,6 @@
       <c r="BI5">
         <v>4</v>
       </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
       <c r="BO5">
         <v>34.5</v>
       </c>
@@ -1920,12 +1896,6 @@
       <c r="BI6">
         <v>1</v>
       </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
       <c r="BO6">
         <v>23.5</v>
       </c>
@@ -2099,12 +2069,6 @@
       <c r="BI7">
         <v>2</v>
       </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
       <c r="BO7">
         <v>36.5</v>
       </c>
@@ -2278,12 +2242,6 @@
       <c r="BI8">
         <v>1</v>
       </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
       <c r="BO8">
         <v>16</v>
       </c>
@@ -2487,12 +2445,6 @@
       <c r="BI9">
         <v>7</v>
       </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
       <c r="BO9">
         <v>42.5</v>
       </c>
@@ -2666,12 +2618,6 @@
       <c r="BI10">
         <v>1</v>
       </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
       <c r="BO10">
         <v>22.5</v>
       </c>
@@ -2860,12 +2806,6 @@
       <c r="BI11">
         <v>4</v>
       </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
       <c r="BO11">
         <v>24.5</v>
       </c>
@@ -3039,12 +2979,6 @@
       <c r="BI12">
         <v>4</v>
       </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
       <c r="BO12">
         <v>26.5</v>
       </c>
@@ -3218,12 +3152,6 @@
       <c r="BI13">
         <v>9</v>
       </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
       <c r="BO13">
         <v>29.5</v>
       </c>
@@ -3397,12 +3325,6 @@
       <c r="BI14">
         <v>11</v>
       </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
       <c r="BO14">
         <v>26.5</v>
       </c>
@@ -3591,12 +3513,6 @@
       <c r="BI15">
         <v>3</v>
       </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>0</v>
-      </c>
       <c r="BO15">
         <v>75</v>
       </c>
@@ -3770,12 +3686,6 @@
       <c r="BI16">
         <v>1</v>
       </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
       <c r="BO16">
         <v>20.5</v>
       </c>
@@ -3949,12 +3859,6 @@
       <c r="BI17">
         <v>0</v>
       </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
       <c r="BO17">
         <v>18.5</v>
       </c>
@@ -4128,12 +4032,6 @@
       <c r="BI18">
         <v>2</v>
       </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
       <c r="BO18">
         <v>32</v>
       </c>
@@ -4301,12 +4199,6 @@
       <c r="BI19">
         <v>7</v>
       </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
       <c r="BO19">
         <v>15.5</v>
       </c>
@@ -4480,12 +4372,6 @@
       <c r="BI20">
         <v>8</v>
       </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
       <c r="BO20">
         <v>16</v>
       </c>
@@ -4659,12 +4545,6 @@
       <c r="BI21">
         <v>1</v>
       </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>0</v>
-      </c>
       <c r="BO21">
         <v>21</v>
       </c>
@@ -4838,12 +4718,6 @@
       <c r="BI22">
         <v>1</v>
       </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>0</v>
-      </c>
       <c r="BO22">
         <v>16</v>
       </c>
@@ -5044,12 +4918,6 @@
       <c r="BI23">
         <v>1</v>
       </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>0</v>
-      </c>
       <c r="BO23">
         <v>24.5</v>
       </c>
@@ -5223,12 +5091,6 @@
       <c r="BI24">
         <v>5</v>
       </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
-        <v>0</v>
-      </c>
       <c r="BO24">
         <v>33.5</v>
       </c>
@@ -5402,12 +5264,6 @@
       <c r="BI25">
         <v>2</v>
       </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
-        <v>0</v>
-      </c>
       <c r="BO25">
         <v>47.5</v>
       </c>
@@ -5581,12 +5437,6 @@
       <c r="BI26">
         <v>3</v>
       </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>0</v>
-      </c>
       <c r="BO26">
         <v>15.5</v>
       </c>
@@ -5760,12 +5610,6 @@
       <c r="BI27">
         <v>10</v>
       </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BN27">
-        <v>0</v>
-      </c>
       <c r="BO27">
         <v>21.5</v>
       </c>
@@ -5936,12 +5780,6 @@
       <c r="BI28">
         <v>12</v>
       </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BN28">
-        <v>0</v>
-      </c>
       <c r="BO28">
         <v>30.5</v>
       </c>
@@ -6106,12 +5944,6 @@
       <c r="BI29">
         <v>3</v>
       </c>
-      <c r="BL29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>0</v>
-      </c>
       <c r="BO29">
         <v>21.5</v>
       </c>
@@ -6285,12 +6117,6 @@
       <c r="BI30">
         <v>3</v>
       </c>
-      <c r="BL30">
-        <v>0</v>
-      </c>
-      <c r="BN30">
-        <v>0</v>
-      </c>
       <c r="BO30">
         <v>24.5</v>
       </c>
@@ -6464,12 +6290,6 @@
       <c r="BI31">
         <v>2</v>
       </c>
-      <c r="BL31">
-        <v>0</v>
-      </c>
-      <c r="BN31">
-        <v>0</v>
-      </c>
       <c r="BO31">
         <v>52.5</v>
       </c>
@@ -6643,12 +6463,6 @@
       <c r="BI32">
         <v>7</v>
       </c>
-      <c r="BL32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>0</v>
-      </c>
       <c r="BO32">
         <v>34.5</v>
       </c>
@@ -6819,12 +6633,6 @@
       <c r="BI33">
         <v>16</v>
       </c>
-      <c r="BL33">
-        <v>0</v>
-      </c>
-      <c r="BN33">
-        <v>0</v>
-      </c>
       <c r="BO33">
         <v>43.5</v>
       </c>
@@ -7028,12 +6836,6 @@
       <c r="BI34">
         <v>2</v>
       </c>
-      <c r="BL34">
-        <v>0</v>
-      </c>
-      <c r="BN34">
-        <v>0</v>
-      </c>
       <c r="BO34">
         <v>24.5</v>
       </c>
@@ -7207,12 +7009,6 @@
       <c r="BI35">
         <v>11</v>
       </c>
-      <c r="BL35">
-        <v>0</v>
-      </c>
-      <c r="BN35">
-        <v>0</v>
-      </c>
       <c r="BO35">
         <v>20</v>
       </c>
@@ -7416,12 +7212,6 @@
       <c r="BI36">
         <v>6</v>
       </c>
-      <c r="BL36">
-        <v>0</v>
-      </c>
-      <c r="BN36">
-        <v>0</v>
-      </c>
       <c r="BO36">
         <v>28.5</v>
       </c>
@@ -7595,12 +7385,6 @@
       <c r="BI37">
         <v>1</v>
       </c>
-      <c r="BL37">
-        <v>0</v>
-      </c>
-      <c r="BN37">
-        <v>0</v>
-      </c>
       <c r="BO37">
         <v>20</v>
       </c>
@@ -7774,12 +7558,6 @@
       <c r="BI38">
         <v>9</v>
       </c>
-      <c r="BL38">
-        <v>0</v>
-      </c>
-      <c r="BN38">
-        <v>0</v>
-      </c>
       <c r="BO38">
         <v>46.5</v>
       </c>
@@ -7953,12 +7731,6 @@
       <c r="BI39">
         <v>2</v>
       </c>
-      <c r="BL39">
-        <v>0</v>
-      </c>
-      <c r="BN39">
-        <v>0</v>
-      </c>
       <c r="BO39">
         <v>26.5</v>
       </c>
@@ -8162,12 +7934,6 @@
       <c r="BI40">
         <v>10</v>
       </c>
-      <c r="BL40">
-        <v>0</v>
-      </c>
-      <c r="BN40">
-        <v>0</v>
-      </c>
       <c r="BO40">
         <v>42</v>
       </c>
@@ -8371,12 +8137,6 @@
       <c r="BI41">
         <v>3</v>
       </c>
-      <c r="BL41">
-        <v>0</v>
-      </c>
-      <c r="BN41">
-        <v>0</v>
-      </c>
       <c r="BO41">
         <v>23</v>
       </c>
@@ -8550,12 +8310,6 @@
       <c r="BI42">
         <v>2</v>
       </c>
-      <c r="BL42">
-        <v>0</v>
-      </c>
-      <c r="BN42">
-        <v>0</v>
-      </c>
       <c r="BO42">
         <v>15</v>
       </c>
@@ -8759,12 +8513,6 @@
       <c r="BI43">
         <v>1</v>
       </c>
-      <c r="BL43">
-        <v>0</v>
-      </c>
-      <c r="BN43">
-        <v>0</v>
-      </c>
       <c r="BO43">
         <v>15.5</v>
       </c>
@@ -8965,12 +8713,6 @@
       <c r="BI44">
         <v>1</v>
       </c>
-      <c r="BL44">
-        <v>0</v>
-      </c>
-      <c r="BN44">
-        <v>0</v>
-      </c>
       <c r="BO44">
         <v>20</v>
       </c>
@@ -9171,12 +8913,6 @@
       <c r="BI45">
         <v>5</v>
       </c>
-      <c r="BL45">
-        <v>0</v>
-      </c>
-      <c r="BN45">
-        <v>0</v>
-      </c>
       <c r="BO45">
         <v>30.5</v>
       </c>
@@ -9350,12 +9086,6 @@
       <c r="BI46">
         <v>1</v>
       </c>
-      <c r="BL46">
-        <v>0</v>
-      </c>
-      <c r="BN46">
-        <v>0</v>
-      </c>
       <c r="BO46">
         <v>15.5</v>
       </c>
@@ -9529,12 +9259,6 @@
       <c r="BI47">
         <v>2</v>
       </c>
-      <c r="BL47">
-        <v>0</v>
-      </c>
-      <c r="BN47">
-        <v>0</v>
-      </c>
       <c r="BO47">
         <v>30</v>
       </c>
@@ -9708,12 +9432,6 @@
       <c r="BI48">
         <v>2</v>
       </c>
-      <c r="BL48">
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <v>0</v>
-      </c>
       <c r="BO48">
         <v>23</v>
       </c>
@@ -9917,12 +9635,6 @@
       <c r="BI49">
         <v>11</v>
       </c>
-      <c r="BL49">
-        <v>0</v>
-      </c>
-      <c r="BN49">
-        <v>0</v>
-      </c>
       <c r="BO49">
         <v>34</v>
       </c>
@@ -10126,12 +9838,6 @@
       <c r="BI50">
         <v>5</v>
       </c>
-      <c r="BL50">
-        <v>0</v>
-      </c>
-      <c r="BN50">
-        <v>0</v>
-      </c>
       <c r="BO50">
         <v>32.5</v>
       </c>
@@ -10302,12 +10008,6 @@
       <c r="BI51">
         <v>1</v>
       </c>
-      <c r="BL51">
-        <v>0</v>
-      </c>
-      <c r="BN51">
-        <v>0</v>
-      </c>
       <c r="BO51">
         <v>19.5</v>
       </c>
@@ -10481,12 +10181,6 @@
       <c r="BI52">
         <v>7</v>
       </c>
-      <c r="BL52">
-        <v>0</v>
-      </c>
-      <c r="BN52">
-        <v>0</v>
-      </c>
       <c r="BO52">
         <v>30.5</v>
       </c>
@@ -10687,12 +10381,6 @@
       <c r="BI53">
         <v>32</v>
       </c>
-      <c r="BL53">
-        <v>0</v>
-      </c>
-      <c r="BN53">
-        <v>0</v>
-      </c>
       <c r="BO53">
         <v>27</v>
       </c>
@@ -10860,12 +10548,6 @@
       <c r="BI54">
         <v>16</v>
       </c>
-      <c r="BL54">
-        <v>0</v>
-      </c>
-      <c r="BN54">
-        <v>0</v>
-      </c>
       <c r="BO54">
         <v>36.5</v>
       </c>
@@ -11069,12 +10751,6 @@
       <c r="BI55">
         <v>2</v>
       </c>
-      <c r="BL55">
-        <v>0</v>
-      </c>
-      <c r="BN55">
-        <v>0</v>
-      </c>
       <c r="BO55">
         <v>30.5</v>
       </c>
@@ -11248,12 +10924,6 @@
       <c r="BI56">
         <v>4</v>
       </c>
-      <c r="BL56">
-        <v>0</v>
-      </c>
-      <c r="BN56">
-        <v>0</v>
-      </c>
       <c r="BO56">
         <v>28.5</v>
       </c>
@@ -11424,12 +11094,6 @@
       <c r="BI57">
         <v>7</v>
       </c>
-      <c r="BL57">
-        <v>0</v>
-      </c>
-      <c r="BN57">
-        <v>0</v>
-      </c>
       <c r="BO57">
         <v>18.5</v>
       </c>
@@ -11594,12 +11258,6 @@
       <c r="BI58">
         <v>4</v>
       </c>
-      <c r="BL58">
-        <v>0</v>
-      </c>
-      <c r="BN58">
-        <v>0</v>
-      </c>
       <c r="BO58">
         <v>57.5</v>
       </c>
@@ -11803,12 +11461,6 @@
       <c r="BI59">
         <v>5</v>
       </c>
-      <c r="BL59">
-        <v>0</v>
-      </c>
-      <c r="BN59">
-        <v>0</v>
-      </c>
       <c r="BO59">
         <v>23.5</v>
       </c>
@@ -11982,12 +11634,6 @@
       <c r="BI60">
         <v>3</v>
       </c>
-      <c r="BL60">
-        <v>0</v>
-      </c>
-      <c r="BN60">
-        <v>0</v>
-      </c>
       <c r="BO60">
         <v>41</v>
       </c>
@@ -12161,12 +11807,6 @@
       <c r="BI61">
         <v>6</v>
       </c>
-      <c r="BL61">
-        <v>0</v>
-      </c>
-      <c r="BN61">
-        <v>0</v>
-      </c>
       <c r="BO61">
         <v>26</v>
       </c>
@@ -12256,12 +11896,6 @@
       <c r="AV62" t="s">
         <v>84</v>
       </c>
-      <c r="BL62">
-        <v>0</v>
-      </c>
-      <c r="BN62">
-        <v>0</v>
-      </c>
       <c r="BO62">
         <v>20.5</v>
       </c>
@@ -12462,12 +12096,6 @@
       <c r="BI63">
         <v>3</v>
       </c>
-      <c r="BL63">
-        <v>0</v>
-      </c>
-      <c r="BN63">
-        <v>0</v>
-      </c>
       <c r="BO63">
         <v>15.5</v>
       </c>
@@ -12671,12 +12299,6 @@
       <c r="BI64">
         <v>4</v>
       </c>
-      <c r="BL64">
-        <v>0</v>
-      </c>
-      <c r="BN64">
-        <v>0</v>
-      </c>
       <c r="BO64">
         <v>56.5</v>
       </c>
@@ -12850,12 +12472,6 @@
       <c r="BI65">
         <v>3</v>
       </c>
-      <c r="BL65">
-        <v>0</v>
-      </c>
-      <c r="BN65">
-        <v>0</v>
-      </c>
       <c r="BO65">
         <v>27.5</v>
       </c>
@@ -13029,12 +12645,6 @@
       <c r="BI66">
         <v>7</v>
       </c>
-      <c r="BL66">
-        <v>0</v>
-      </c>
-      <c r="BN66">
-        <v>0</v>
-      </c>
       <c r="BO66">
         <v>48.5</v>
       </c>
@@ -13238,12 +12848,6 @@
       <c r="BI67">
         <v>2</v>
       </c>
-      <c r="BL67">
-        <v>0</v>
-      </c>
-      <c r="BN67">
-        <v>0</v>
-      </c>
       <c r="BO67">
         <v>40.5</v>
       </c>
@@ -13417,12 +13021,6 @@
       <c r="BI68">
         <v>2</v>
       </c>
-      <c r="BL68">
-        <v>0</v>
-      </c>
-      <c r="BN68">
-        <v>0</v>
-      </c>
       <c r="BO68">
         <v>43.5</v>
       </c>
@@ -13626,12 +13224,6 @@
       <c r="BI69">
         <v>2</v>
       </c>
-      <c r="BL69">
-        <v>0</v>
-      </c>
-      <c r="BN69">
-        <v>0</v>
-      </c>
       <c r="BO69">
         <v>25</v>
       </c>
@@ -13921,12 +13513,6 @@
       <c r="BI71">
         <v>22</v>
       </c>
-      <c r="BL71">
-        <v>0</v>
-      </c>
-      <c r="BN71">
-        <v>0</v>
-      </c>
       <c r="BO71">
         <v>25.5</v>
       </c>
@@ -14096,12 +13682,6 @@
       </c>
       <c r="BI72">
         <v>3</v>
-      </c>
-      <c r="BL72">
-        <v>0</v>
-      </c>
-      <c r="BN72">
-        <v>0</v>
       </c>
       <c r="BO72">
         <v>22</v>

--- a/Export_Vidavo_sep_2024_final.xlsx
+++ b/Export_Vidavo_sep_2024_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Streamlit Apps\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0833CD4C-51F5-4A7B-882A-BA0D86EDB83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1ADE6A-49C6-4D0C-A4C2-5A7FD840FD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -432,6 +432,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -741,12 +748,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL2" sqref="BL2:BL99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="8.88671875" style="22"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:79" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
@@ -779,7 +789,7 @@
       <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
@@ -1015,7 +1025,7 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="22">
         <v>40.1</v>
       </c>
       <c r="M2">
@@ -1218,7 +1228,7 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="22">
         <v>30.6</v>
       </c>
       <c r="M3">
@@ -1421,7 +1431,7 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="22">
         <v>42.2</v>
       </c>
       <c r="M4">
@@ -1618,7 +1628,7 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="22">
         <v>25</v>
       </c>
       <c r="M5">
@@ -1791,7 +1801,7 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="22">
         <v>25.1</v>
       </c>
       <c r="M6">
@@ -1964,7 +1974,7 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="22">
         <v>31.2</v>
       </c>
       <c r="M7">
@@ -2137,7 +2147,7 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="22">
         <v>17.899999999999999</v>
       </c>
       <c r="M8">
@@ -2310,7 +2320,7 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="22">
         <v>26.4</v>
       </c>
       <c r="M9">
@@ -2513,7 +2523,7 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="22">
         <v>22.8</v>
       </c>
       <c r="M10">
@@ -2686,7 +2696,7 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="22">
         <v>27.5</v>
       </c>
       <c r="M11">
@@ -2874,7 +2884,7 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="22">
         <v>26.6</v>
       </c>
       <c r="M12">
@@ -3047,7 +3057,7 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="22">
         <v>27.1</v>
       </c>
       <c r="M13">
@@ -3220,7 +3230,7 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="22">
         <v>36.799999999999997</v>
       </c>
       <c r="M14">
@@ -3393,7 +3403,7 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="22">
         <v>29.4</v>
       </c>
       <c r="M15">
@@ -3581,7 +3591,7 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="22">
         <v>18.8</v>
       </c>
       <c r="M16">
@@ -3754,7 +3764,7 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="22">
         <v>26.9</v>
       </c>
       <c r="M17">
@@ -3927,7 +3937,7 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="22">
         <v>26.9</v>
       </c>
       <c r="M18">
@@ -4097,7 +4107,7 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="22">
         <v>33.299999999999997</v>
       </c>
       <c r="M19">
@@ -4267,7 +4277,7 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="22">
         <v>27.4</v>
       </c>
       <c r="M20">
@@ -4440,7 +4450,7 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="22">
         <v>25.7</v>
       </c>
       <c r="M21">
@@ -4613,7 +4623,7 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="22">
         <v>26.1</v>
       </c>
       <c r="M22">
@@ -4786,7 +4796,7 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="22">
         <v>20.8</v>
       </c>
       <c r="M23">
@@ -4986,7 +4996,7 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="22">
         <v>26.8</v>
       </c>
       <c r="M24">
@@ -5159,7 +5169,7 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="22">
         <v>27.7</v>
       </c>
       <c r="M25">
@@ -5332,7 +5342,7 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="22">
         <v>21.8</v>
       </c>
       <c r="M26">
@@ -5505,7 +5515,7 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="22">
         <v>25.9</v>
       </c>
       <c r="M27">
@@ -5678,7 +5688,7 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="22">
         <v>35.799999999999997</v>
       </c>
       <c r="M28">
@@ -5848,7 +5858,7 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="22">
         <v>27.2</v>
       </c>
       <c r="M29">
@@ -6012,7 +6022,7 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="22">
         <v>25.5</v>
       </c>
       <c r="M30">
@@ -6185,7 +6195,7 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="22">
         <v>35.9</v>
       </c>
       <c r="M31">
@@ -6358,7 +6368,7 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="22">
         <v>28.4</v>
       </c>
       <c r="M32">
@@ -6531,7 +6541,7 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="22">
         <v>29.1</v>
       </c>
       <c r="M33">
@@ -6701,7 +6711,7 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="22">
         <v>31.4</v>
       </c>
       <c r="M34">
@@ -6904,7 +6914,7 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="22">
         <v>27.8</v>
       </c>
       <c r="M35">
@@ -7077,7 +7087,7 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="22">
         <v>27.8</v>
       </c>
       <c r="M36">
@@ -7280,7 +7290,7 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="22">
         <v>31.1</v>
       </c>
       <c r="M37">
@@ -7453,7 +7463,7 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="22">
         <v>23.1</v>
       </c>
       <c r="M38">
@@ -7626,7 +7636,7 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="22">
         <v>20.100000000000001</v>
       </c>
       <c r="M39">
@@ -7799,7 +7809,7 @@
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="22">
         <v>27.1</v>
       </c>
       <c r="M40">
@@ -8002,7 +8012,7 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="22">
         <v>33.4</v>
       </c>
       <c r="M41">
@@ -8205,7 +8215,7 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="22">
         <v>26.6</v>
       </c>
       <c r="M42">
@@ -8378,7 +8388,7 @@
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="22">
         <v>29.8</v>
       </c>
       <c r="M43">
@@ -8581,7 +8591,7 @@
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="22">
         <v>27.5</v>
       </c>
       <c r="M44">
@@ -8781,7 +8791,7 @@
       <c r="K45">
         <v>0</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="22">
         <v>28.4</v>
       </c>
       <c r="M45">
@@ -8981,7 +8991,7 @@
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="22">
         <v>25.3</v>
       </c>
       <c r="M46">
@@ -9154,7 +9164,7 @@
       <c r="K47">
         <v>0</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="22">
         <v>29.1</v>
       </c>
       <c r="M47">
@@ -9327,7 +9337,7 @@
       <c r="K48">
         <v>0</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="22">
         <v>23.1</v>
       </c>
       <c r="M48">
@@ -9500,7 +9510,7 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="22">
         <v>25.1</v>
       </c>
       <c r="M49">
@@ -9703,7 +9713,7 @@
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="22">
         <v>25.9</v>
       </c>
       <c r="M50">
@@ -9906,7 +9916,7 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="22">
         <v>25</v>
       </c>
       <c r="M51">
@@ -10076,7 +10086,7 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="22">
         <v>39.9</v>
       </c>
       <c r="M52">
@@ -10249,7 +10259,7 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="22">
         <v>29.2</v>
       </c>
       <c r="M53">
@@ -10449,7 +10459,7 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="22">
         <v>28.7</v>
       </c>
       <c r="O54">
@@ -10616,7 +10626,7 @@
       <c r="K55">
         <v>0</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="22">
         <v>38.9</v>
       </c>
       <c r="M55">
@@ -10819,7 +10829,7 @@
       <c r="K56">
         <v>0</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="22">
         <v>29.1</v>
       </c>
       <c r="M56">
@@ -10992,7 +11002,7 @@
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="22">
         <v>29</v>
       </c>
       <c r="M57">
@@ -11159,7 +11169,7 @@
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="22">
         <v>37.9</v>
       </c>
       <c r="O58">
@@ -11326,7 +11336,7 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="22">
         <v>28.1</v>
       </c>
       <c r="M59">
@@ -11529,7 +11539,7 @@
       <c r="K60">
         <v>0</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="22">
         <v>32.5</v>
       </c>
       <c r="M60">
@@ -11702,7 +11712,7 @@
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="22">
         <v>45.3</v>
       </c>
       <c r="M61">
@@ -11872,7 +11882,7 @@
       <c r="K62">
         <v>0</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="22">
         <v>20.8</v>
       </c>
       <c r="M62">
@@ -11964,7 +11974,7 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="22">
         <v>30.5</v>
       </c>
       <c r="M63">
@@ -12164,7 +12174,7 @@
       <c r="K64">
         <v>0</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="22">
         <v>32.4</v>
       </c>
       <c r="M64">
@@ -12367,7 +12377,7 @@
       <c r="K65">
         <v>0</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="22">
         <v>25.9</v>
       </c>
       <c r="M65">
@@ -12540,7 +12550,7 @@
       <c r="K66">
         <v>0</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="22">
         <v>26.8</v>
       </c>
       <c r="M66">
@@ -12713,7 +12723,7 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="22">
         <v>38.1</v>
       </c>
       <c r="M67">
@@ -12916,7 +12926,7 @@
       <c r="K68">
         <v>0</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="22">
         <v>25.5</v>
       </c>
       <c r="M68">
@@ -13089,7 +13099,7 @@
       <c r="K69">
         <v>0</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="22">
         <v>32.299999999999997</v>
       </c>
       <c r="M69">
@@ -13408,7 +13418,7 @@
       <c r="K71">
         <v>0</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="22">
         <v>28.6</v>
       </c>
       <c r="M71">
@@ -13581,7 +13591,7 @@
       <c r="K72">
         <v>0</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="22">
         <v>31.7</v>
       </c>
       <c r="M72">
@@ -13748,7 +13758,7 @@
       <c r="I73" t="s">
         <v>81</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="22">
         <v>39.799999999999997</v>
       </c>
       <c r="M73">
@@ -14151,7 +14161,7 @@
       <c r="I75" t="s">
         <v>81</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="22">
         <v>30.5</v>
       </c>
       <c r="M75">
@@ -14357,7 +14367,7 @@
       <c r="I76" t="s">
         <v>81</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="22">
         <v>35.5</v>
       </c>
       <c r="M76">
@@ -14560,7 +14570,7 @@
       <c r="I77" t="s">
         <v>81</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="22">
         <v>24.3</v>
       </c>
       <c r="M77">
@@ -14724,7 +14734,7 @@
       <c r="I78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="22">
         <v>24.5</v>
       </c>
       <c r="O78" s="5">
@@ -14912,7 +14922,7 @@
       <c r="I79" t="s">
         <v>81</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="22">
         <v>28.5</v>
       </c>
       <c r="M79">
@@ -15118,7 +15128,7 @@
       <c r="I80" t="s">
         <v>81</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="22">
         <v>27.4</v>
       </c>
       <c r="M80">
@@ -15324,7 +15334,7 @@
       <c r="I81" t="s">
         <v>81</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="22">
         <v>29</v>
       </c>
       <c r="M81">
@@ -15530,7 +15540,7 @@
       <c r="I82" t="s">
         <v>81</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="22">
         <v>25</v>
       </c>
       <c r="M82">
@@ -15733,7 +15743,7 @@
       <c r="I83" t="s">
         <v>81</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="22">
         <v>26.1</v>
       </c>
       <c r="M83">
@@ -15936,7 +15946,7 @@
       <c r="I84" t="s">
         <v>81</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="22">
         <v>24.6</v>
       </c>
       <c r="M84">
@@ -16139,7 +16149,7 @@
       <c r="I85" t="s">
         <v>81</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="22">
         <v>20.7</v>
       </c>
       <c r="M85">
@@ -16345,7 +16355,7 @@
       <c r="I86" t="s">
         <v>81</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="22">
         <v>26.2</v>
       </c>
       <c r="M86">
@@ -16533,7 +16543,7 @@
       <c r="I87" t="s">
         <v>81</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="22">
         <v>34.700000000000003</v>
       </c>
       <c r="M87">
@@ -16739,7 +16749,7 @@
       <c r="I88" t="s">
         <v>81</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="22">
         <v>23.2</v>
       </c>
       <c r="M88">
@@ -16945,7 +16955,7 @@
       <c r="I89" t="s">
         <v>81</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="22">
         <v>39.200000000000003</v>
       </c>
       <c r="M89">
@@ -17151,7 +17161,7 @@
       <c r="I90" t="s">
         <v>81</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="22">
         <v>25.9</v>
       </c>
       <c r="M90">
@@ -17357,7 +17367,7 @@
       <c r="I91" t="s">
         <v>81</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="22">
         <v>28</v>
       </c>
       <c r="M91">
@@ -17560,7 +17570,7 @@
       <c r="I92" t="s">
         <v>81</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="22">
         <v>22.1</v>
       </c>
       <c r="M92">
@@ -17766,7 +17776,7 @@
       <c r="I93" t="s">
         <v>81</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="22">
         <v>35.299999999999997</v>
       </c>
       <c r="M93">
@@ -17972,7 +17982,7 @@
       <c r="I94" t="s">
         <v>81</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="22">
         <v>33.5</v>
       </c>
       <c r="M94">
@@ -18178,7 +18188,7 @@
       <c r="I95" t="s">
         <v>81</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="22">
         <v>30.9</v>
       </c>
       <c r="M95">
@@ -18381,7 +18391,7 @@
       <c r="I96" t="s">
         <v>81</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="22">
         <v>31.2</v>
       </c>
       <c r="M96">
@@ -18584,7 +18594,7 @@
       <c r="I97" t="s">
         <v>81</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="22">
         <v>22.6</v>
       </c>
       <c r="M97">
@@ -18787,7 +18797,7 @@
       <c r="I98" t="s">
         <v>81</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="22">
         <v>29.4</v>
       </c>
       <c r="M98">
@@ -18993,7 +19003,7 @@
       <c r="I99" t="s">
         <v>81</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="22">
         <v>24.7</v>
       </c>
       <c r="M99">
@@ -19196,7 +19206,7 @@
       <c r="I100" t="s">
         <v>81</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="22">
         <v>24.8</v>
       </c>
       <c r="M100">
@@ -19769,7 +19779,7 @@
       <c r="I103" t="s">
         <v>81</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="22">
         <v>20.8</v>
       </c>
       <c r="M103">
@@ -19972,7 +19982,7 @@
       <c r="I104" t="s">
         <v>81</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="22">
         <v>26.9</v>
       </c>
       <c r="M104">
@@ -20539,7 +20549,7 @@
       <c r="I107" t="s">
         <v>81</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="22">
         <v>24.7</v>
       </c>
       <c r="M107">
@@ -20885,7 +20895,7 @@
       <c r="I109" t="s">
         <v>81</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="22">
         <v>25.3</v>
       </c>
       <c r="M109">
@@ -21091,7 +21101,7 @@
       <c r="I110" t="s">
         <v>81</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="22">
         <v>30.1</v>
       </c>
       <c r="M110">
@@ -21297,7 +21307,7 @@
       <c r="I111" t="s">
         <v>81</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="22">
         <v>29</v>
       </c>
       <c r="M111">
@@ -21500,7 +21510,7 @@
       <c r="I112" t="s">
         <v>81</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="22">
         <v>30.4</v>
       </c>
       <c r="M112">
@@ -21706,7 +21716,7 @@
       <c r="I113" t="s">
         <v>81</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="22">
         <v>28.1</v>
       </c>
       <c r="M113">
@@ -21912,7 +21922,7 @@
       <c r="I114" t="s">
         <v>81</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="22">
         <v>20.8</v>
       </c>
       <c r="M114">
@@ -22112,7 +22122,7 @@
       <c r="I115" t="s">
         <v>81</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="22">
         <v>23.1</v>
       </c>
       <c r="N115">
@@ -22303,7 +22313,7 @@
       <c r="I116" t="s">
         <v>81</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="22">
         <v>22.6</v>
       </c>
       <c r="M116">
@@ -22509,7 +22519,7 @@
       <c r="I117" t="s">
         <v>81</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="22">
         <v>31.3</v>
       </c>
       <c r="M117">
@@ -22706,7 +22716,7 @@
       <c r="I118" t="s">
         <v>81</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="22">
         <v>34.1</v>
       </c>
       <c r="M118">
@@ -23103,7 +23113,7 @@
       <c r="I120" t="s">
         <v>81</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="22">
         <v>22.8</v>
       </c>
       <c r="M120">
@@ -23309,7 +23319,7 @@
       <c r="I121" t="s">
         <v>81</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="22">
         <v>23.9</v>
       </c>
       <c r="M121">
@@ -23515,7 +23525,7 @@
       <c r="I122" t="s">
         <v>81</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="22">
         <v>25.7</v>
       </c>
       <c r="M122">
@@ -23718,7 +23728,7 @@
       <c r="I123" t="s">
         <v>81</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="22">
         <v>32.299999999999997</v>
       </c>
       <c r="M123">
@@ -23921,7 +23931,7 @@
       <c r="I124" t="s">
         <v>81</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="22">
         <v>29.2</v>
       </c>
       <c r="M124">
@@ -24321,7 +24331,7 @@
       <c r="I126" t="s">
         <v>81</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="22">
         <v>28.7</v>
       </c>
       <c r="M126">
@@ -24524,7 +24534,7 @@
       <c r="I127" t="s">
         <v>81</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="22">
         <v>30.1</v>
       </c>
       <c r="M127">
@@ -24700,7 +24710,7 @@
       <c r="I128" t="s">
         <v>81</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="22">
         <v>26.3</v>
       </c>
       <c r="M128">
@@ -24903,7 +24913,7 @@
       <c r="I129" t="s">
         <v>81</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="22">
         <v>29.9</v>
       </c>
       <c r="M129">
@@ -25106,7 +25116,7 @@
       <c r="I130" t="s">
         <v>81</v>
       </c>
-      <c r="L130">
+      <c r="L130" s="22">
         <v>38.700000000000003</v>
       </c>
       <c r="M130">
@@ -25312,7 +25322,7 @@
       <c r="I131" t="s">
         <v>81</v>
       </c>
-      <c r="L131">
+      <c r="L131" s="22">
         <v>30.1</v>
       </c>
       <c r="M131">
@@ -25515,7 +25525,7 @@
       <c r="I132" t="s">
         <v>81</v>
       </c>
-      <c r="L132">
+      <c r="L132" s="22">
         <v>30.8</v>
       </c>
       <c r="M132">
@@ -25715,7 +25725,7 @@
       <c r="I133" t="s">
         <v>81</v>
       </c>
-      <c r="L133">
+      <c r="L133" s="22">
         <v>27.4</v>
       </c>
       <c r="O133">
@@ -25855,7 +25865,7 @@
       <c r="I134" t="s">
         <v>81</v>
       </c>
-      <c r="L134">
+      <c r="L134" s="22">
         <v>21</v>
       </c>
       <c r="M134">
@@ -26061,7 +26071,7 @@
       <c r="I135" t="s">
         <v>81</v>
       </c>
-      <c r="L135">
+      <c r="L135" s="22">
         <v>22.9</v>
       </c>
       <c r="M135">
@@ -26264,7 +26274,7 @@
       <c r="I136" t="s">
         <v>81</v>
       </c>
-      <c r="L136">
+      <c r="L136" s="22">
         <v>25.2</v>
       </c>
       <c r="M136">
@@ -26652,7 +26662,7 @@
       <c r="I138" t="s">
         <v>81</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="22">
         <v>27.7</v>
       </c>
       <c r="M138">
@@ -26855,7 +26865,7 @@
       <c r="I139" t="s">
         <v>81</v>
       </c>
-      <c r="L139">
+      <c r="L139" s="22">
         <v>35.6</v>
       </c>
       <c r="M139">
@@ -27052,7 +27062,7 @@
       <c r="I140" t="s">
         <v>81</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="22">
         <v>24.5</v>
       </c>
       <c r="M140">
@@ -27448,7 +27458,7 @@
       </c>
       <c r="J142" s="16"/>
       <c r="K142" s="16"/>
-      <c r="L142" s="16">
+      <c r="L142" s="23">
         <v>36.5</v>
       </c>
       <c r="M142" s="16">
@@ -27662,7 +27672,7 @@
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
-      <c r="L143" s="9">
+      <c r="L143" s="23">
         <v>24.7</v>
       </c>
       <c r="M143" s="9">
@@ -27870,7 +27880,7 @@
       </c>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
-      <c r="L144" s="9">
+      <c r="L144" s="23">
         <v>23.8</v>
       </c>
       <c r="M144" s="9">
@@ -28084,7 +28094,7 @@
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
-      <c r="L145" s="9">
+      <c r="L145" s="23">
         <v>27.3</v>
       </c>
       <c r="M145" s="9">
@@ -28300,7 +28310,7 @@
       </c>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
-      <c r="L146" s="9">
+      <c r="L146" s="23">
         <v>26.3</v>
       </c>
       <c r="M146" s="9">
@@ -28514,7 +28524,7 @@
       </c>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
-      <c r="L147" s="9">
+      <c r="L147" s="23">
         <v>27.3</v>
       </c>
       <c r="M147" s="9">
@@ -28722,7 +28732,7 @@
       </c>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
-      <c r="L148" s="9">
+      <c r="L148" s="23">
         <v>31.8</v>
       </c>
       <c r="M148" s="9">
@@ -28936,7 +28946,7 @@
       </c>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
-      <c r="L149" s="9">
+      <c r="L149" s="23">
         <v>26.3</v>
       </c>
       <c r="M149" s="9">
@@ -29144,7 +29154,7 @@
       </c>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
-      <c r="L150" s="9">
+      <c r="L150" s="23">
         <v>41.1</v>
       </c>
       <c r="M150" s="9">
@@ -29336,7 +29346,7 @@
       </c>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
-      <c r="L151" s="9">
+      <c r="L151" s="23">
         <v>32.200000000000003</v>
       </c>
       <c r="M151" s="9">
@@ -29474,8 +29484,8 @@
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
-      <c r="L152" s="9">
-        <v>176.9</v>
+      <c r="L152" s="23">
+        <v>30.1</v>
       </c>
       <c r="M152" s="9">
         <v>0.2</v>
@@ -29684,7 +29694,7 @@
       </c>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
-      <c r="L153" s="9">
+      <c r="L153" s="23">
         <v>24.2</v>
       </c>
       <c r="M153" s="9">
@@ -29890,7 +29900,7 @@
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
-      <c r="L154" s="9">
+      <c r="L154" s="23">
         <v>19.100000000000001</v>
       </c>
       <c r="M154" s="9"/>
@@ -30084,7 +30094,7 @@
       </c>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
+      <c r="L155" s="23"/>
       <c r="M155" s="9">
         <v>0.05</v>
       </c>
@@ -30290,7 +30300,7 @@
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
-      <c r="L156" s="9">
+      <c r="L156" s="23">
         <v>24.9</v>
       </c>
       <c r="M156" s="9">
@@ -30506,7 +30516,7 @@
       </c>
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
-      <c r="L157" s="9">
+      <c r="L157" s="23">
         <v>27</v>
       </c>
       <c r="M157" s="9">
@@ -30720,7 +30730,7 @@
       </c>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
-      <c r="L158" s="9">
+      <c r="L158" s="23">
         <v>27.1</v>
       </c>
       <c r="M158" s="9">
@@ -30934,7 +30944,7 @@
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
-      <c r="L159" s="9">
+      <c r="L159" s="23">
         <v>21.8</v>
       </c>
       <c r="M159" s="9">
@@ -31130,7 +31140,7 @@
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
-      <c r="L160" s="9">
+      <c r="L160" s="23">
         <v>32.1</v>
       </c>
       <c r="M160" s="9">
@@ -31344,8 +31354,8 @@
       </c>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
-      <c r="L161" s="9">
-        <v>183</v>
+      <c r="L161" s="23">
+        <v>29.9</v>
       </c>
       <c r="M161" s="9">
         <v>0.1</v>
@@ -31552,7 +31562,7 @@
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
-      <c r="L162" s="9">
+      <c r="L162" s="23">
         <v>18.600000000000001</v>
       </c>
       <c r="M162" s="9">
@@ -31766,7 +31776,7 @@
       </c>
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
-      <c r="L163" s="9">
+      <c r="L163" s="23">
         <v>35.1</v>
       </c>
       <c r="M163" s="9">
@@ -31980,7 +31990,7 @@
       </c>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
-      <c r="L164" s="9">
+      <c r="L164" s="23">
         <v>28.4</v>
       </c>
       <c r="M164" s="9">
@@ -32190,7 +32200,7 @@
       </c>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
-      <c r="L165" s="9">
+      <c r="L165" s="23">
         <v>19.2</v>
       </c>
       <c r="M165" s="9">
@@ -32392,7 +32402,7 @@
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
-      <c r="L166" s="9">
+      <c r="L166" s="23">
         <v>27.5</v>
       </c>
       <c r="M166" s="9">
@@ -32600,7 +32610,7 @@
       </c>
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
-      <c r="L167" s="9">
+      <c r="L167" s="23">
         <v>22.2</v>
       </c>
       <c r="M167" s="9">
@@ -32816,7 +32826,7 @@
       </c>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
+      <c r="L168" s="23"/>
       <c r="M168" s="9">
         <v>0.5</v>
       </c>
@@ -33024,7 +33034,7 @@
       </c>
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
-      <c r="L169" s="9">
+      <c r="L169" s="23">
         <v>30.4</v>
       </c>
       <c r="M169" s="9">
@@ -33238,7 +33248,7 @@
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
-      <c r="L170" s="9">
+      <c r="L170" s="23">
         <v>31.1</v>
       </c>
       <c r="M170" s="9">
@@ -33452,7 +33462,7 @@
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
-      <c r="L171" s="9">
+      <c r="L171" s="23">
         <v>28.1</v>
       </c>
       <c r="M171" s="9">
@@ -33666,7 +33676,7 @@
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
-      <c r="L172" s="9">
+      <c r="L172" s="23">
         <v>27.1</v>
       </c>
       <c r="M172" s="9">
@@ -33880,7 +33890,7 @@
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
-      <c r="L173" s="9">
+      <c r="L173" s="23">
         <v>25.4</v>
       </c>
       <c r="M173" s="9">
@@ -34090,7 +34100,7 @@
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
-      <c r="L174" s="9">
+      <c r="L174" s="23">
         <v>27.2</v>
       </c>
       <c r="M174" s="9">
@@ -34298,7 +34308,7 @@
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
-      <c r="L175" s="9">
+      <c r="L175" s="23">
         <v>30.8</v>
       </c>
       <c r="M175" s="9">
@@ -34510,7 +34520,7 @@
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
-      <c r="L176" s="9">
+      <c r="L176" s="23">
         <v>26.2</v>
       </c>
       <c r="M176" s="9">
@@ -34718,7 +34728,7 @@
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
-      <c r="L177" s="9">
+      <c r="L177" s="23">
         <v>19.399999999999999</v>
       </c>
       <c r="M177" s="9">
@@ -34932,7 +34942,7 @@
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
-      <c r="L178" s="9">
+      <c r="L178" s="23">
         <v>26</v>
       </c>
       <c r="M178" s="9">
@@ -35148,7 +35158,7 @@
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
-      <c r="L179" s="9">
+      <c r="L179" s="23">
         <v>21</v>
       </c>
       <c r="M179" s="9">
@@ -35362,7 +35372,7 @@
       </c>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
-      <c r="L180" s="9">
+      <c r="L180" s="23">
         <v>27.1</v>
       </c>
       <c r="M180" s="9">
@@ -35578,7 +35588,7 @@
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
-      <c r="L181" s="9">
+      <c r="L181" s="23">
         <v>20.5</v>
       </c>
       <c r="M181" s="9">
@@ -35786,7 +35796,7 @@
       </c>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
-      <c r="L182" s="9">
+      <c r="L182" s="23">
         <v>25.1</v>
       </c>
       <c r="M182" s="9">
@@ -36002,7 +36012,7 @@
       </c>
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
-      <c r="L183" s="9">
+      <c r="L183" s="23">
         <v>30.4</v>
       </c>
       <c r="M183" s="9">
@@ -36216,7 +36226,7 @@
       </c>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
-      <c r="L184" s="9">
+      <c r="L184" s="23">
         <v>28.2</v>
       </c>
       <c r="M184" s="9">
@@ -36424,7 +36434,7 @@
       </c>
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
-      <c r="L185" s="9">
+      <c r="L185" s="23">
         <v>36.1</v>
       </c>
       <c r="M185" s="9">
@@ -36638,7 +36648,7 @@
       </c>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
-      <c r="L186" s="9">
+      <c r="L186" s="23">
         <v>21.3</v>
       </c>
       <c r="M186" s="9">
@@ -36852,7 +36862,7 @@
       </c>
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
-      <c r="L187" s="9">
+      <c r="L187" s="23">
         <v>31.2</v>
       </c>
       <c r="M187" s="9">
@@ -37068,7 +37078,7 @@
       </c>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
-      <c r="L188" s="9">
+      <c r="L188" s="23">
         <v>32.700000000000003</v>
       </c>
       <c r="M188" s="9">
@@ -37284,7 +37294,7 @@
       </c>
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
-      <c r="L189" s="9">
+      <c r="L189" s="23">
         <v>27.5</v>
       </c>
       <c r="M189" s="9">
@@ -37496,7 +37506,7 @@
       </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
-      <c r="L190" s="9"/>
+      <c r="L190" s="23"/>
       <c r="M190" s="9">
         <v>0.2</v>
       </c>
@@ -37626,8 +37636,8 @@
       </c>
       <c r="J191" s="9"/>
       <c r="K191" s="9"/>
-      <c r="L191" s="9">
-        <v>337.2</v>
+      <c r="L191" s="23">
+        <v>24.6</v>
       </c>
       <c r="M191" s="9">
         <v>0.25</v>
@@ -37842,7 +37852,7 @@
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
-      <c r="L192" s="9">
+      <c r="L192" s="23">
         <v>23.4</v>
       </c>
       <c r="M192" s="9">
@@ -38056,7 +38066,7 @@
       </c>
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
-      <c r="L193" s="9">
+      <c r="L193" s="23">
         <v>20.3</v>
       </c>
       <c r="M193" s="9">
@@ -38270,7 +38280,7 @@
       </c>
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
-      <c r="L194" s="9">
+      <c r="L194" s="23">
         <v>17.3</v>
       </c>
       <c r="M194" s="9">
@@ -38464,7 +38474,7 @@
       </c>
       <c r="J195" s="9"/>
       <c r="K195" s="9"/>
-      <c r="L195" s="9">
+      <c r="L195" s="23">
         <v>30.8</v>
       </c>
       <c r="M195" s="9">
@@ -38678,7 +38688,7 @@
       </c>
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
-      <c r="L196" s="9">
+      <c r="L196" s="23">
         <v>20.100000000000001</v>
       </c>
       <c r="M196" s="9">
@@ -38892,7 +38902,7 @@
       </c>
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
-      <c r="L197" s="9">
+      <c r="L197" s="23">
         <v>31.8</v>
       </c>
       <c r="M197" s="9">
@@ -39108,7 +39118,7 @@
       </c>
       <c r="J198" s="9"/>
       <c r="K198" s="9"/>
-      <c r="L198" s="9">
+      <c r="L198" s="23">
         <v>26.3</v>
       </c>
       <c r="M198" s="9">
@@ -39322,7 +39332,7 @@
       </c>
       <c r="J199" s="9"/>
       <c r="K199" s="9"/>
-      <c r="L199" s="9"/>
+      <c r="L199" s="23"/>
       <c r="M199" s="9">
         <v>2</v>
       </c>
@@ -39530,7 +39540,7 @@
       </c>
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
-      <c r="L200" s="9">
+      <c r="L200" s="23">
         <v>30.9</v>
       </c>
       <c r="M200" s="9">
@@ -39740,7 +39750,7 @@
       </c>
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
-      <c r="L201" s="9">
+      <c r="L201" s="23">
         <v>34.799999999999997</v>
       </c>
       <c r="M201" s="9">
@@ -39954,7 +39964,7 @@
       </c>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
-      <c r="L202" s="9">
+      <c r="L202" s="23">
         <v>30.5</v>
       </c>
       <c r="M202" s="9">
@@ -40168,7 +40178,7 @@
       </c>
       <c r="J203" s="9"/>
       <c r="K203" s="9"/>
-      <c r="L203" s="9">
+      <c r="L203" s="23">
         <v>18.899999999999999</v>
       </c>
       <c r="M203" s="9">
@@ -40376,7 +40386,7 @@
       </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
-      <c r="L204" s="9">
+      <c r="L204" s="23">
         <v>30.4</v>
       </c>
       <c r="M204" s="9">
@@ -40590,7 +40600,7 @@
       </c>
       <c r="J205" s="9"/>
       <c r="K205" s="9"/>
-      <c r="L205" s="9">
+      <c r="L205" s="23">
         <v>28.3</v>
       </c>
       <c r="M205" s="9">
@@ -40804,7 +40814,7 @@
       </c>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
-      <c r="L206" s="9">
+      <c r="L206" s="23">
         <v>20.399999999999999</v>
       </c>
       <c r="M206" s="9">
@@ -41018,7 +41028,7 @@
       </c>
       <c r="J207" s="9"/>
       <c r="K207" s="9"/>
-      <c r="L207" s="9">
+      <c r="L207" s="23">
         <v>26.6</v>
       </c>
       <c r="M207" s="9">
@@ -41234,7 +41244,7 @@
       </c>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
-      <c r="L208" s="9">
+      <c r="L208" s="23">
         <v>29.1</v>
       </c>
       <c r="M208" s="9">
@@ -41448,7 +41458,7 @@
       </c>
       <c r="J209" s="9"/>
       <c r="K209" s="9"/>
-      <c r="L209" s="9">
+      <c r="L209" s="23">
         <v>24.2</v>
       </c>
       <c r="M209" s="9">
@@ -41664,7 +41674,7 @@
       </c>
       <c r="J210" s="9"/>
       <c r="K210" s="9"/>
-      <c r="L210" s="9">
+      <c r="L210" s="23">
         <v>18.3</v>
       </c>
       <c r="M210" s="9">
@@ -41878,7 +41888,7 @@
       </c>
       <c r="J211" s="9"/>
       <c r="K211" s="9"/>
-      <c r="L211" s="9">
+      <c r="L211" s="23">
         <v>30.4</v>
       </c>
       <c r="M211" s="9">
@@ -42074,7 +42084,7 @@
       </c>
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
-      <c r="L212" s="9">
+      <c r="L212" s="23">
         <v>30.1</v>
       </c>
       <c r="M212" s="9">
@@ -42290,8 +42300,8 @@
       </c>
       <c r="J213" s="9"/>
       <c r="K213" s="9"/>
-      <c r="L213" s="9">
-        <v>493.5</v>
+      <c r="L213" s="23">
+        <v>21</v>
       </c>
       <c r="M213" s="9">
         <v>0</v>
@@ -42498,7 +42508,7 @@
       </c>
       <c r="J214" s="9"/>
       <c r="K214" s="9"/>
-      <c r="L214" s="9">
+      <c r="L214" s="23">
         <v>39.299999999999997</v>
       </c>
       <c r="M214" s="9">
@@ -42694,7 +42704,7 @@
       </c>
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
-      <c r="L215" s="9">
+      <c r="L215" s="23">
         <v>21.5</v>
       </c>
       <c r="M215" s="9">
@@ -42910,7 +42920,7 @@
       </c>
       <c r="J216" s="9"/>
       <c r="K216" s="9"/>
-      <c r="L216" s="9">
+      <c r="L216" s="23">
         <v>25.7</v>
       </c>
       <c r="M216" s="9">
@@ -43120,7 +43130,7 @@
       </c>
       <c r="J217" s="9"/>
       <c r="K217" s="9"/>
-      <c r="L217" s="9">
+      <c r="L217" s="23">
         <v>35.9</v>
       </c>
       <c r="M217" s="9">
@@ -43336,7 +43346,7 @@
       </c>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
-      <c r="L218" s="9">
+      <c r="L218" s="23">
         <v>27.5</v>
       </c>
       <c r="M218" s="9">
@@ -43540,7 +43550,7 @@
       </c>
       <c r="J219" s="9"/>
       <c r="K219" s="9"/>
-      <c r="L219" s="9"/>
+      <c r="L219" s="23"/>
       <c r="M219" s="9"/>
       <c r="N219" s="9"/>
       <c r="O219" s="9"/>
@@ -43668,7 +43678,7 @@
       </c>
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
-      <c r="L220" s="9">
+      <c r="L220" s="23">
         <v>26.9</v>
       </c>
       <c r="M220" s="9">
